--- a/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,31 +82,31 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,31 +653,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519072870527</v>
+        <v>0.9998432416136512</v>
       </c>
       <c r="D3">
         <v>0.9992473255432436</v>
       </c>
       <c r="E3">
+        <v>0.9992473255432436</v>
+      </c>
+      <c r="F3">
         <v>1.000178442683446</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.000519072870527</v>
       </c>
-      <c r="G3">
-        <v>0.999837682809618</v>
-      </c>
       <c r="H3">
-        <v>1.000278363175022</v>
+        <v>1.000519072870527</v>
       </c>
       <c r="I3">
         <v>1.000519072870527</v>
       </c>
       <c r="J3">
-        <v>0.9992473255432436</v>
+        <v>1.000278363175022</v>
       </c>
       <c r="K3">
-        <v>0.9998432416136512</v>
+        <v>0.999837682809618</v>
       </c>
       <c r="L3">
         <v>1.000193571655096</v>
@@ -764,7 +716,7 @@
         <v>0.9999508279702188</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001001613777368</v>
+        <v>0.9996975528352813</v>
       </c>
       <c r="D4">
         <v>0.998546719016661</v>
       </c>
       <c r="E4">
+        <v>0.998546719016661</v>
+      </c>
+      <c r="F4">
         <v>1.000344892188404</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.001001613777368</v>
       </c>
-      <c r="G4">
-        <v>0.9996866164634162</v>
-      </c>
       <c r="H4">
-        <v>1.000537508387025</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="I4">
         <v>1.001001613777368</v>
       </c>
       <c r="J4">
-        <v>0.998546719016661</v>
+        <v>1.000537508387025</v>
       </c>
       <c r="K4">
-        <v>0.9996975528352813</v>
+        <v>0.9996866164634162</v>
       </c>
       <c r="L4">
         <v>1.000373558623191</v>
       </c>
       <c r="M4">
-        <v>0.9990518788108611</v>
+        <v>0.999051878810861</v>
       </c>
       <c r="N4">
         <v>1.001001613777368</v>
@@ -835,7 +787,7 @@
         <v>0.999905042512776</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918179421038</v>
+        <v>0.9994208870733957</v>
       </c>
       <c r="D5">
         <v>0.99721424028748</v>
       </c>
       <c r="E5">
+        <v>0.99721424028748</v>
+      </c>
+      <c r="F5">
         <v>1.000662123752816</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.001918179421038</v>
       </c>
-      <c r="G5">
-        <v>0.9993993444948969</v>
-      </c>
       <c r="H5">
-        <v>1.001030442908625</v>
+        <v>1.001918179421038</v>
       </c>
       <c r="I5">
         <v>1.001918179421038</v>
       </c>
       <c r="J5">
-        <v>0.99721424028748</v>
+        <v>1.001030442908625</v>
       </c>
       <c r="K5">
-        <v>0.9994208870733957</v>
+        <v>0.9993993444948969</v>
       </c>
       <c r="L5">
         <v>1.000715504989035</v>
       </c>
       <c r="M5">
-        <v>0.9981827465623163</v>
+        <v>0.9981827465623164</v>
       </c>
       <c r="N5">
         <v>1.001918179421038</v>
@@ -906,7 +858,7 @@
         <v>0.9998179336862005</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,31 +866,31 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9991509509489974</v>
+      </c>
+      <c r="D6">
+        <v>0.9959137121012213</v>
+      </c>
+      <c r="E6">
+        <v>0.9959137121012213</v>
+      </c>
+      <c r="F6">
+        <v>1.000971891538997</v>
+      </c>
+      <c r="G6">
         <v>1.002812513518203</v>
       </c>
-      <c r="D6">
-        <v>0.9959137121012215</v>
-      </c>
-      <c r="E6">
-        <v>1.000971891538997</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.002812513518203</v>
-      </c>
-      <c r="G6">
-        <v>0.9991189711927025</v>
-      </c>
-      <c r="H6">
-        <v>1.001511578638312</v>
       </c>
       <c r="I6">
         <v>1.002812513518203</v>
       </c>
       <c r="J6">
-        <v>0.9959137121012215</v>
+        <v>1.001511578638312</v>
       </c>
       <c r="K6">
-        <v>0.9991509509489974</v>
+        <v>0.9991189711927025</v>
       </c>
       <c r="L6">
         <v>1.001049181092903</v>
@@ -953,16 +905,16 @@
         <v>1.000971891538997</v>
       </c>
       <c r="P6">
-        <v>0.9984428018201095</v>
+        <v>0.9984428018201092</v>
       </c>
       <c r="Q6">
         <v>1.00004543136585</v>
       </c>
       <c r="R6">
-        <v>0.9998993723861406</v>
+        <v>0.9998993723861404</v>
       </c>
       <c r="S6">
-        <v>0.9986681916109738</v>
+        <v>0.9986681916109736</v>
       </c>
       <c r="T6">
         <v>0.9998993723861404</v>
@@ -977,7 +929,7 @@
         <v>0.9997329088834696</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000037789726826</v>
+        <v>0.9999887474863213</v>
       </c>
       <c r="D7">
         <v>0.9999412282067976</v>
       </c>
       <c r="E7">
+        <v>0.9999412282067976</v>
+      </c>
+      <c r="F7">
         <v>1.000015475039971</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.000037789726826</v>
       </c>
-      <c r="G7">
-        <v>0.9999874176539352</v>
-      </c>
       <c r="H7">
-        <v>1.000021896096954</v>
+        <v>1.000037789726826</v>
       </c>
       <c r="I7">
         <v>1.000037789726826</v>
       </c>
       <c r="J7">
-        <v>0.9999412282067976</v>
+        <v>1.000021896096954</v>
       </c>
       <c r="K7">
-        <v>0.9999887474863213</v>
+        <v>0.9999874176539352</v>
       </c>
       <c r="L7">
         <v>1.000014257617278</v>
       </c>
       <c r="M7">
-        <v>0.9999619226701887</v>
+        <v>0.9999619226701885</v>
       </c>
       <c r="N7">
         <v>1.000037789726826</v>
@@ -1048,7 +1000,7 @@
         <v>0.999996091812284</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000110070287299</v>
+        <v>0.9999671753656034</v>
       </c>
       <c r="D8">
         <v>0.9998299985744131</v>
       </c>
       <c r="E8">
+        <v>0.9998299985744131</v>
+      </c>
+      <c r="F8">
         <v>1.000044335547208</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.000110070287299</v>
       </c>
-      <c r="G8">
-        <v>0.9999635802690932</v>
-      </c>
       <c r="H8">
-        <v>1.000063294192983</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="I8">
         <v>1.000110070287299</v>
       </c>
       <c r="J8">
-        <v>0.9998299985744131</v>
+        <v>1.000063294192983</v>
       </c>
       <c r="K8">
-        <v>0.9999671753656034</v>
+        <v>0.9999635802690932</v>
       </c>
       <c r="L8">
         <v>1.000041480007926</v>
       </c>
       <c r="M8">
-        <v>0.9998897826439954</v>
+        <v>0.9998897826439952</v>
       </c>
       <c r="N8">
         <v>1.000110070287299</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999887146110653</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,31 +1079,31 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999545475878595</v>
+      </c>
+      <c r="D9">
+        <v>0.9997656587737745</v>
+      </c>
+      <c r="E9">
+        <v>0.9997656587737745</v>
+      </c>
+      <c r="F9">
+        <v>1.000060794594143</v>
+      </c>
+      <c r="G9">
         <v>1.00015229793243</v>
       </c>
-      <c r="D9">
-        <v>0.9997656587737743</v>
-      </c>
-      <c r="E9">
-        <v>1.000060794594143</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.00015229793243</v>
-      </c>
-      <c r="G9">
-        <v>0.9999497780460345</v>
-      </c>
-      <c r="H9">
-        <v>1.000087215400743</v>
       </c>
       <c r="I9">
         <v>1.00015229793243</v>
       </c>
       <c r="J9">
-        <v>0.9997656587737743</v>
+        <v>1.000087215400743</v>
       </c>
       <c r="K9">
-        <v>0.9999545475878595</v>
+        <v>0.9999497780460345</v>
       </c>
       <c r="L9">
         <v>1.000057357367887</v>
@@ -1166,31 +1118,31 @@
         <v>1.000060794594143</v>
       </c>
       <c r="P9">
-        <v>0.9999132266839588</v>
+        <v>0.999913226683959</v>
       </c>
       <c r="Q9">
         <v>1.000005286320089</v>
       </c>
       <c r="R9">
-        <v>0.9999929171001157</v>
+        <v>0.999992917100116</v>
       </c>
       <c r="S9">
-        <v>0.9999254104713172</v>
+        <v>0.9999254104713176</v>
       </c>
       <c r="T9">
-        <v>0.9999929171001157</v>
+        <v>0.999992917100116</v>
       </c>
       <c r="U9">
-        <v>0.9999821323365954</v>
+        <v>0.9999821323365956</v>
       </c>
       <c r="V9">
         <v>1.000016165455762</v>
       </c>
       <c r="W9">
-        <v>0.9999844579284231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999844579284232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,31 +1150,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00032873028169</v>
+        <v>0.9999019276247367</v>
       </c>
       <c r="D10">
         <v>0.9994932557679572</v>
       </c>
       <c r="E10">
+        <v>0.9994932557679572</v>
+      </c>
+      <c r="F10">
         <v>1.000131804135122</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.00032873028169</v>
       </c>
-      <c r="G10">
-        <v>0.9998914199937687</v>
-      </c>
       <c r="H10">
-        <v>1.000188635516294</v>
+        <v>1.00032873028169</v>
       </c>
       <c r="I10">
         <v>1.00032873028169</v>
       </c>
       <c r="J10">
-        <v>0.9994932557679572</v>
+        <v>1.000188635516294</v>
       </c>
       <c r="K10">
-        <v>0.9999019276247367</v>
+        <v>0.9998914199937687</v>
       </c>
       <c r="L10">
         <v>1.00012384239042</v>
@@ -1261,7 +1213,7 @@
         <v>0.999966376995876</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,31 +1221,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000551980574372</v>
+        <v>0.9998351994812531</v>
       </c>
       <c r="D11">
         <v>0.9991522280468086</v>
       </c>
       <c r="E11">
-        <v>1.000219370092936</v>
+        <v>0.9991522280468086</v>
       </c>
       <c r="F11">
+        <v>1.000219370092935</v>
+      </c>
+      <c r="G11">
         <v>1.000551980574372</v>
       </c>
-      <c r="G11">
-        <v>0.9998182771739655</v>
-      </c>
       <c r="H11">
-        <v>1.000315463417976</v>
+        <v>1.000551980574372</v>
       </c>
       <c r="I11">
         <v>1.000551980574372</v>
       </c>
       <c r="J11">
-        <v>0.9991522280468086</v>
+        <v>1.000315463417976</v>
       </c>
       <c r="K11">
-        <v>0.9998351994812531</v>
+        <v>0.9998182771739655</v>
       </c>
       <c r="L11">
         <v>1.000207817787132</v>
@@ -1305,25 +1257,25 @@
         <v>1.000551980574372</v>
       </c>
       <c r="O11">
-        <v>1.000219370092936</v>
+        <v>1.000219370092935</v>
       </c>
       <c r="P11">
-        <v>0.9996857990698721</v>
+        <v>0.999685799069872</v>
       </c>
       <c r="Q11">
-        <v>1.000018823633451</v>
+        <v>1.00001882363345</v>
       </c>
       <c r="R11">
-        <v>0.9999745262380388</v>
+        <v>0.9999745262380387</v>
       </c>
       <c r="S11">
-        <v>0.9997299584379032</v>
+        <v>0.9997299584379031</v>
       </c>
       <c r="T11">
-        <v>0.9999745262380388</v>
+        <v>0.9999745262380387</v>
       </c>
       <c r="U11">
-        <v>0.9999354639720205</v>
+        <v>0.9999354639720204</v>
       </c>
       <c r="V11">
         <v>1.000058767292491</v>
@@ -1332,7 +1284,7 @@
         <v>0.9999437998017586</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,31 +1292,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9924577542342169</v>
+        <v>1.002229878678296</v>
       </c>
       <c r="D12">
         <v>1.012133338937324</v>
       </c>
       <c r="E12">
-        <v>0.9966591779567735</v>
+        <v>1.012133338937324</v>
       </c>
       <c r="F12">
+        <v>0.9966591779567736</v>
+      </c>
+      <c r="G12">
         <v>0.9924577542342169</v>
       </c>
-      <c r="G12">
-        <v>1.002588683326534</v>
-      </c>
       <c r="H12">
-        <v>0.995463930002616</v>
+        <v>0.9924577542342169</v>
       </c>
       <c r="I12">
         <v>0.9924577542342169</v>
       </c>
       <c r="J12">
-        <v>1.012133338937324</v>
+        <v>0.995463930002616</v>
       </c>
       <c r="K12">
-        <v>1.002229878678296</v>
+        <v>1.002588683326534</v>
       </c>
       <c r="L12">
         <v>0.9971374900909714</v>
@@ -1376,13 +1328,13 @@
         <v>0.9924577542342169</v>
       </c>
       <c r="O12">
-        <v>0.9966591779567735</v>
+        <v>0.9966591779567736</v>
       </c>
       <c r="P12">
         <v>1.004396258447049</v>
       </c>
       <c r="Q12">
-        <v>0.9996239306416538</v>
+        <v>0.9996239306416539</v>
       </c>
       <c r="R12">
         <v>1.000416757042771</v>
@@ -1403,7 +1355,7 @@
         <v>1.000813272243635</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,31 +1363,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9977728544845597</v>
+        <v>1.000682027625203</v>
       </c>
       <c r="D13">
         <v>1.002993557612761</v>
       </c>
       <c r="E13">
+        <v>1.002993557612761</v>
+      </c>
+      <c r="F13">
         <v>0.9993817903805157</v>
       </c>
-      <c r="F13">
-        <v>0.9977728544845597</v>
-      </c>
       <c r="G13">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="H13">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="I13">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="J13">
+        <v>0.9989024821036976</v>
+      </c>
+      <c r="K13">
         <v>1.000651073466942</v>
-      </c>
-      <c r="H13">
-        <v>0.9989024821036977</v>
-      </c>
-      <c r="I13">
-        <v>0.9977728544845597</v>
-      </c>
-      <c r="J13">
-        <v>1.002993557612761</v>
-      </c>
-      <c r="K13">
-        <v>1.000682027625203</v>
       </c>
       <c r="L13">
         <v>0.9991792842476804</v>
@@ -1444,7 +1396,7 @@
         <v>1.001968972279209</v>
       </c>
       <c r="N13">
-        <v>0.9977728544845597</v>
+        <v>0.9977728544845595</v>
       </c>
       <c r="O13">
         <v>0.9993817903805157</v>
@@ -1474,7 +1426,7 @@
         <v>1.000191505275071</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,31 +1434,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9751867436385546</v>
+        <v>1.007441711772527</v>
       </c>
       <c r="D14">
         <v>1.037276530668762</v>
       </c>
       <c r="E14">
+        <v>1.037276530668762</v>
+      </c>
+      <c r="F14">
         <v>0.9906596228118023</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.9751867436385546</v>
       </c>
-      <c r="G14">
-        <v>1.008008556739612</v>
-      </c>
       <c r="H14">
-        <v>0.9861610531467334</v>
+        <v>0.9751867436385546</v>
       </c>
       <c r="I14">
         <v>0.9751867436385546</v>
       </c>
       <c r="J14">
-        <v>1.037276530668762</v>
+        <v>0.9861610531467334</v>
       </c>
       <c r="K14">
-        <v>1.007441711772527</v>
+        <v>1.008008556739612</v>
       </c>
       <c r="L14">
         <v>0.9906926681573588</v>
@@ -1524,7 +1476,7 @@
         <v>1.013968076740282</v>
       </c>
       <c r="Q14">
-        <v>0.9993340897757073</v>
+        <v>0.9993340897757071</v>
       </c>
       <c r="R14">
         <v>1.001040965706373</v>
@@ -1545,7 +1497,7 @@
         <v>1.002457579235466</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,31 +1505,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9933544039901825</v>
+        <v>1.001994845059642</v>
       </c>
       <c r="D15">
         <v>1.009939348296659</v>
       </c>
       <c r="E15">
+        <v>1.009939348296659</v>
+      </c>
+      <c r="F15">
         <v>0.9975260567333069</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.9933544039901825</v>
       </c>
-      <c r="G15">
-        <v>1.002136381046184</v>
-      </c>
       <c r="H15">
-        <v>0.996311742649718</v>
+        <v>0.9933544039901825</v>
       </c>
       <c r="I15">
         <v>0.9933544039901825</v>
       </c>
       <c r="J15">
-        <v>1.009939348296659</v>
+        <v>0.996311742649718</v>
       </c>
       <c r="K15">
-        <v>1.001994845059642</v>
+        <v>1.002136381046184</v>
       </c>
       <c r="L15">
         <v>0.9975091110789633</v>
@@ -1616,7 +1568,7 @@
         <v>1.000654549767494</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002863802615</v>
+        <v>0.9969526098018627</v>
       </c>
       <c r="D16">
-        <v>0.9999972953862619</v>
+        <v>0.9853003457743569</v>
       </c>
       <c r="E16">
-        <v>1.000000078908611</v>
+        <v>0.9853003457743569</v>
       </c>
       <c r="F16">
-        <v>1.000002863802615</v>
+        <v>1.003507006667317</v>
       </c>
       <c r="G16">
-        <v>0.9999993822923479</v>
+        <v>1.010098273467656</v>
       </c>
       <c r="H16">
-        <v>1.000000939743156</v>
+        <v>1.010098273467656</v>
       </c>
       <c r="I16">
-        <v>1.000002863802615</v>
+        <v>1.010098273467656</v>
       </c>
       <c r="J16">
-        <v>0.9999972953862619</v>
+        <v>1.005438748519427</v>
       </c>
       <c r="K16">
-        <v>0.999999078170165</v>
+        <v>0.9968312998686459</v>
       </c>
       <c r="L16">
-        <v>1.000001007072564</v>
+        <v>1.003768203289911</v>
       </c>
       <c r="M16">
-        <v>0.9999981389911532</v>
+        <v>0.9904131249529046</v>
       </c>
       <c r="N16">
-        <v>1.000002863802615</v>
+        <v>1.010098273467656</v>
       </c>
       <c r="O16">
-        <v>1.000000078908611</v>
+        <v>1.003507006667317</v>
       </c>
       <c r="P16">
-        <v>0.9999986871474366</v>
+        <v>0.9944036762208368</v>
       </c>
       <c r="Q16">
-        <v>0.9999997306004795</v>
+        <v>1.000169153267982</v>
       </c>
       <c r="R16">
-        <v>1.000000079365829</v>
+        <v>0.9996352086364432</v>
       </c>
       <c r="S16">
-        <v>0.9999989188624069</v>
+        <v>0.9952128841034398</v>
       </c>
       <c r="T16">
-        <v>1.000000079365829</v>
+        <v>0.9996352086364432</v>
       </c>
       <c r="U16">
-        <v>0.9999999050974591</v>
+        <v>0.9989342314444938</v>
       </c>
       <c r="V16">
-        <v>1.00000049683849</v>
+        <v>1.001167039849126</v>
       </c>
       <c r="W16">
-        <v>0.9999998480458593</v>
+        <v>0.9990387015427601</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000041146109208</v>
+        <v>0.9975300760580413</v>
       </c>
       <c r="D17">
-        <v>0.9999317861632683</v>
+        <v>0.9879247005449184</v>
       </c>
       <c r="E17">
-        <v>1.000019487910565</v>
+        <v>0.9879247005449184</v>
       </c>
       <c r="F17">
-        <v>1.000041146109208</v>
+        <v>1.002933097992147</v>
       </c>
       <c r="G17">
-        <v>0.9999854882895702</v>
+        <v>1.008202604948375</v>
       </c>
       <c r="H17">
-        <v>1.000025573822092</v>
+        <v>1.008202604948375</v>
       </c>
       <c r="I17">
-        <v>1.000041146109208</v>
+        <v>1.008202604948375</v>
       </c>
       <c r="J17">
-        <v>0.9999317861632683</v>
+        <v>1.004473239445456</v>
       </c>
       <c r="K17">
-        <v>0.9999879168459969</v>
+        <v>0.9974001518408113</v>
       </c>
       <c r="L17">
-        <v>1.000015700295048</v>
+        <v>1.003066455918223</v>
       </c>
       <c r="M17">
-        <v>0.9999560698430136</v>
+        <v>0.9921337260044752</v>
       </c>
       <c r="N17">
-        <v>1.000041146109208</v>
+        <v>1.008202604948375</v>
       </c>
       <c r="O17">
-        <v>1.000019487910565</v>
+        <v>1.002933097992147</v>
       </c>
       <c r="P17">
-        <v>0.9999756370369166</v>
+        <v>0.9954288992685327</v>
       </c>
       <c r="Q17">
-        <v>1.000002488100068</v>
+        <v>1.000166624916479</v>
       </c>
       <c r="R17">
-        <v>0.999997473394347</v>
+        <v>0.9996868011618133</v>
       </c>
       <c r="S17">
-        <v>0.9999789207878012</v>
+        <v>0.9960859834592922</v>
       </c>
       <c r="T17">
-        <v>0.999997473394347</v>
+        <v>0.9996868011618133</v>
       </c>
       <c r="U17">
-        <v>0.9999944771181528</v>
+        <v>0.9991151388315628</v>
       </c>
       <c r="V17">
-        <v>1.000003810916364</v>
+        <v>1.000932632054925</v>
       </c>
       <c r="W17">
-        <v>0.9999953961598453</v>
+        <v>0.9992080065940558</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000164185282764</v>
+        <v>0.9986865930092589</v>
       </c>
       <c r="D18">
-        <v>0.9997707134883944</v>
+        <v>0.9931868308616137</v>
       </c>
       <c r="E18">
-        <v>1.000050946715009</v>
+        <v>0.9931868308616137</v>
       </c>
       <c r="F18">
-        <v>1.000164185282764</v>
+        <v>1.001780203101141</v>
       </c>
       <c r="G18">
-        <v>0.9999503467028459</v>
+        <v>1.004405379601229</v>
       </c>
       <c r="H18">
-        <v>1.000084437444023</v>
+        <v>1.004405379601229</v>
       </c>
       <c r="I18">
-        <v>1.000164185282764</v>
+        <v>1.004405379601229</v>
       </c>
       <c r="J18">
-        <v>0.9997707134883944</v>
+        <v>1.002537058344383</v>
       </c>
       <c r="K18">
-        <v>0.9999500645530701</v>
+        <v>0.9985406366922669</v>
       </c>
       <c r="L18">
-        <v>1.000060862319519</v>
+        <v>1.001660561418635</v>
       </c>
       <c r="M18">
-        <v>0.9998498143293624</v>
+        <v>0.9955833567232</v>
       </c>
       <c r="N18">
-        <v>1.000164185282764</v>
+        <v>1.004405379601229</v>
       </c>
       <c r="O18">
-        <v>1.000050946715009</v>
+        <v>1.001780203101141</v>
       </c>
       <c r="P18">
-        <v>0.9999108301017017</v>
+        <v>0.9974835169813774</v>
       </c>
       <c r="Q18">
-        <v>1.000000646708927</v>
+        <v>1.000160419896704</v>
       </c>
       <c r="R18">
-        <v>0.9999952818287223</v>
+        <v>0.9997908045213281</v>
       </c>
       <c r="S18">
-        <v>0.999924002302083</v>
+        <v>0.9978358902183405</v>
       </c>
       <c r="T18">
-        <v>0.9999952818287223</v>
+        <v>0.9997908045213281</v>
       </c>
       <c r="U18">
-        <v>0.9999840480472533</v>
+        <v>0.9994782625640628</v>
       </c>
       <c r="V18">
-        <v>1.000020075494355</v>
+        <v>1.000463685971496</v>
       </c>
       <c r="W18">
-        <v>0.9999851713543735</v>
+        <v>0.9995475774689659</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9985487118491778</v>
+      </c>
+      <c r="D19">
+        <v>0.9923885875053624</v>
+      </c>
+      <c r="E19">
+        <v>0.9923885875053624</v>
+      </c>
+      <c r="F19">
+        <v>1.002013777369511</v>
+      </c>
+      <c r="G19">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="H19">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="I19">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="J19">
+        <v>1.002836929477944</v>
+      </c>
+      <c r="K19">
+        <v>0.9983711600053603</v>
+      </c>
+      <c r="L19">
+        <v>1.00184122839482</v>
+      </c>
+      <c r="M19">
+        <v>0.9950702279735126</v>
+      </c>
+      <c r="N19">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="O19">
+        <v>1.002013777369511</v>
+      </c>
+      <c r="P19">
+        <v>0.9972011824374366</v>
+      </c>
+      <c r="Q19">
+        <v>1.000192468687435</v>
+      </c>
+      <c r="R19">
+        <v>0.9997598143527133</v>
+      </c>
+      <c r="S19">
+        <v>0.9975911749600779</v>
+      </c>
+      <c r="T19">
+        <v>0.9997598143527133</v>
+      </c>
+      <c r="U19">
+        <v>0.999412650765875</v>
+      </c>
+      <c r="V19">
+        <v>1.000505536249353</v>
+      </c>
+      <c r="W19">
+        <v>0.9994934625948693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999990781701648</v>
+      </c>
+      <c r="D20">
+        <v>0.9999972953862619</v>
+      </c>
+      <c r="E20">
+        <v>0.9999972953862619</v>
+      </c>
+      <c r="F20">
+        <v>1.000000078908611</v>
+      </c>
+      <c r="G20">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="H20">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="I20">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="J20">
+        <v>1.000000939743156</v>
+      </c>
+      <c r="K20">
+        <v>0.9999993822923481</v>
+      </c>
+      <c r="L20">
+        <v>1.000001007072564</v>
+      </c>
+      <c r="M20">
+        <v>0.9999981389911528</v>
+      </c>
+      <c r="N20">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="O20">
+        <v>1.000000078908611</v>
+      </c>
+      <c r="P20">
+        <v>0.9999986871474366</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999997306004796</v>
+      </c>
+      <c r="R20">
+        <v>1.000000079365829</v>
+      </c>
+      <c r="S20">
+        <v>0.9999989188624071</v>
+      </c>
+      <c r="T20">
+        <v>1.000000079365829</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999050974591</v>
+      </c>
+      <c r="V20">
+        <v>1.00000049683849</v>
+      </c>
+      <c r="W20">
+        <v>0.9999998480458593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999879168459971</v>
+      </c>
+      <c r="D21">
+        <v>0.9999317861632683</v>
+      </c>
+      <c r="E21">
+        <v>0.9999317861632683</v>
+      </c>
+      <c r="F21">
+        <v>1.000019487910565</v>
+      </c>
+      <c r="G21">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="H21">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="I21">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="J21">
+        <v>1.000025573822092</v>
+      </c>
+      <c r="K21">
+        <v>0.9999854882895702</v>
+      </c>
+      <c r="L21">
+        <v>1.000015700295048</v>
+      </c>
+      <c r="M21">
+        <v>0.9999560698430136</v>
+      </c>
+      <c r="N21">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="O21">
+        <v>1.000019487910565</v>
+      </c>
+      <c r="P21">
+        <v>0.9999756370369168</v>
+      </c>
+      <c r="Q21">
+        <v>1.000002488100068</v>
+      </c>
+      <c r="R21">
+        <v>0.9999974733943472</v>
+      </c>
+      <c r="S21">
+        <v>0.9999789207878013</v>
+      </c>
+      <c r="T21">
+        <v>0.9999974733943472</v>
+      </c>
+      <c r="U21">
+        <v>0.9999944771181529</v>
+      </c>
+      <c r="V21">
+        <v>1.000003810916364</v>
+      </c>
+      <c r="W21">
+        <v>0.9999953961598453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999500645530701</v>
+      </c>
+      <c r="D22">
+        <v>0.9997707134883944</v>
+      </c>
+      <c r="E22">
+        <v>0.9997707134883944</v>
+      </c>
+      <c r="F22">
+        <v>1.000050946715009</v>
+      </c>
+      <c r="G22">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="H22">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="I22">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="J22">
+        <v>1.000084437444023</v>
+      </c>
+      <c r="K22">
+        <v>0.9999503467028459</v>
+      </c>
+      <c r="L22">
+        <v>1.000060862319519</v>
+      </c>
+      <c r="M22">
+        <v>0.9998498143293626</v>
+      </c>
+      <c r="N22">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="O22">
+        <v>1.000050946715009</v>
+      </c>
+      <c r="P22">
+        <v>0.9999108301017017</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000646708927</v>
+      </c>
+      <c r="R22">
+        <v>0.9999952818287223</v>
+      </c>
+      <c r="S22">
+        <v>0.999924002302083</v>
+      </c>
+      <c r="T22">
+        <v>0.9999952818287223</v>
+      </c>
+      <c r="U22">
+        <v>0.9999840480472533</v>
+      </c>
+      <c r="V22">
+        <v>1.000020075494355</v>
+      </c>
+      <c r="W22">
+        <v>0.9999851713543735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.999877994382116</v>
+      </c>
+      <c r="D23">
+        <v>0.9994702360307895</v>
+      </c>
+      <c r="E23">
+        <v>0.9994702360307895</v>
+      </c>
+      <c r="F23">
+        <v>1.000107361393702</v>
+      </c>
+      <c r="G23">
         <v>1.000397765150552</v>
       </c>
-      <c r="D19">
-        <v>0.9994702360307895</v>
-      </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.000397765150552</v>
+      </c>
+      <c r="I23">
+        <v>1.000397765150552</v>
+      </c>
+      <c r="J23">
+        <v>1.000194010014422</v>
+      </c>
+      <c r="K23">
+        <v>0.9998846556874219</v>
+      </c>
+      <c r="L23">
+        <v>1.000146370987171</v>
+      </c>
+      <c r="M23">
+        <v>0.9996512099303981</v>
+      </c>
+      <c r="N23">
+        <v>1.000397765150552</v>
+      </c>
+      <c r="O23">
         <v>1.000107361393702</v>
       </c>
-      <c r="F19">
-        <v>1.000397765150552</v>
-      </c>
-      <c r="G19">
-        <v>0.9998846556874219</v>
-      </c>
-      <c r="H19">
-        <v>1.000194010014422</v>
-      </c>
-      <c r="I19">
-        <v>1.000397765150552</v>
-      </c>
-      <c r="J19">
-        <v>0.9994702360307895</v>
-      </c>
-      <c r="K19">
-        <v>0.999877994382116</v>
-      </c>
-      <c r="L19">
-        <v>1.000146370987171</v>
-      </c>
-      <c r="M19">
-        <v>0.9996512099303981</v>
-      </c>
-      <c r="N19">
-        <v>1.000397765150552</v>
-      </c>
-      <c r="O19">
-        <v>1.000107361393702</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999788798712246</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999960085405621</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999917875250146</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998207510373046</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999917875250146</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999650045656164</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000051556682604</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999662004470716</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998432416136512</v>
+        <v>0.998349011556195</v>
       </c>
       <c r="D3">
-        <v>0.9992473255432436</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="E3">
-        <v>0.9992473255432436</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="F3">
-        <v>1.000178442683446</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="G3">
-        <v>1.000519072870527</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="H3">
-        <v>1.000519072870527</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="I3">
-        <v>1.000519072870527</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="J3">
-        <v>1.000278363175022</v>
+        <v>1.003182337982707</v>
       </c>
       <c r="K3">
-        <v>0.999837682809618</v>
+        <v>0.9981688476440891</v>
       </c>
       <c r="L3">
-        <v>1.000193571655096</v>
+        <v>1.002086082319885</v>
       </c>
       <c r="M3">
-        <v>0.9995089234111462</v>
+        <v>0.994458213753602</v>
       </c>
       <c r="N3">
-        <v>1.000519072870527</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="O3">
-        <v>1.000178442683446</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="P3">
-        <v>0.9997128841133447</v>
+        <v>0.9968404046721897</v>
       </c>
       <c r="Q3">
-        <v>1.000008062746532</v>
+        <v>1.000198564232707</v>
       </c>
       <c r="R3">
-        <v>0.9999816136990723</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="S3">
-        <v>0.9997544836787692</v>
+        <v>0.9972832189961561</v>
       </c>
       <c r="T3">
-        <v>0.9999816136990723</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="U3">
-        <v>0.9999456309767087</v>
+        <v>0.999346365082852</v>
       </c>
       <c r="V3">
-        <v>1.000060319355472</v>
+        <v>1.00058425273487</v>
       </c>
       <c r="W3">
-        <v>0.9999508279702188</v>
+        <v>0.9994326382429748</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9996975528352813</v>
+        <v>0.9985326697717173</v>
       </c>
       <c r="D4">
-        <v>0.998546719016661</v>
+        <v>0.9923920472260497</v>
       </c>
       <c r="E4">
-        <v>0.998546719016661</v>
+        <v>0.9923920472260497</v>
       </c>
       <c r="F4">
-        <v>1.000344892188404</v>
+        <v>1.001986767745064</v>
       </c>
       <c r="G4">
-        <v>1.001001613777368</v>
+        <v>1.004921249936639</v>
       </c>
       <c r="H4">
-        <v>1.001001613777368</v>
+        <v>1.004921249936639</v>
       </c>
       <c r="I4">
-        <v>1.001001613777368</v>
+        <v>1.004921249936639</v>
       </c>
       <c r="J4">
-        <v>1.000537508387025</v>
+        <v>1.002832901114419</v>
       </c>
       <c r="K4">
-        <v>0.9996866164634162</v>
+        <v>0.9983703290337278</v>
       </c>
       <c r="L4">
-        <v>1.000373558623191</v>
+        <v>1.001854887508385</v>
       </c>
       <c r="M4">
-        <v>0.999051878810861</v>
+        <v>0.9950679456848662</v>
       </c>
       <c r="N4">
-        <v>1.001001613777368</v>
+        <v>1.004921249936639</v>
       </c>
       <c r="O4">
-        <v>1.000344892188404</v>
+        <v>1.001986767745064</v>
       </c>
       <c r="P4">
-        <v>0.9994458056025327</v>
+        <v>0.9971894074855571</v>
       </c>
       <c r="Q4">
-        <v>1.00001575432591</v>
+        <v>1.000178548389396</v>
       </c>
       <c r="R4">
-        <v>0.9999644083274779</v>
+        <v>0.9997666883025843</v>
       </c>
       <c r="S4">
-        <v>0.9995260758894938</v>
+        <v>0.9975830480016139</v>
       </c>
       <c r="T4">
-        <v>0.9999644083274779</v>
+        <v>0.9997666883025843</v>
       </c>
       <c r="U4">
-        <v>0.9998949603614624</v>
+        <v>0.9994175984853702</v>
       </c>
       <c r="V4">
-        <v>1.000116291044644</v>
+        <v>1.000518328775624</v>
       </c>
       <c r="W4">
-        <v>0.999905042512776</v>
+        <v>0.9994948497526086</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9994208870733957</v>
+        <v>0.9980019389487873</v>
       </c>
       <c r="D5">
-        <v>0.99721424028748</v>
+        <v>0.9896758903234513</v>
       </c>
       <c r="E5">
-        <v>0.99721424028748</v>
+        <v>0.9896758903234513</v>
       </c>
       <c r="F5">
-        <v>1.000662123752816</v>
+        <v>1.002685330943395</v>
       </c>
       <c r="G5">
-        <v>1.001918179421038</v>
+        <v>1.006697311051214</v>
       </c>
       <c r="H5">
-        <v>1.001918179421038</v>
+        <v>1.006697311051214</v>
       </c>
       <c r="I5">
-        <v>1.001918179421038</v>
+        <v>1.006697311051214</v>
       </c>
       <c r="J5">
-        <v>1.001030442908625</v>
+        <v>1.003843160754715</v>
       </c>
       <c r="K5">
-        <v>0.9993993444948969</v>
+        <v>0.9977878640161728</v>
       </c>
       <c r="L5">
-        <v>1.000715504989035</v>
+        <v>1.002523080970351</v>
       </c>
       <c r="M5">
-        <v>0.9981827465623164</v>
+        <v>0.9933052659299182</v>
       </c>
       <c r="N5">
-        <v>1.001918179421038</v>
+        <v>1.006697311051214</v>
       </c>
       <c r="O5">
-        <v>1.000662123752816</v>
+        <v>1.002685330943395</v>
       </c>
       <c r="P5">
-        <v>0.9989381820201481</v>
+        <v>0.9961806106334232</v>
       </c>
       <c r="Q5">
-        <v>1.000030734123857</v>
+        <v>1.000236597479784</v>
       </c>
       <c r="R5">
-        <v>0.9999315144871114</v>
+        <v>0.9996861774393535</v>
       </c>
       <c r="S5">
-        <v>0.9990919028450643</v>
+        <v>0.9967163617610065</v>
       </c>
       <c r="T5">
-        <v>0.9999315144871114</v>
+        <v>0.9996861774393535</v>
       </c>
       <c r="U5">
-        <v>0.9997984719890578</v>
+        <v>0.9992115990835584</v>
       </c>
       <c r="V5">
-        <v>1.000222413475454</v>
+        <v>1.000708741477089</v>
       </c>
       <c r="W5">
-        <v>0.9998179336862005</v>
+        <v>0.9993149803672505</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9991509509489974</v>
+        <v>0.9976799047727265</v>
       </c>
       <c r="D6">
-        <v>0.9959137121012213</v>
+        <v>0.988026098068182</v>
       </c>
       <c r="E6">
-        <v>0.9959137121012213</v>
+        <v>0.988026098068182</v>
       </c>
       <c r="F6">
-        <v>1.000971891538997</v>
+        <v>1.003110165568181</v>
       </c>
       <c r="G6">
-        <v>1.002812513518203</v>
+        <v>1.007775153409091</v>
       </c>
       <c r="H6">
-        <v>1.002812513518203</v>
+        <v>1.007775153409091</v>
       </c>
       <c r="I6">
-        <v>1.002812513518203</v>
+        <v>1.007775153409091</v>
       </c>
       <c r="J6">
-        <v>1.001511578638312</v>
+        <v>1.004456844545454</v>
       </c>
       <c r="K6">
-        <v>0.9991189711927025</v>
+        <v>0.9974341075568188</v>
       </c>
       <c r="L6">
-        <v>1.001049181092903</v>
+        <v>1.002928653863637</v>
       </c>
       <c r="M6">
-        <v>0.9973344720364202</v>
+        <v>0.992234711136362</v>
       </c>
       <c r="N6">
-        <v>1.002812513518203</v>
+        <v>1.007775153409091</v>
       </c>
       <c r="O6">
-        <v>1.000971891538997</v>
+        <v>1.003110165568181</v>
       </c>
       <c r="P6">
-        <v>0.9984428018201092</v>
+        <v>0.9955681318181815</v>
       </c>
       <c r="Q6">
-        <v>1.00004543136585</v>
+        <v>1.0002721365625</v>
       </c>
       <c r="R6">
-        <v>0.9998993723861404</v>
+        <v>0.9996371390151513</v>
       </c>
       <c r="S6">
-        <v>0.9986681916109736</v>
+        <v>0.9961901237310605</v>
       </c>
       <c r="T6">
-        <v>0.9998993723861404</v>
+        <v>0.9996371390151513</v>
       </c>
       <c r="U6">
-        <v>0.9997042720877809</v>
+        <v>0.9990863811505681</v>
       </c>
       <c r="V6">
-        <v>1.000325920373865</v>
+        <v>1.000824135602273</v>
       </c>
       <c r="W6">
-        <v>0.9997329088834696</v>
+        <v>0.9992057048650564</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999887474863213</v>
+        <v>0.9907692902173595</v>
       </c>
       <c r="D7">
-        <v>0.9999412282067976</v>
+        <v>0.9530627636185586</v>
       </c>
       <c r="E7">
-        <v>0.9999412282067976</v>
+        <v>0.9530627636185586</v>
       </c>
       <c r="F7">
-        <v>1.000015475039971</v>
+        <v>1.011979208667964</v>
       </c>
       <c r="G7">
-        <v>1.000037789726826</v>
+        <v>1.030856112812869</v>
       </c>
       <c r="H7">
-        <v>1.000037789726826</v>
+        <v>1.030856112812869</v>
       </c>
       <c r="I7">
-        <v>1.000037789726826</v>
+        <v>1.030856112812869</v>
       </c>
       <c r="J7">
-        <v>1.000021896096954</v>
+        <v>1.017448390651492</v>
       </c>
       <c r="K7">
-        <v>0.9999874176539352</v>
+        <v>0.9899290321008803</v>
       </c>
       <c r="L7">
-        <v>1.000014257617278</v>
+        <v>1.011598257725111</v>
       </c>
       <c r="M7">
-        <v>0.9999619226701885</v>
+        <v>0.969523542725463</v>
       </c>
       <c r="N7">
-        <v>1.000037789726826</v>
+        <v>1.030856112812869</v>
       </c>
       <c r="O7">
-        <v>1.000015475039971</v>
+        <v>1.011979208667964</v>
       </c>
       <c r="P7">
-        <v>0.9999783516233841</v>
+        <v>0.9825209861432611</v>
       </c>
       <c r="Q7">
-        <v>1.000001446346953</v>
+        <v>1.000954120384422</v>
       </c>
       <c r="R7">
-        <v>0.9999981643245315</v>
+        <v>0.9986326950331303</v>
       </c>
       <c r="S7">
-        <v>0.9999813736335678</v>
+        <v>0.9849903347958008</v>
       </c>
       <c r="T7">
-        <v>0.9999981643245315</v>
+        <v>0.9986326950331303</v>
       </c>
       <c r="U7">
-        <v>0.9999954776568825</v>
+        <v>0.9964567793000678</v>
       </c>
       <c r="V7">
-        <v>1.000003940070871</v>
+        <v>1.003336646002628</v>
       </c>
       <c r="W7">
-        <v>0.999996091812284</v>
+        <v>0.9968958248149622</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999671753656034</v>
+        <v>0.9907699065134217</v>
       </c>
       <c r="D8">
-        <v>0.9998299985744131</v>
+        <v>0.9530618654558333</v>
       </c>
       <c r="E8">
-        <v>0.9998299985744131</v>
+        <v>0.9530618654558333</v>
       </c>
       <c r="F8">
-        <v>1.000044335547208</v>
+        <v>1.011980676808464</v>
       </c>
       <c r="G8">
-        <v>1.000110070287299</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="H8">
-        <v>1.000110070287299</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="I8">
-        <v>1.000110070287299</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="J8">
-        <v>1.000063294192983</v>
+        <v>1.017448854365247</v>
       </c>
       <c r="K8">
-        <v>0.9999635802690932</v>
+        <v>0.9899289138613399</v>
       </c>
       <c r="L8">
-        <v>1.000041480007926</v>
+        <v>1.011597791386054</v>
       </c>
       <c r="M8">
-        <v>0.9998897826439952</v>
+        <v>0.9695231740740649</v>
       </c>
       <c r="N8">
-        <v>1.000110070287299</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="O8">
-        <v>1.000044335547208</v>
+        <v>1.011980676808464</v>
       </c>
       <c r="P8">
-        <v>0.9999371670608108</v>
+        <v>0.9825212711321489</v>
       </c>
       <c r="Q8">
-        <v>1.000003957908151</v>
+        <v>1.000954795334902</v>
       </c>
       <c r="R8">
-        <v>0.9999948014696404</v>
+        <v>0.9986323476688579</v>
       </c>
       <c r="S8">
-        <v>0.9999459714635716</v>
+        <v>0.9849904853752126</v>
       </c>
       <c r="T8">
-        <v>0.9999948014696404</v>
+        <v>0.9986323476688579</v>
       </c>
       <c r="U8">
-        <v>0.9999869961695036</v>
+        <v>0.9964564892169784</v>
       </c>
       <c r="V8">
-        <v>1.000011610993063</v>
+        <v>1.003336091522038</v>
       </c>
       <c r="W8">
-        <v>0.9999887146110653</v>
+        <v>0.9968957104008376</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999545475878595</v>
+        <v>0.9907710840092687</v>
       </c>
       <c r="D9">
-        <v>0.9997656587737745</v>
+        <v>0.953060137375109</v>
       </c>
       <c r="E9">
-        <v>0.9997656587737745</v>
+        <v>0.953060137375109</v>
       </c>
       <c r="F9">
-        <v>1.000060794594143</v>
+        <v>1.011983488659767</v>
       </c>
       <c r="G9">
-        <v>1.00015229793243</v>
+        <v>1.030851422080537</v>
       </c>
       <c r="H9">
-        <v>1.00015229793243</v>
+        <v>1.030851422080537</v>
       </c>
       <c r="I9">
-        <v>1.00015229793243</v>
+        <v>1.030851422080537</v>
       </c>
       <c r="J9">
-        <v>1.000087215400743</v>
+        <v>1.017449745467818</v>
       </c>
       <c r="K9">
-        <v>0.9999497780460345</v>
+        <v>0.9899286855915497</v>
       </c>
       <c r="L9">
-        <v>1.000057357367887</v>
+        <v>1.011596901324838</v>
       </c>
       <c r="M9">
-        <v>0.9998480137245132</v>
+        <v>0.9695224625423134</v>
       </c>
       <c r="N9">
-        <v>1.00015229793243</v>
+        <v>1.030851422080537</v>
       </c>
       <c r="O9">
-        <v>1.000060794594143</v>
+        <v>1.011983488659767</v>
       </c>
       <c r="P9">
-        <v>0.999913226683959</v>
+        <v>0.9825218130174378</v>
       </c>
       <c r="Q9">
-        <v>1.000005286320089</v>
+        <v>1.000956087125658</v>
       </c>
       <c r="R9">
-        <v>0.999992917100116</v>
+        <v>0.9986316827051375</v>
       </c>
       <c r="S9">
-        <v>0.9999254104713176</v>
+        <v>0.9849907705421418</v>
       </c>
       <c r="T9">
-        <v>0.999992917100116</v>
+        <v>0.9986316827051374</v>
       </c>
       <c r="U9">
-        <v>0.9999821323365956</v>
+        <v>0.9964559334267404</v>
       </c>
       <c r="V9">
-        <v>1.000016165455762</v>
+        <v>1.0033350311575</v>
       </c>
       <c r="W9">
-        <v>0.9999844579284232</v>
+        <v>0.9968954908814001</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999019276247367</v>
+        <v>0.9907710005329564</v>
       </c>
       <c r="D10">
-        <v>0.9994932557679572</v>
+        <v>0.9530602999421555</v>
       </c>
       <c r="E10">
-        <v>0.9994932557679572</v>
+        <v>0.9530602999421555</v>
       </c>
       <c r="F10">
-        <v>1.000131804135122</v>
+        <v>1.011983266222862</v>
       </c>
       <c r="G10">
-        <v>1.00032873028169</v>
+        <v>1.030851636088479</v>
       </c>
       <c r="H10">
-        <v>1.00032873028169</v>
+        <v>1.030851636088479</v>
       </c>
       <c r="I10">
-        <v>1.00032873028169</v>
+        <v>1.030851636088479</v>
       </c>
       <c r="J10">
-        <v>1.000188635516294</v>
+        <v>1.017449665453758</v>
       </c>
       <c r="K10">
-        <v>0.9998914199937687</v>
+        <v>0.9899287096238435</v>
       </c>
       <c r="L10">
-        <v>1.00012384239042</v>
+        <v>1.011596961865206</v>
       </c>
       <c r="M10">
-        <v>0.9996714002570198</v>
+        <v>0.9695225368914363</v>
       </c>
       <c r="N10">
-        <v>1.00032873028169</v>
+        <v>1.030851636088479</v>
       </c>
       <c r="O10">
-        <v>1.000131804135122</v>
+        <v>1.011983266222862</v>
       </c>
       <c r="P10">
-        <v>0.9998125299515397</v>
+        <v>0.9825217830825086</v>
       </c>
       <c r="Q10">
-        <v>1.000011612064446</v>
+        <v>1.000955987923353</v>
       </c>
       <c r="R10">
-        <v>0.9999845967282565</v>
+        <v>0.9986317340844989</v>
       </c>
       <c r="S10">
-        <v>0.9998388266322827</v>
+        <v>0.9849907585962869</v>
       </c>
       <c r="T10">
-        <v>0.9999845967282565</v>
+        <v>0.9986317340844989</v>
       </c>
       <c r="U10">
-        <v>0.9999613025446346</v>
+        <v>0.996455977969335</v>
       </c>
       <c r="V10">
-        <v>1.000034788092046</v>
+        <v>1.003335109593164</v>
       </c>
       <c r="W10">
-        <v>0.999966376995876</v>
+        <v>0.9968955095775871</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998351994812531</v>
+        <v>0.9997957132591669</v>
       </c>
       <c r="D11">
-        <v>0.9991522280468086</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="E11">
-        <v>0.9991522280468086</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="F11">
-        <v>1.000219370092935</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="G11">
-        <v>1.000551980574372</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="H11">
-        <v>1.000551980574372</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="I11">
-        <v>1.000551980574372</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="J11">
-        <v>1.000315463417976</v>
+        <v>1.00036611032502</v>
       </c>
       <c r="K11">
-        <v>0.9998182771739655</v>
+        <v>0.9997868439984702</v>
       </c>
       <c r="L11">
-        <v>1.000207817787132</v>
+        <v>1.000252894217981</v>
       </c>
       <c r="M11">
-        <v>0.9994500618396263</v>
+        <v>0.9993550911361692</v>
       </c>
       <c r="N11">
-        <v>1.000551980574372</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="O11">
-        <v>1.000219370092935</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="P11">
-        <v>0.999685799069872</v>
+        <v>0.9996240195219397</v>
       </c>
       <c r="Q11">
-        <v>1.00001882363345</v>
+        <v>1.000012025931734</v>
       </c>
       <c r="R11">
-        <v>0.9999745262380387</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="S11">
-        <v>0.9997299584379031</v>
+        <v>0.9996782943474498</v>
       </c>
       <c r="T11">
-        <v>0.9999745262380387</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="U11">
-        <v>0.9999354639720204</v>
+        <v>0.9999280639000018</v>
       </c>
       <c r="V11">
-        <v>1.000058767292491</v>
+        <v>1.000077925631533</v>
       </c>
       <c r="W11">
-        <v>0.9999437998017586</v>
+        <v>0.9999352580672931</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.002229878678296</v>
+        <v>0.9998771172112748</v>
       </c>
       <c r="D12">
-        <v>1.012133338937324</v>
+        <v>0.9993969243121242</v>
       </c>
       <c r="E12">
-        <v>1.012133338937324</v>
+        <v>0.9993969243121242</v>
       </c>
       <c r="F12">
-        <v>0.9966591779567736</v>
+        <v>1.000147223748418</v>
       </c>
       <c r="G12">
-        <v>0.9924577542342169</v>
+        <v>1.000408352218669</v>
       </c>
       <c r="H12">
-        <v>0.9924577542342169</v>
+        <v>1.000408352218669</v>
       </c>
       <c r="I12">
-        <v>0.9924577542342169</v>
+        <v>1.000408352218669</v>
       </c>
       <c r="J12">
-        <v>0.995463930002616</v>
+        <v>1.000223482537199</v>
       </c>
       <c r="K12">
-        <v>1.002588683326534</v>
+        <v>0.9998701995791071</v>
       </c>
       <c r="L12">
-        <v>0.9971374900909714</v>
+        <v>1.000152737988301</v>
       </c>
       <c r="M12">
-        <v>1.007835924722344</v>
+        <v>0.9996072636764736</v>
       </c>
       <c r="N12">
-        <v>0.9924577542342169</v>
+        <v>1.000408352218669</v>
       </c>
       <c r="O12">
-        <v>0.9966591779567736</v>
+        <v>1.000147223748418</v>
       </c>
       <c r="P12">
-        <v>1.004396258447049</v>
+        <v>0.9997720740302711</v>
       </c>
       <c r="Q12">
-        <v>0.9996239306416539</v>
+        <v>1.000008711663763</v>
       </c>
       <c r="R12">
-        <v>1.000416757042771</v>
+        <v>0.999984166759737</v>
       </c>
       <c r="S12">
-        <v>1.003793733406877</v>
+        <v>0.9998047825465498</v>
       </c>
       <c r="T12">
-        <v>1.000416757042771</v>
+        <v>0.999984166759737</v>
       </c>
       <c r="U12">
-        <v>1.000959738613712</v>
+        <v>0.9999556749645795</v>
       </c>
       <c r="V12">
-        <v>0.9992593417378132</v>
+        <v>1.000046210415397</v>
       </c>
       <c r="W12">
-        <v>1.000813272243635</v>
+        <v>0.9999604126589456</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000682027625203</v>
+        <v>0.9995886802399464</v>
       </c>
       <c r="D13">
-        <v>1.002993557612761</v>
+        <v>0.997986965174548</v>
       </c>
       <c r="E13">
-        <v>1.002993557612761</v>
+        <v>0.997986965174548</v>
       </c>
       <c r="F13">
-        <v>0.9993817903805157</v>
+        <v>1.000489640422978</v>
       </c>
       <c r="G13">
-        <v>0.9977728544845595</v>
+        <v>1.001366230712978</v>
       </c>
       <c r="H13">
-        <v>0.9977728544845595</v>
+        <v>1.001366230712978</v>
       </c>
       <c r="I13">
-        <v>0.9977728544845595</v>
+        <v>1.001366230712978</v>
       </c>
       <c r="J13">
-        <v>0.9989024821036976</v>
+        <v>1.000745787418101</v>
       </c>
       <c r="K13">
-        <v>1.000651073466942</v>
+        <v>0.9995666273472475</v>
       </c>
       <c r="L13">
-        <v>0.9991792842476804</v>
+        <v>1.000510823453202</v>
       </c>
       <c r="M13">
-        <v>1.001968972279209</v>
+        <v>0.9986887566927651</v>
       </c>
       <c r="N13">
-        <v>0.9977728544845595</v>
+        <v>1.001366230712978</v>
       </c>
       <c r="O13">
-        <v>0.9993817903805157</v>
+        <v>1.000489640422978</v>
       </c>
       <c r="P13">
-        <v>1.001187673996638</v>
+        <v>0.999238302798763</v>
       </c>
       <c r="Q13">
-        <v>1.000016431923729</v>
+        <v>1.000028133885113</v>
       </c>
       <c r="R13">
-        <v>1.000049400825945</v>
+        <v>0.9999476121035015</v>
       </c>
       <c r="S13">
-        <v>1.001008807153406</v>
+        <v>0.9993477443149246</v>
       </c>
       <c r="T13">
-        <v>1.000049400825945</v>
+        <v>0.9999476121035015</v>
       </c>
       <c r="U13">
-        <v>1.000199818986194</v>
+        <v>0.999852365914438</v>
       </c>
       <c r="V13">
-        <v>0.9997144260858676</v>
+        <v>1.000155138874146</v>
       </c>
       <c r="W13">
-        <v>1.000191505275071</v>
+        <v>0.9998679389327207</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.007441711772527</v>
+        <v>0.9995616822588608</v>
       </c>
       <c r="D14">
-        <v>1.037276530668762</v>
+        <v>0.9978893537433957</v>
       </c>
       <c r="E14">
-        <v>1.037276530668762</v>
+        <v>0.9978893537433957</v>
       </c>
       <c r="F14">
-        <v>0.9906596228118023</v>
+        <v>1.000502366220736</v>
       </c>
       <c r="G14">
-        <v>0.9751867436385546</v>
+        <v>1.001452063021135</v>
       </c>
       <c r="H14">
-        <v>0.9751867436385546</v>
+        <v>1.001452063021135</v>
       </c>
       <c r="I14">
-        <v>0.9751867436385546</v>
+        <v>1.001452063021135</v>
       </c>
       <c r="J14">
-        <v>0.9861610531467334</v>
+        <v>1.000780791386625</v>
       </c>
       <c r="K14">
-        <v>1.008008556739612</v>
+        <v>0.999544948350103</v>
       </c>
       <c r="L14">
-        <v>0.9906926681573588</v>
+        <v>1.000541717535903</v>
       </c>
       <c r="M14">
-        <v>1.024233746948376</v>
+        <v>0.9986232685516846</v>
       </c>
       <c r="N14">
-        <v>0.9751867436385546</v>
+        <v>1.001452063021135</v>
       </c>
       <c r="O14">
-        <v>0.9906596228118023</v>
+        <v>1.000502366220736</v>
       </c>
       <c r="P14">
-        <v>1.013968076740282</v>
+        <v>0.9991958599820657</v>
       </c>
       <c r="Q14">
-        <v>0.9993340897757071</v>
+        <v>1.000023657285419</v>
       </c>
       <c r="R14">
-        <v>1.001040965706373</v>
+        <v>0.9999479276617554</v>
       </c>
       <c r="S14">
-        <v>1.011981570073392</v>
+        <v>0.9993122227714114</v>
       </c>
       <c r="T14">
-        <v>1.001040965706373</v>
+        <v>0.9999479276617554</v>
       </c>
       <c r="U14">
-        <v>1.002782863464683</v>
+        <v>0.9998471828338423</v>
       </c>
       <c r="V14">
-        <v>0.997263639499457</v>
+        <v>1.000168158871301</v>
       </c>
       <c r="W14">
-        <v>1.002457579235466</v>
+        <v>0.9998620238835554</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001994845059642</v>
+        <v>0.9998432416136512</v>
       </c>
       <c r="D15">
-        <v>1.009939348296659</v>
+        <v>0.9992473255432436</v>
       </c>
       <c r="E15">
-        <v>1.009939348296659</v>
+        <v>0.9992473255432436</v>
       </c>
       <c r="F15">
-        <v>0.9975260567333069</v>
+        <v>1.000178442683446</v>
       </c>
       <c r="G15">
-        <v>0.9933544039901825</v>
+        <v>1.000519072870527</v>
       </c>
       <c r="H15">
-        <v>0.9933544039901825</v>
+        <v>1.000519072870527</v>
       </c>
       <c r="I15">
-        <v>0.9933544039901825</v>
+        <v>1.000519072870527</v>
       </c>
       <c r="J15">
-        <v>0.996311742649718</v>
+        <v>1.000278363175022</v>
       </c>
       <c r="K15">
-        <v>1.002136381046184</v>
+        <v>0.999837682809618</v>
       </c>
       <c r="L15">
-        <v>0.9975091110789633</v>
+        <v>1.000193571655096</v>
       </c>
       <c r="M15">
-        <v>1.006464509285294</v>
+        <v>0.9995089234111462</v>
       </c>
       <c r="N15">
-        <v>0.9933544039901825</v>
+        <v>1.000519072870527</v>
       </c>
       <c r="O15">
-        <v>0.9975260567333069</v>
+        <v>1.000178442683446</v>
       </c>
       <c r="P15">
-        <v>1.003732702514983</v>
+        <v>0.9997128841133447</v>
       </c>
       <c r="Q15">
-        <v>0.9998312188897456</v>
+        <v>1.000008062746532</v>
       </c>
       <c r="R15">
-        <v>1.000273269673383</v>
+        <v>0.9999816136990723</v>
       </c>
       <c r="S15">
-        <v>1.003200595358717</v>
+        <v>0.9997544836787692</v>
       </c>
       <c r="T15">
-        <v>1.000273269673383</v>
+        <v>0.9999816136990723</v>
       </c>
       <c r="U15">
-        <v>1.000739047516583</v>
+        <v>0.9999456309767087</v>
       </c>
       <c r="V15">
-        <v>0.9992621188113031</v>
+        <v>1.000060319355472</v>
       </c>
       <c r="W15">
-        <v>1.000654549767494</v>
+        <v>0.9999508279702188</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9969526098018627</v>
+        <v>0.9996975528352813</v>
       </c>
       <c r="D16">
-        <v>0.9853003457743569</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="E16">
-        <v>0.9853003457743569</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="F16">
-        <v>1.003507006667317</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="G16">
-        <v>1.010098273467656</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="H16">
-        <v>1.010098273467656</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="I16">
-        <v>1.010098273467656</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="J16">
-        <v>1.005438748519427</v>
+        <v>1.000537508387025</v>
       </c>
       <c r="K16">
-        <v>0.9968312998686459</v>
+        <v>0.9996866164634162</v>
       </c>
       <c r="L16">
-        <v>1.003768203289911</v>
+        <v>1.000373558623191</v>
       </c>
       <c r="M16">
-        <v>0.9904131249529046</v>
+        <v>0.999051878810861</v>
       </c>
       <c r="N16">
-        <v>1.010098273467656</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="O16">
-        <v>1.003507006667317</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="P16">
-        <v>0.9944036762208368</v>
+        <v>0.9994458056025327</v>
       </c>
       <c r="Q16">
-        <v>1.000169153267982</v>
+        <v>1.00001575432591</v>
       </c>
       <c r="R16">
-        <v>0.9996352086364432</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="S16">
-        <v>0.9952128841034398</v>
+        <v>0.9995260758894938</v>
       </c>
       <c r="T16">
-        <v>0.9996352086364432</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="U16">
-        <v>0.9989342314444938</v>
+        <v>0.9998949603614624</v>
       </c>
       <c r="V16">
-        <v>1.001167039849126</v>
+        <v>1.000116291044644</v>
       </c>
       <c r="W16">
-        <v>0.9990387015427601</v>
+        <v>0.999905042512776</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9975300760580413</v>
+        <v>0.9994208870733957</v>
       </c>
       <c r="D17">
-        <v>0.9879247005449184</v>
+        <v>0.99721424028748</v>
       </c>
       <c r="E17">
-        <v>0.9879247005449184</v>
+        <v>0.99721424028748</v>
       </c>
       <c r="F17">
-        <v>1.002933097992147</v>
+        <v>1.000662123752816</v>
       </c>
       <c r="G17">
-        <v>1.008202604948375</v>
+        <v>1.001918179421038</v>
       </c>
       <c r="H17">
-        <v>1.008202604948375</v>
+        <v>1.001918179421038</v>
       </c>
       <c r="I17">
-        <v>1.008202604948375</v>
+        <v>1.001918179421038</v>
       </c>
       <c r="J17">
-        <v>1.004473239445456</v>
+        <v>1.001030442908625</v>
       </c>
       <c r="K17">
-        <v>0.9974001518408113</v>
+        <v>0.9993993444948969</v>
       </c>
       <c r="L17">
-        <v>1.003066455918223</v>
+        <v>1.000715504989035</v>
       </c>
       <c r="M17">
-        <v>0.9921337260044752</v>
+        <v>0.9981827465623164</v>
       </c>
       <c r="N17">
-        <v>1.008202604948375</v>
+        <v>1.001918179421038</v>
       </c>
       <c r="O17">
-        <v>1.002933097992147</v>
+        <v>1.000662123752816</v>
       </c>
       <c r="P17">
-        <v>0.9954288992685327</v>
+        <v>0.9989381820201481</v>
       </c>
       <c r="Q17">
-        <v>1.000166624916479</v>
+        <v>1.000030734123857</v>
       </c>
       <c r="R17">
-        <v>0.9996868011618133</v>
+        <v>0.9999315144871114</v>
       </c>
       <c r="S17">
-        <v>0.9960859834592922</v>
+        <v>0.9990919028450643</v>
       </c>
       <c r="T17">
-        <v>0.9996868011618133</v>
+        <v>0.9999315144871114</v>
       </c>
       <c r="U17">
-        <v>0.9991151388315628</v>
+        <v>0.9997984719890578</v>
       </c>
       <c r="V17">
-        <v>1.000932632054925</v>
+        <v>1.000222413475454</v>
       </c>
       <c r="W17">
-        <v>0.9992080065940558</v>
+        <v>0.9998179336862005</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9986865930092589</v>
+        <v>0.9991509509489974</v>
       </c>
       <c r="D18">
-        <v>0.9931868308616137</v>
+        <v>0.9959137121012213</v>
       </c>
       <c r="E18">
-        <v>0.9931868308616137</v>
+        <v>0.9959137121012213</v>
       </c>
       <c r="F18">
-        <v>1.001780203101141</v>
+        <v>1.000971891538997</v>
       </c>
       <c r="G18">
-        <v>1.004405379601229</v>
+        <v>1.002812513518203</v>
       </c>
       <c r="H18">
-        <v>1.004405379601229</v>
+        <v>1.002812513518203</v>
       </c>
       <c r="I18">
-        <v>1.004405379601229</v>
+        <v>1.002812513518203</v>
       </c>
       <c r="J18">
-        <v>1.002537058344383</v>
+        <v>1.001511578638312</v>
       </c>
       <c r="K18">
-        <v>0.9985406366922669</v>
+        <v>0.9991189711927025</v>
       </c>
       <c r="L18">
-        <v>1.001660561418635</v>
+        <v>1.001049181092903</v>
       </c>
       <c r="M18">
-        <v>0.9955833567232</v>
+        <v>0.9973344720364202</v>
       </c>
       <c r="N18">
-        <v>1.004405379601229</v>
+        <v>1.002812513518203</v>
       </c>
       <c r="O18">
-        <v>1.001780203101141</v>
+        <v>1.000971891538997</v>
       </c>
       <c r="P18">
-        <v>0.9974835169813774</v>
+        <v>0.9984428018201092</v>
       </c>
       <c r="Q18">
-        <v>1.000160419896704</v>
+        <v>1.00004543136585</v>
       </c>
       <c r="R18">
-        <v>0.9997908045213281</v>
+        <v>0.9998993723861404</v>
       </c>
       <c r="S18">
-        <v>0.9978358902183405</v>
+        <v>0.9986681916109736</v>
       </c>
       <c r="T18">
-        <v>0.9997908045213281</v>
+        <v>0.9998993723861404</v>
       </c>
       <c r="U18">
-        <v>0.9994782625640628</v>
+        <v>0.9997042720877809</v>
       </c>
       <c r="V18">
-        <v>1.000463685971496</v>
+        <v>1.000325920373865</v>
       </c>
       <c r="W18">
-        <v>0.9995475774689659</v>
+        <v>0.9997329088834696</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9985487118491778</v>
+        <v>0.9999887474863213</v>
       </c>
       <c r="D19">
-        <v>0.9923885875053624</v>
+        <v>0.9999412282067976</v>
       </c>
       <c r="E19">
-        <v>0.9923885875053624</v>
+        <v>0.9999412282067976</v>
       </c>
       <c r="F19">
-        <v>1.002013777369511</v>
+        <v>1.000015475039971</v>
       </c>
       <c r="G19">
-        <v>1.004877078183267</v>
+        <v>1.000037789726826</v>
       </c>
       <c r="H19">
-        <v>1.004877078183267</v>
+        <v>1.000037789726826</v>
       </c>
       <c r="I19">
-        <v>1.004877078183267</v>
+        <v>1.000037789726826</v>
       </c>
       <c r="J19">
-        <v>1.002836929477944</v>
+        <v>1.000021896096954</v>
       </c>
       <c r="K19">
-        <v>0.9983711600053603</v>
+        <v>0.9999874176539352</v>
       </c>
       <c r="L19">
-        <v>1.00184122839482</v>
+        <v>1.000014257617278</v>
       </c>
       <c r="M19">
-        <v>0.9950702279735126</v>
+        <v>0.9999619226701885</v>
       </c>
       <c r="N19">
-        <v>1.004877078183267</v>
+        <v>1.000037789726826</v>
       </c>
       <c r="O19">
-        <v>1.002013777369511</v>
+        <v>1.000015475039971</v>
       </c>
       <c r="P19">
-        <v>0.9972011824374366</v>
+        <v>0.9999783516233841</v>
       </c>
       <c r="Q19">
-        <v>1.000192468687435</v>
+        <v>1.000001446346953</v>
       </c>
       <c r="R19">
-        <v>0.9997598143527133</v>
+        <v>0.9999981643245315</v>
       </c>
       <c r="S19">
-        <v>0.9975911749600779</v>
+        <v>0.9999813736335678</v>
       </c>
       <c r="T19">
-        <v>0.9997598143527133</v>
+        <v>0.9999981643245315</v>
       </c>
       <c r="U19">
-        <v>0.999412650765875</v>
+        <v>0.9999954776568825</v>
       </c>
       <c r="V19">
-        <v>1.000505536249353</v>
+        <v>1.000003940070871</v>
       </c>
       <c r="W19">
-        <v>0.9994934625948693</v>
+        <v>0.999996091812284</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999990781701648</v>
+        <v>0.9999671753656034</v>
       </c>
       <c r="D20">
-        <v>0.9999972953862619</v>
+        <v>0.9998299985744131</v>
       </c>
       <c r="E20">
-        <v>0.9999972953862619</v>
+        <v>0.9998299985744131</v>
       </c>
       <c r="F20">
-        <v>1.000000078908611</v>
+        <v>1.000044335547208</v>
       </c>
       <c r="G20">
-        <v>1.000002863802615</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="H20">
-        <v>1.000002863802615</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="I20">
-        <v>1.000002863802615</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="J20">
-        <v>1.000000939743156</v>
+        <v>1.000063294192983</v>
       </c>
       <c r="K20">
-        <v>0.9999993822923481</v>
+        <v>0.9999635802690932</v>
       </c>
       <c r="L20">
-        <v>1.000001007072564</v>
+        <v>1.000041480007926</v>
       </c>
       <c r="M20">
-        <v>0.9999981389911528</v>
+        <v>0.9998897826439952</v>
       </c>
       <c r="N20">
-        <v>1.000002863802615</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="O20">
-        <v>1.000000078908611</v>
+        <v>1.000044335547208</v>
       </c>
       <c r="P20">
-        <v>0.9999986871474366</v>
+        <v>0.9999371670608108</v>
       </c>
       <c r="Q20">
-        <v>0.9999997306004796</v>
+        <v>1.000003957908151</v>
       </c>
       <c r="R20">
-        <v>1.000000079365829</v>
+        <v>0.9999948014696404</v>
       </c>
       <c r="S20">
-        <v>0.9999989188624071</v>
+        <v>0.9999459714635716</v>
       </c>
       <c r="T20">
-        <v>1.000000079365829</v>
+        <v>0.9999948014696404</v>
       </c>
       <c r="U20">
-        <v>0.9999999050974591</v>
+        <v>0.9999869961695036</v>
       </c>
       <c r="V20">
-        <v>1.00000049683849</v>
+        <v>1.000011610993063</v>
       </c>
       <c r="W20">
-        <v>0.9999998480458593</v>
+        <v>0.9999887146110653</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999879168459971</v>
+        <v>0.9999545475878595</v>
       </c>
       <c r="D21">
-        <v>0.9999317861632683</v>
+        <v>0.9997656587737745</v>
       </c>
       <c r="E21">
-        <v>0.9999317861632683</v>
+        <v>0.9997656587737745</v>
       </c>
       <c r="F21">
-        <v>1.000019487910565</v>
+        <v>1.000060794594143</v>
       </c>
       <c r="G21">
-        <v>1.000041146109208</v>
+        <v>1.00015229793243</v>
       </c>
       <c r="H21">
-        <v>1.000041146109208</v>
+        <v>1.00015229793243</v>
       </c>
       <c r="I21">
-        <v>1.000041146109208</v>
+        <v>1.00015229793243</v>
       </c>
       <c r="J21">
-        <v>1.000025573822092</v>
+        <v>1.000087215400743</v>
       </c>
       <c r="K21">
-        <v>0.9999854882895702</v>
+        <v>0.9999497780460345</v>
       </c>
       <c r="L21">
-        <v>1.000015700295048</v>
+        <v>1.000057357367887</v>
       </c>
       <c r="M21">
-        <v>0.9999560698430136</v>
+        <v>0.9998480137245132</v>
       </c>
       <c r="N21">
-        <v>1.000041146109208</v>
+        <v>1.00015229793243</v>
       </c>
       <c r="O21">
-        <v>1.000019487910565</v>
+        <v>1.000060794594143</v>
       </c>
       <c r="P21">
-        <v>0.9999756370369168</v>
+        <v>0.999913226683959</v>
       </c>
       <c r="Q21">
-        <v>1.000002488100068</v>
+        <v>1.000005286320089</v>
       </c>
       <c r="R21">
-        <v>0.9999974733943472</v>
+        <v>0.999992917100116</v>
       </c>
       <c r="S21">
-        <v>0.9999789207878013</v>
+        <v>0.9999254104713176</v>
       </c>
       <c r="T21">
-        <v>0.9999974733943472</v>
+        <v>0.999992917100116</v>
       </c>
       <c r="U21">
-        <v>0.9999944771181529</v>
+        <v>0.9999821323365956</v>
       </c>
       <c r="V21">
-        <v>1.000003810916364</v>
+        <v>1.000016165455762</v>
       </c>
       <c r="W21">
-        <v>0.9999953961598453</v>
+        <v>0.9999844579284232</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999500645530701</v>
+        <v>0.9999019276247367</v>
       </c>
       <c r="D22">
-        <v>0.9997707134883944</v>
+        <v>0.9994932557679572</v>
       </c>
       <c r="E22">
-        <v>0.9997707134883944</v>
+        <v>0.9994932557679572</v>
       </c>
       <c r="F22">
-        <v>1.000050946715009</v>
+        <v>1.000131804135122</v>
       </c>
       <c r="G22">
-        <v>1.000164185282764</v>
+        <v>1.00032873028169</v>
       </c>
       <c r="H22">
-        <v>1.000164185282764</v>
+        <v>1.00032873028169</v>
       </c>
       <c r="I22">
-        <v>1.000164185282764</v>
+        <v>1.00032873028169</v>
       </c>
       <c r="J22">
-        <v>1.000084437444023</v>
+        <v>1.000188635516294</v>
       </c>
       <c r="K22">
-        <v>0.9999503467028459</v>
+        <v>0.9998914199937687</v>
       </c>
       <c r="L22">
-        <v>1.000060862319519</v>
+        <v>1.00012384239042</v>
       </c>
       <c r="M22">
-        <v>0.9998498143293626</v>
+        <v>0.9996714002570198</v>
       </c>
       <c r="N22">
-        <v>1.000164185282764</v>
+        <v>1.00032873028169</v>
       </c>
       <c r="O22">
-        <v>1.000050946715009</v>
+        <v>1.000131804135122</v>
       </c>
       <c r="P22">
-        <v>0.9999108301017017</v>
+        <v>0.9998125299515397</v>
       </c>
       <c r="Q22">
-        <v>1.000000646708927</v>
+        <v>1.000011612064446</v>
       </c>
       <c r="R22">
-        <v>0.9999952818287223</v>
+        <v>0.9999845967282565</v>
       </c>
       <c r="S22">
-        <v>0.999924002302083</v>
+        <v>0.9998388266322827</v>
       </c>
       <c r="T22">
-        <v>0.9999952818287223</v>
+        <v>0.9999845967282565</v>
       </c>
       <c r="U22">
-        <v>0.9999840480472533</v>
+        <v>0.9999613025446346</v>
       </c>
       <c r="V22">
-        <v>1.000020075494355</v>
+        <v>1.000034788092046</v>
       </c>
       <c r="W22">
-        <v>0.9999851713543735</v>
+        <v>0.999966376995876</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998351994812531</v>
+      </c>
+      <c r="D23">
+        <v>0.9991522280468086</v>
+      </c>
+      <c r="E23">
+        <v>0.9991522280468086</v>
+      </c>
+      <c r="F23">
+        <v>1.000219370092935</v>
+      </c>
+      <c r="G23">
+        <v>1.000551980574372</v>
+      </c>
+      <c r="H23">
+        <v>1.000551980574372</v>
+      </c>
+      <c r="I23">
+        <v>1.000551980574372</v>
+      </c>
+      <c r="J23">
+        <v>1.000315463417976</v>
+      </c>
+      <c r="K23">
+        <v>0.9998182771739655</v>
+      </c>
+      <c r="L23">
+        <v>1.000207817787132</v>
+      </c>
+      <c r="M23">
+        <v>0.9994500618396263</v>
+      </c>
+      <c r="N23">
+        <v>1.000551980574372</v>
+      </c>
+      <c r="O23">
+        <v>1.000219370092935</v>
+      </c>
+      <c r="P23">
+        <v>0.999685799069872</v>
+      </c>
+      <c r="Q23">
+        <v>1.00001882363345</v>
+      </c>
+      <c r="R23">
+        <v>0.9999745262380387</v>
+      </c>
+      <c r="S23">
+        <v>0.9997299584379031</v>
+      </c>
+      <c r="T23">
+        <v>0.9999745262380387</v>
+      </c>
+      <c r="U23">
+        <v>0.9999354639720204</v>
+      </c>
+      <c r="V23">
+        <v>1.000058767292491</v>
+      </c>
+      <c r="W23">
+        <v>0.9999437998017586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.002229878678296</v>
+      </c>
+      <c r="D24">
+        <v>1.012133338937324</v>
+      </c>
+      <c r="E24">
+        <v>1.012133338937324</v>
+      </c>
+      <c r="F24">
+        <v>0.9966591779567736</v>
+      </c>
+      <c r="G24">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="H24">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="I24">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="J24">
+        <v>0.995463930002616</v>
+      </c>
+      <c r="K24">
+        <v>1.002588683326534</v>
+      </c>
+      <c r="L24">
+        <v>0.9971374900909714</v>
+      </c>
+      <c r="M24">
+        <v>1.007835924722344</v>
+      </c>
+      <c r="N24">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="O24">
+        <v>0.9966591779567736</v>
+      </c>
+      <c r="P24">
+        <v>1.004396258447049</v>
+      </c>
+      <c r="Q24">
+        <v>0.9996239306416539</v>
+      </c>
+      <c r="R24">
+        <v>1.000416757042771</v>
+      </c>
+      <c r="S24">
+        <v>1.003793733406877</v>
+      </c>
+      <c r="T24">
+        <v>1.000416757042771</v>
+      </c>
+      <c r="U24">
+        <v>1.000959738613712</v>
+      </c>
+      <c r="V24">
+        <v>0.9992593417378132</v>
+      </c>
+      <c r="W24">
+        <v>1.000813272243635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000682027625203</v>
+      </c>
+      <c r="D25">
+        <v>1.002993557612761</v>
+      </c>
+      <c r="E25">
+        <v>1.002993557612761</v>
+      </c>
+      <c r="F25">
+        <v>0.9993817903805157</v>
+      </c>
+      <c r="G25">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="H25">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="I25">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="J25">
+        <v>0.9989024821036976</v>
+      </c>
+      <c r="K25">
+        <v>1.000651073466942</v>
+      </c>
+      <c r="L25">
+        <v>0.9991792842476804</v>
+      </c>
+      <c r="M25">
+        <v>1.001968972279209</v>
+      </c>
+      <c r="N25">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="O25">
+        <v>0.9993817903805157</v>
+      </c>
+      <c r="P25">
+        <v>1.001187673996638</v>
+      </c>
+      <c r="Q25">
+        <v>1.000016431923729</v>
+      </c>
+      <c r="R25">
+        <v>1.000049400825945</v>
+      </c>
+      <c r="S25">
+        <v>1.001008807153406</v>
+      </c>
+      <c r="T25">
+        <v>1.000049400825945</v>
+      </c>
+      <c r="U25">
+        <v>1.000199818986194</v>
+      </c>
+      <c r="V25">
+        <v>0.9997144260858676</v>
+      </c>
+      <c r="W25">
+        <v>1.000191505275071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.007441711772527</v>
+      </c>
+      <c r="D26">
+        <v>1.037276530668762</v>
+      </c>
+      <c r="E26">
+        <v>1.037276530668762</v>
+      </c>
+      <c r="F26">
+        <v>0.9906596228118023</v>
+      </c>
+      <c r="G26">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="H26">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="I26">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="J26">
+        <v>0.9861610531467334</v>
+      </c>
+      <c r="K26">
+        <v>1.008008556739612</v>
+      </c>
+      <c r="L26">
+        <v>0.9906926681573588</v>
+      </c>
+      <c r="M26">
+        <v>1.024233746948376</v>
+      </c>
+      <c r="N26">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="O26">
+        <v>0.9906596228118023</v>
+      </c>
+      <c r="P26">
+        <v>1.013968076740282</v>
+      </c>
+      <c r="Q26">
+        <v>0.9993340897757071</v>
+      </c>
+      <c r="R26">
+        <v>1.001040965706373</v>
+      </c>
+      <c r="S26">
+        <v>1.011981570073392</v>
+      </c>
+      <c r="T26">
+        <v>1.001040965706373</v>
+      </c>
+      <c r="U26">
+        <v>1.002782863464683</v>
+      </c>
+      <c r="V26">
+        <v>0.997263639499457</v>
+      </c>
+      <c r="W26">
+        <v>1.002457579235466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001994845059642</v>
+      </c>
+      <c r="D27">
+        <v>1.009939348296659</v>
+      </c>
+      <c r="E27">
+        <v>1.009939348296659</v>
+      </c>
+      <c r="F27">
+        <v>0.9975260567333069</v>
+      </c>
+      <c r="G27">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="H27">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="I27">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="J27">
+        <v>0.996311742649718</v>
+      </c>
+      <c r="K27">
+        <v>1.002136381046184</v>
+      </c>
+      <c r="L27">
+        <v>0.9975091110789633</v>
+      </c>
+      <c r="M27">
+        <v>1.006464509285294</v>
+      </c>
+      <c r="N27">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="O27">
+        <v>0.9975260567333069</v>
+      </c>
+      <c r="P27">
+        <v>1.003732702514983</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998312188897456</v>
+      </c>
+      <c r="R27">
+        <v>1.000273269673383</v>
+      </c>
+      <c r="S27">
+        <v>1.003200595358717</v>
+      </c>
+      <c r="T27">
+        <v>1.000273269673383</v>
+      </c>
+      <c r="U27">
+        <v>1.000739047516583</v>
+      </c>
+      <c r="V27">
+        <v>0.9992621188113031</v>
+      </c>
+      <c r="W27">
+        <v>1.000654549767494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9969526098018627</v>
+      </c>
+      <c r="D28">
+        <v>0.9853003457743569</v>
+      </c>
+      <c r="E28">
+        <v>0.9853003457743569</v>
+      </c>
+      <c r="F28">
+        <v>1.003507006667317</v>
+      </c>
+      <c r="G28">
+        <v>1.010098273467656</v>
+      </c>
+      <c r="H28">
+        <v>1.010098273467656</v>
+      </c>
+      <c r="I28">
+        <v>1.010098273467656</v>
+      </c>
+      <c r="J28">
+        <v>1.005438748519427</v>
+      </c>
+      <c r="K28">
+        <v>0.9968312998686459</v>
+      </c>
+      <c r="L28">
+        <v>1.003768203289911</v>
+      </c>
+      <c r="M28">
+        <v>0.9904131249529046</v>
+      </c>
+      <c r="N28">
+        <v>1.010098273467656</v>
+      </c>
+      <c r="O28">
+        <v>1.003507006667317</v>
+      </c>
+      <c r="P28">
+        <v>0.9944036762208368</v>
+      </c>
+      <c r="Q28">
+        <v>1.000169153267982</v>
+      </c>
+      <c r="R28">
+        <v>0.9996352086364432</v>
+      </c>
+      <c r="S28">
+        <v>0.9952128841034398</v>
+      </c>
+      <c r="T28">
+        <v>0.9996352086364432</v>
+      </c>
+      <c r="U28">
+        <v>0.9989342314444938</v>
+      </c>
+      <c r="V28">
+        <v>1.001167039849126</v>
+      </c>
+      <c r="W28">
+        <v>0.9990387015427601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9975300760580413</v>
+      </c>
+      <c r="D29">
+        <v>0.9879247005449184</v>
+      </c>
+      <c r="E29">
+        <v>0.9879247005449184</v>
+      </c>
+      <c r="F29">
+        <v>1.002933097992147</v>
+      </c>
+      <c r="G29">
+        <v>1.008202604948375</v>
+      </c>
+      <c r="H29">
+        <v>1.008202604948375</v>
+      </c>
+      <c r="I29">
+        <v>1.008202604948375</v>
+      </c>
+      <c r="J29">
+        <v>1.004473239445456</v>
+      </c>
+      <c r="K29">
+        <v>0.9974001518408113</v>
+      </c>
+      <c r="L29">
+        <v>1.003066455918223</v>
+      </c>
+      <c r="M29">
+        <v>0.9921337260044752</v>
+      </c>
+      <c r="N29">
+        <v>1.008202604948375</v>
+      </c>
+      <c r="O29">
+        <v>1.002933097992147</v>
+      </c>
+      <c r="P29">
+        <v>0.9954288992685327</v>
+      </c>
+      <c r="Q29">
+        <v>1.000166624916479</v>
+      </c>
+      <c r="R29">
+        <v>0.9996868011618133</v>
+      </c>
+      <c r="S29">
+        <v>0.9960859834592922</v>
+      </c>
+      <c r="T29">
+        <v>0.9996868011618133</v>
+      </c>
+      <c r="U29">
+        <v>0.9991151388315628</v>
+      </c>
+      <c r="V29">
+        <v>1.000932632054925</v>
+      </c>
+      <c r="W29">
+        <v>0.9992080065940558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9986865930092589</v>
+      </c>
+      <c r="D30">
+        <v>0.9931868308616137</v>
+      </c>
+      <c r="E30">
+        <v>0.9931868308616137</v>
+      </c>
+      <c r="F30">
+        <v>1.001780203101141</v>
+      </c>
+      <c r="G30">
+        <v>1.004405379601229</v>
+      </c>
+      <c r="H30">
+        <v>1.004405379601229</v>
+      </c>
+      <c r="I30">
+        <v>1.004405379601229</v>
+      </c>
+      <c r="J30">
+        <v>1.002537058344383</v>
+      </c>
+      <c r="K30">
+        <v>0.9985406366922669</v>
+      </c>
+      <c r="L30">
+        <v>1.001660561418635</v>
+      </c>
+      <c r="M30">
+        <v>0.9955833567232</v>
+      </c>
+      <c r="N30">
+        <v>1.004405379601229</v>
+      </c>
+      <c r="O30">
+        <v>1.001780203101141</v>
+      </c>
+      <c r="P30">
+        <v>0.9974835169813774</v>
+      </c>
+      <c r="Q30">
+        <v>1.000160419896704</v>
+      </c>
+      <c r="R30">
+        <v>0.9997908045213281</v>
+      </c>
+      <c r="S30">
+        <v>0.9978358902183405</v>
+      </c>
+      <c r="T30">
+        <v>0.9997908045213281</v>
+      </c>
+      <c r="U30">
+        <v>0.9994782625640628</v>
+      </c>
+      <c r="V30">
+        <v>1.000463685971496</v>
+      </c>
+      <c r="W30">
+        <v>0.9995475774689659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9985487118491778</v>
+      </c>
+      <c r="D31">
+        <v>0.9923885875053624</v>
+      </c>
+      <c r="E31">
+        <v>0.9923885875053624</v>
+      </c>
+      <c r="F31">
+        <v>1.002013777369511</v>
+      </c>
+      <c r="G31">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="H31">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="I31">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="J31">
+        <v>1.002836929477944</v>
+      </c>
+      <c r="K31">
+        <v>0.9983711600053603</v>
+      </c>
+      <c r="L31">
+        <v>1.00184122839482</v>
+      </c>
+      <c r="M31">
+        <v>0.9950702279735126</v>
+      </c>
+      <c r="N31">
+        <v>1.004877078183267</v>
+      </c>
+      <c r="O31">
+        <v>1.002013777369511</v>
+      </c>
+      <c r="P31">
+        <v>0.9972011824374366</v>
+      </c>
+      <c r="Q31">
+        <v>1.000192468687435</v>
+      </c>
+      <c r="R31">
+        <v>0.9997598143527133</v>
+      </c>
+      <c r="S31">
+        <v>0.9975911749600779</v>
+      </c>
+      <c r="T31">
+        <v>0.9997598143527133</v>
+      </c>
+      <c r="U31">
+        <v>0.999412650765875</v>
+      </c>
+      <c r="V31">
+        <v>1.000505536249353</v>
+      </c>
+      <c r="W31">
+        <v>0.9994934625948693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9962895141095889</v>
+      </c>
+      <c r="D32">
+        <v>0.9822466420547942</v>
+      </c>
+      <c r="E32">
+        <v>0.9822466420547942</v>
+      </c>
+      <c r="F32">
+        <v>1.00418862739726</v>
+      </c>
+      <c r="G32">
+        <v>1.012279506849315</v>
+      </c>
+      <c r="H32">
+        <v>1.012279506849315</v>
+      </c>
+      <c r="I32">
+        <v>1.012279506849315</v>
+      </c>
+      <c r="J32">
+        <v>1.006563667123288</v>
+      </c>
+      <c r="K32">
+        <v>0.9961702136986296</v>
+      </c>
+      <c r="L32">
+        <v>1.004577079726027</v>
+      </c>
+      <c r="M32">
+        <v>0.9884134238356164</v>
+      </c>
+      <c r="N32">
+        <v>1.012279506849315</v>
+      </c>
+      <c r="O32">
+        <v>1.00418862739726</v>
+      </c>
+      <c r="P32">
+        <v>0.9932176347260272</v>
+      </c>
+      <c r="Q32">
+        <v>1.000179420547945</v>
+      </c>
+      <c r="R32">
+        <v>0.9995715921004565</v>
+      </c>
+      <c r="S32">
+        <v>0.9942018277168946</v>
+      </c>
+      <c r="T32">
+        <v>0.9995715921004565</v>
+      </c>
+      <c r="U32">
+        <v>0.9987212474999998</v>
+      </c>
+      <c r="V32">
+        <v>1.001432899369863</v>
+      </c>
+      <c r="W32">
+        <v>0.998841084349315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.995811497368421</v>
+      </c>
+      <c r="D33">
+        <v>0.9788244557894736</v>
+      </c>
+      <c r="E33">
+        <v>0.9788244557894736</v>
+      </c>
+      <c r="F33">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="G33">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="H33">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="I33">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="J33">
+        <v>1.00786781368421</v>
+      </c>
+      <c r="K33">
+        <v>0.9954542615789473</v>
+      </c>
+      <c r="L33">
+        <v>1.005253425789474</v>
+      </c>
+      <c r="M33">
+        <v>0.9862441536842105</v>
+      </c>
+      <c r="N33">
+        <v>1.013987572631579</v>
+      </c>
+      <c r="O33">
+        <v>1.005366695789474</v>
+      </c>
+      <c r="P33">
+        <v>0.9920955757894736</v>
+      </c>
+      <c r="Q33">
+        <v>1.000410478684211</v>
+      </c>
+      <c r="R33">
+        <v>0.9993929080701754</v>
+      </c>
+      <c r="S33">
+        <v>0.9932151377192983</v>
+      </c>
+      <c r="T33">
+        <v>0.9993929080701754</v>
+      </c>
+      <c r="U33">
+        <v>0.9984082464473685</v>
+      </c>
+      <c r="V33">
+        <v>1.001524111684211</v>
+      </c>
+      <c r="W33">
+        <v>0.9986012345394737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9907832736842104</v>
+      </c>
+      <c r="D34">
+        <v>0.9530422889473685</v>
+      </c>
+      <c r="E34">
+        <v>0.9530422889473685</v>
+      </c>
+      <c r="F34">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="G34">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="H34">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="I34">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="J34">
+        <v>1.017458952631579</v>
+      </c>
+      <c r="K34">
+        <v>0.989926330526316</v>
+      </c>
+      <c r="L34">
+        <v>1.011587684210526</v>
+      </c>
+      <c r="M34">
+        <v>0.9695151210526316</v>
+      </c>
+      <c r="N34">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="O34">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="P34">
+        <v>0.9825274313157895</v>
+      </c>
+      <c r="Q34">
+        <v>1.000969452105263</v>
+      </c>
+      <c r="R34">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="S34">
+        <v>0.9849937310526317</v>
+      </c>
+      <c r="T34">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="U34">
+        <v>0.996450185131579</v>
+      </c>
+      <c r="V34">
+        <v>1.003324057578947</v>
+      </c>
+      <c r="W34">
+        <v>0.9968932215131578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9948832347111762</v>
+      </c>
+      <c r="D35">
+        <v>0.9730129517960344</v>
+      </c>
+      <c r="E35">
+        <v>0.9730129517960344</v>
+      </c>
+      <c r="F35">
+        <v>1.007185258318714</v>
+      </c>
+      <c r="G35">
+        <v>1.017211827333638</v>
+      </c>
+      <c r="H35">
+        <v>1.017211827333638</v>
+      </c>
+      <c r="I35">
+        <v>1.017211827333638</v>
+      </c>
+      <c r="J35">
+        <v>1.010063366653892</v>
+      </c>
+      <c r="K35">
+        <v>0.9942274877740762</v>
+      </c>
+      <c r="L35">
+        <v>1.00650315789191</v>
+      </c>
+      <c r="M35">
+        <v>0.9825287932593713</v>
+      </c>
+      <c r="N35">
+        <v>1.017211827333638</v>
+      </c>
+      <c r="O35">
+        <v>1.007185258318714</v>
+      </c>
+      <c r="P35">
+        <v>0.990099105057374</v>
+      </c>
+      <c r="Q35">
+        <v>1.000706373046395</v>
+      </c>
+      <c r="R35">
+        <v>0.999136679149462</v>
+      </c>
+      <c r="S35">
+        <v>0.991475232629608</v>
+      </c>
+      <c r="T35">
+        <v>0.999136679149462</v>
+      </c>
+      <c r="U35">
+        <v>0.9979093813056156</v>
+      </c>
+      <c r="V35">
+        <v>1.00176987051122</v>
+      </c>
+      <c r="W35">
+        <v>0.9982020097173514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999990781701648</v>
+      </c>
+      <c r="D36">
+        <v>0.9999972953862619</v>
+      </c>
+      <c r="E36">
+        <v>0.9999972953862619</v>
+      </c>
+      <c r="F36">
+        <v>1.000000078908611</v>
+      </c>
+      <c r="G36">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="H36">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="I36">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="J36">
+        <v>1.000000939743156</v>
+      </c>
+      <c r="K36">
+        <v>0.9999993822923481</v>
+      </c>
+      <c r="L36">
+        <v>1.000001007072564</v>
+      </c>
+      <c r="M36">
+        <v>0.9999981389911528</v>
+      </c>
+      <c r="N36">
+        <v>1.000002863802615</v>
+      </c>
+      <c r="O36">
+        <v>1.000000078908611</v>
+      </c>
+      <c r="P36">
+        <v>0.9999986871474366</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999997306004796</v>
+      </c>
+      <c r="R36">
+        <v>1.000000079365829</v>
+      </c>
+      <c r="S36">
+        <v>0.9999989188624071</v>
+      </c>
+      <c r="T36">
+        <v>1.000000079365829</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999050974591</v>
+      </c>
+      <c r="V36">
+        <v>1.00000049683849</v>
+      </c>
+      <c r="W36">
+        <v>0.9999998480458593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999879168459971</v>
+      </c>
+      <c r="D37">
+        <v>0.9999317861632683</v>
+      </c>
+      <c r="E37">
+        <v>0.9999317861632683</v>
+      </c>
+      <c r="F37">
+        <v>1.000019487910565</v>
+      </c>
+      <c r="G37">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="H37">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="I37">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="J37">
+        <v>1.000025573822092</v>
+      </c>
+      <c r="K37">
+        <v>0.9999854882895702</v>
+      </c>
+      <c r="L37">
+        <v>1.000015700295048</v>
+      </c>
+      <c r="M37">
+        <v>0.9999560698430136</v>
+      </c>
+      <c r="N37">
+        <v>1.000041146109208</v>
+      </c>
+      <c r="O37">
+        <v>1.000019487910565</v>
+      </c>
+      <c r="P37">
+        <v>0.9999756370369168</v>
+      </c>
+      <c r="Q37">
+        <v>1.000002488100068</v>
+      </c>
+      <c r="R37">
+        <v>0.9999974733943472</v>
+      </c>
+      <c r="S37">
+        <v>0.9999789207878013</v>
+      </c>
+      <c r="T37">
+        <v>0.9999974733943472</v>
+      </c>
+      <c r="U37">
+        <v>0.9999944771181529</v>
+      </c>
+      <c r="V37">
+        <v>1.000003810916364</v>
+      </c>
+      <c r="W37">
+        <v>0.9999953961598453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999500645530701</v>
+      </c>
+      <c r="D38">
+        <v>0.9997707134883944</v>
+      </c>
+      <c r="E38">
+        <v>0.9997707134883944</v>
+      </c>
+      <c r="F38">
+        <v>1.000050946715009</v>
+      </c>
+      <c r="G38">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="H38">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="I38">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="J38">
+        <v>1.000084437444023</v>
+      </c>
+      <c r="K38">
+        <v>0.9999503467028459</v>
+      </c>
+      <c r="L38">
+        <v>1.000060862319519</v>
+      </c>
+      <c r="M38">
+        <v>0.9998498143293626</v>
+      </c>
+      <c r="N38">
+        <v>1.000164185282764</v>
+      </c>
+      <c r="O38">
+        <v>1.000050946715009</v>
+      </c>
+      <c r="P38">
+        <v>0.9999108301017017</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000646708927</v>
+      </c>
+      <c r="R38">
+        <v>0.9999952818287223</v>
+      </c>
+      <c r="S38">
+        <v>0.999924002302083</v>
+      </c>
+      <c r="T38">
+        <v>0.9999952818287223</v>
+      </c>
+      <c r="U38">
+        <v>0.9999840480472533</v>
+      </c>
+      <c r="V38">
+        <v>1.000020075494355</v>
+      </c>
+      <c r="W38">
+        <v>0.9999851713543735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.999877994382116</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9994702360307895</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9994702360307895</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000107361393702</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000397765150552</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000397765150552</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000397765150552</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000194010014422</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9998846556874219</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000146370987171</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9996512099303981</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000397765150552</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000107361393702</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999788798712246</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999960085405621</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999917875250146</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998207510373046</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999917875250146</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999650045656164</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000051556682604</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999662004470716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9965812012546538</v>
+      </c>
+      <c r="D40">
+        <v>0.9831429396149511</v>
+      </c>
+      <c r="E40">
+        <v>0.9831429396149511</v>
+      </c>
+      <c r="F40">
+        <v>1.00414022037945</v>
+      </c>
+      <c r="G40">
+        <v>1.011369674870655</v>
+      </c>
+      <c r="H40">
+        <v>1.011369674870655</v>
+      </c>
+      <c r="I40">
+        <v>1.011369674870655</v>
+      </c>
+      <c r="J40">
+        <v>1.006249414960465</v>
+      </c>
+      <c r="K40">
+        <v>0.9963733705518772</v>
+      </c>
+      <c r="L40">
+        <v>1.004255400911772</v>
+      </c>
+      <c r="M40">
+        <v>0.9890266226933163</v>
+      </c>
+      <c r="N40">
+        <v>1.011369674870655</v>
+      </c>
+      <c r="O40">
+        <v>1.00414022037945</v>
+      </c>
+      <c r="P40">
+        <v>0.9936415799972005</v>
+      </c>
+      <c r="Q40">
+        <v>1.000256795465664</v>
+      </c>
+      <c r="R40">
+        <v>0.9995509449550185</v>
+      </c>
+      <c r="S40">
+        <v>0.9945521768487594</v>
+      </c>
+      <c r="T40">
+        <v>0.9995509449550185</v>
+      </c>
+      <c r="U40">
+        <v>0.9987565513542332</v>
+      </c>
+      <c r="V40">
+        <v>1.001279176057518</v>
+      </c>
+      <c r="W40">
+        <v>0.9988923556546424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000028916470938</v>
+      </c>
+      <c r="D41">
+        <v>1.000167891473519</v>
+      </c>
+      <c r="E41">
+        <v>1.000167891473519</v>
+      </c>
+      <c r="F41">
+        <v>0.999950742460895</v>
+      </c>
+      <c r="G41">
+        <v>0.9999010222234901</v>
+      </c>
+      <c r="H41">
+        <v>0.9999010222234901</v>
+      </c>
+      <c r="I41">
+        <v>0.9999010222234901</v>
+      </c>
+      <c r="J41">
+        <v>0.9999369136771412</v>
+      </c>
+      <c r="K41">
+        <v>1.000035636246735</v>
+      </c>
+      <c r="L41">
+        <v>0.9999620732536637</v>
+      </c>
+      <c r="M41">
+        <v>1.000107902973655</v>
+      </c>
+      <c r="N41">
+        <v>0.9999010222234901</v>
+      </c>
+      <c r="O41">
+        <v>0.999950742460895</v>
+      </c>
+      <c r="P41">
+        <v>1.000059316967207</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999931893538152</v>
+      </c>
+      <c r="R41">
+        <v>1.000006552052634</v>
+      </c>
+      <c r="S41">
+        <v>1.000051423393716</v>
+      </c>
+      <c r="T41">
+        <v>1.000006552052634</v>
+      </c>
+      <c r="U41">
+        <v>1.00001382310116</v>
+      </c>
+      <c r="V41">
+        <v>0.9999912629256258</v>
+      </c>
+      <c r="W41">
+        <v>1.000011387347504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9965833316802548</v>
+      </c>
+      <c r="D42">
+        <v>0.9831292737030701</v>
+      </c>
+      <c r="E42">
+        <v>0.9831292737030701</v>
+      </c>
+      <c r="F42">
+        <v>1.004151241423585</v>
+      </c>
+      <c r="G42">
+        <v>1.011365273045121</v>
+      </c>
+      <c r="H42">
+        <v>1.011365273045121</v>
+      </c>
+      <c r="I42">
+        <v>1.011365273045121</v>
+      </c>
+      <c r="J42">
+        <v>1.006255287375503</v>
+      </c>
+      <c r="K42">
+        <v>0.9963708891200371</v>
+      </c>
+      <c r="L42">
+        <v>1.004254594199603</v>
+      </c>
+      <c r="M42">
+        <v>0.9890190510793171</v>
+      </c>
+      <c r="N42">
+        <v>1.011365273045121</v>
+      </c>
+      <c r="O42">
+        <v>1.004151241423585</v>
+      </c>
+      <c r="P42">
+        <v>0.9936402575633275</v>
+      </c>
+      <c r="Q42">
+        <v>1.000261065271811</v>
+      </c>
+      <c r="R42">
+        <v>0.9995485960572587</v>
+      </c>
+      <c r="S42">
+        <v>0.9945504680822307</v>
+      </c>
+      <c r="T42">
+        <v>0.9995485960572587</v>
+      </c>
+      <c r="U42">
+        <v>0.9987541693229534</v>
+      </c>
+      <c r="V42">
+        <v>1.001276390067387</v>
+      </c>
+      <c r="W42">
+        <v>0.9988911177033115</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,49 +85,46 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000519072870527</v>
+        <v>0.9999671753656034</v>
       </c>
       <c r="D3">
-        <v>0.9992473255432436</v>
+        <v>0.9998299985744131</v>
       </c>
       <c r="E3">
-        <v>1.000178442683446</v>
+        <v>0.9998299985744131</v>
       </c>
       <c r="F3">
-        <v>1.000519072870527</v>
+        <v>1.000044335547208</v>
       </c>
       <c r="G3">
-        <v>0.999837682809618</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="H3">
-        <v>1.000278363175022</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="I3">
-        <v>1.000519072870527</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="J3">
-        <v>0.9992473255432436</v>
+        <v>1.000063294192983</v>
       </c>
       <c r="K3">
-        <v>0.9998432416136512</v>
+        <v>0.9999635802690932</v>
       </c>
       <c r="L3">
-        <v>1.000193571655096</v>
+        <v>1.000041480007926</v>
       </c>
       <c r="M3">
-        <v>0.9995089234111462</v>
+        <v>0.9998897826439952</v>
       </c>
       <c r="N3">
-        <v>1.000519072870527</v>
+        <v>1.000110070287299</v>
       </c>
       <c r="O3">
-        <v>1.000178442683446</v>
+        <v>1.000044335547208</v>
       </c>
       <c r="P3">
-        <v>0.9997128841133447</v>
+        <v>0.9999371670608108</v>
       </c>
       <c r="Q3">
-        <v>1.000008062746532</v>
+        <v>1.000003957908151</v>
       </c>
       <c r="R3">
-        <v>0.9999816136990723</v>
+        <v>0.9999948014696404</v>
       </c>
       <c r="S3">
-        <v>0.9997544836787692</v>
+        <v>0.9999459714635716</v>
       </c>
       <c r="T3">
-        <v>0.9999816136990723</v>
+        <v>0.9999948014696404</v>
       </c>
       <c r="U3">
-        <v>0.9999456309767087</v>
+        <v>0.9999869961695036</v>
       </c>
       <c r="V3">
-        <v>1.000060319355472</v>
+        <v>1.000011610993063</v>
       </c>
       <c r="W3">
-        <v>0.9999508279702188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999887146110653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001001613777368</v>
+        <v>0.9965812012546538</v>
       </c>
       <c r="D4">
-        <v>0.998546719016661</v>
+        <v>0.9831429396149511</v>
       </c>
       <c r="E4">
-        <v>1.000344892188404</v>
+        <v>0.9831429396149511</v>
       </c>
       <c r="F4">
-        <v>1.001001613777368</v>
+        <v>1.00414022037945</v>
       </c>
       <c r="G4">
-        <v>0.9996866164634162</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="H4">
-        <v>1.000537508387025</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="I4">
-        <v>1.001001613777368</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="J4">
-        <v>0.998546719016661</v>
+        <v>1.006249414960465</v>
       </c>
       <c r="K4">
-        <v>0.9996975528352813</v>
+        <v>0.9963733705518772</v>
       </c>
       <c r="L4">
-        <v>1.000373558623191</v>
+        <v>1.004255400911772</v>
       </c>
       <c r="M4">
-        <v>0.9990518788108611</v>
+        <v>0.9890266226933163</v>
       </c>
       <c r="N4">
-        <v>1.001001613777368</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="O4">
-        <v>1.000344892188404</v>
+        <v>1.00414022037945</v>
       </c>
       <c r="P4">
-        <v>0.9994458056025327</v>
+        <v>0.9936415799972005</v>
       </c>
       <c r="Q4">
-        <v>1.00001575432591</v>
+        <v>1.000256795465664</v>
       </c>
       <c r="R4">
-        <v>0.9999644083274779</v>
+        <v>0.9995509449550185</v>
       </c>
       <c r="S4">
-        <v>0.9995260758894938</v>
+        <v>0.9945521768487594</v>
       </c>
       <c r="T4">
-        <v>0.9999644083274779</v>
+        <v>0.9995509449550185</v>
       </c>
       <c r="U4">
-        <v>0.9998949603614624</v>
+        <v>0.9987565513542332</v>
       </c>
       <c r="V4">
-        <v>1.000116291044644</v>
+        <v>1.001279176057518</v>
       </c>
       <c r="W4">
-        <v>0.999905042512776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9988923556546424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001918179421038</v>
+        <v>0.998349011556195</v>
       </c>
       <c r="D5">
-        <v>0.99721424028748</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="E5">
-        <v>1.000662123752816</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="F5">
-        <v>1.001918179421038</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="G5">
-        <v>0.9993993444948969</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="H5">
-        <v>1.001030442908625</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="I5">
-        <v>1.001918179421038</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="J5">
-        <v>0.99721424028748</v>
+        <v>1.003182337982707</v>
       </c>
       <c r="K5">
-        <v>0.9994208870733957</v>
+        <v>0.9981688476440891</v>
       </c>
       <c r="L5">
-        <v>1.000715504989035</v>
+        <v>1.002086082319885</v>
       </c>
       <c r="M5">
-        <v>0.9981827465623163</v>
+        <v>0.994458213753602</v>
       </c>
       <c r="N5">
-        <v>1.001918179421038</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="O5">
-        <v>1.000662123752816</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="P5">
-        <v>0.9989381820201481</v>
+        <v>0.9968404046721897</v>
       </c>
       <c r="Q5">
-        <v>1.000030734123857</v>
+        <v>1.000198564232707</v>
       </c>
       <c r="R5">
-        <v>0.9999315144871114</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="S5">
-        <v>0.9990919028450643</v>
+        <v>0.9972832189961561</v>
       </c>
       <c r="T5">
-        <v>0.9999315144871114</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="U5">
-        <v>0.9997984719890578</v>
+        <v>0.999346365082852</v>
       </c>
       <c r="V5">
-        <v>1.000222413475454</v>
+        <v>1.00058425273487</v>
       </c>
       <c r="W5">
-        <v>0.9998179336862005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9994326382429748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.002812513518203</v>
+        <v>0.9948832347111762</v>
       </c>
       <c r="D6">
-        <v>0.9959137121012215</v>
+        <v>0.9730129517960344</v>
       </c>
       <c r="E6">
-        <v>1.000971891538997</v>
+        <v>0.9730129517960344</v>
       </c>
       <c r="F6">
-        <v>1.002812513518203</v>
+        <v>1.007185258318714</v>
       </c>
       <c r="G6">
-        <v>0.9991189711927025</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="H6">
-        <v>1.001511578638312</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="I6">
-        <v>1.002812513518203</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="J6">
-        <v>0.9959137121012215</v>
+        <v>1.010063366653892</v>
       </c>
       <c r="K6">
-        <v>0.9991509509489974</v>
+        <v>0.9942274877740762</v>
       </c>
       <c r="L6">
-        <v>1.001049181092903</v>
+        <v>1.00650315789191</v>
       </c>
       <c r="M6">
-        <v>0.9973344720364202</v>
+        <v>0.9825287932593713</v>
       </c>
       <c r="N6">
-        <v>1.002812513518203</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="O6">
-        <v>1.000971891538997</v>
+        <v>1.007185258318714</v>
       </c>
       <c r="P6">
-        <v>0.9984428018201095</v>
+        <v>0.990099105057374</v>
       </c>
       <c r="Q6">
-        <v>1.00004543136585</v>
+        <v>1.000706373046395</v>
       </c>
       <c r="R6">
-        <v>0.9998993723861406</v>
+        <v>0.999136679149462</v>
       </c>
       <c r="S6">
-        <v>0.9986681916109738</v>
+        <v>0.991475232629608</v>
       </c>
       <c r="T6">
-        <v>0.9998993723861404</v>
+        <v>0.999136679149462</v>
       </c>
       <c r="U6">
-        <v>0.9997042720877809</v>
+        <v>0.9979093813056156</v>
       </c>
       <c r="V6">
-        <v>1.000325920373865</v>
+        <v>1.00176987051122</v>
       </c>
       <c r="W6">
-        <v>0.9997329088834696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9982020097173514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000037789726826</v>
+        <v>0.9997957132591669</v>
       </c>
       <c r="D7">
-        <v>0.9999412282067976</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="E7">
-        <v>1.000015475039971</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="F7">
-        <v>1.000037789726826</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="G7">
-        <v>0.9999874176539352</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="H7">
-        <v>1.000021896096954</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="I7">
-        <v>1.000037789726826</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="J7">
-        <v>0.9999412282067976</v>
+        <v>1.00036611032502</v>
       </c>
       <c r="K7">
-        <v>0.9999887474863213</v>
+        <v>0.9997868439984702</v>
       </c>
       <c r="L7">
-        <v>1.000014257617278</v>
+        <v>1.000252894217981</v>
       </c>
       <c r="M7">
-        <v>0.9999619226701887</v>
+        <v>0.9993550911361692</v>
       </c>
       <c r="N7">
-        <v>1.000037789726826</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="O7">
-        <v>1.000015475039971</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="P7">
-        <v>0.9999783516233841</v>
+        <v>0.9996240195219397</v>
       </c>
       <c r="Q7">
-        <v>1.000001446346953</v>
+        <v>1.000012025931734</v>
       </c>
       <c r="R7">
-        <v>0.9999981643245315</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="S7">
-        <v>0.9999813736335678</v>
+        <v>0.9996782943474498</v>
       </c>
       <c r="T7">
-        <v>0.9999981643245315</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="U7">
-        <v>0.9999954776568825</v>
+        <v>0.9999280639000018</v>
       </c>
       <c r="V7">
-        <v>1.000003940070871</v>
+        <v>1.000077925631533</v>
       </c>
       <c r="W7">
-        <v>0.999996091812284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999352580672931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000110070287299</v>
+        <v>0.9999879168459971</v>
       </c>
       <c r="D8">
-        <v>0.9998299985744131</v>
+        <v>0.9999317861632683</v>
       </c>
       <c r="E8">
-        <v>1.000044335547208</v>
+        <v>0.9999317861632683</v>
       </c>
       <c r="F8">
-        <v>1.000110070287299</v>
+        <v>1.000019487910565</v>
       </c>
       <c r="G8">
-        <v>0.9999635802690932</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="H8">
-        <v>1.000063294192983</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="I8">
-        <v>1.000110070287299</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="J8">
-        <v>0.9998299985744131</v>
+        <v>1.000025573822092</v>
       </c>
       <c r="K8">
-        <v>0.9999671753656034</v>
+        <v>0.9999854882895702</v>
       </c>
       <c r="L8">
-        <v>1.000041480007926</v>
+        <v>1.000015700295048</v>
       </c>
       <c r="M8">
-        <v>0.9998897826439954</v>
+        <v>0.9999560698430136</v>
       </c>
       <c r="N8">
-        <v>1.000110070287299</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="O8">
-        <v>1.000044335547208</v>
+        <v>1.000019487910565</v>
       </c>
       <c r="P8">
-        <v>0.9999371670608108</v>
+        <v>0.9999756370369168</v>
       </c>
       <c r="Q8">
-        <v>1.000003957908151</v>
+        <v>1.000002488100068</v>
       </c>
       <c r="R8">
-        <v>0.9999948014696404</v>
+        <v>0.9999974733943472</v>
       </c>
       <c r="S8">
-        <v>0.9999459714635716</v>
+        <v>0.9999789207878013</v>
       </c>
       <c r="T8">
-        <v>0.9999948014696404</v>
+        <v>0.9999974733943472</v>
       </c>
       <c r="U8">
-        <v>0.9999869961695036</v>
+        <v>0.9999944771181529</v>
       </c>
       <c r="V8">
-        <v>1.000011610993063</v>
+        <v>1.000003810916364</v>
       </c>
       <c r="W8">
-        <v>0.9999887146110653</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999953961598453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00015229793243</v>
+        <v>0.9996975528352813</v>
       </c>
       <c r="D9">
-        <v>0.9997656587737743</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="E9">
-        <v>1.000060794594143</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="F9">
-        <v>1.00015229793243</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="G9">
-        <v>0.9999497780460345</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="H9">
-        <v>1.000087215400743</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="I9">
-        <v>1.00015229793243</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="J9">
-        <v>0.9997656587737743</v>
+        <v>1.000537508387025</v>
       </c>
       <c r="K9">
-        <v>0.9999545475878595</v>
+        <v>0.9996866164634162</v>
       </c>
       <c r="L9">
-        <v>1.000057357367887</v>
+        <v>1.000373558623191</v>
       </c>
       <c r="M9">
-        <v>0.9998480137245132</v>
+        <v>0.999051878810861</v>
       </c>
       <c r="N9">
-        <v>1.00015229793243</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="O9">
-        <v>1.000060794594143</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="P9">
-        <v>0.9999132266839588</v>
+        <v>0.9994458056025327</v>
       </c>
       <c r="Q9">
-        <v>1.000005286320089</v>
+        <v>1.00001575432591</v>
       </c>
       <c r="R9">
-        <v>0.9999929171001157</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="S9">
-        <v>0.9999254104713172</v>
+        <v>0.9995260758894938</v>
       </c>
       <c r="T9">
-        <v>0.9999929171001157</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="U9">
-        <v>0.9999821323365954</v>
+        <v>0.9998949603614624</v>
       </c>
       <c r="V9">
-        <v>1.000016165455762</v>
+        <v>1.000116291044644</v>
       </c>
       <c r="W9">
-        <v>0.9999844579284231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.999905042512776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00032873028169</v>
+        <v>0.9948107766650727</v>
       </c>
       <c r="D10">
-        <v>0.9994932557679572</v>
+        <v>0.9726069026362534</v>
       </c>
       <c r="E10">
-        <v>1.000131804135122</v>
+        <v>0.9726069026362534</v>
       </c>
       <c r="F10">
-        <v>1.00032873028169</v>
+        <v>1.007300445360399</v>
       </c>
       <c r="G10">
-        <v>0.9998914199937687</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="H10">
-        <v>1.000188635516294</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="I10">
-        <v>1.00032873028169</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="J10">
-        <v>0.9994932557679572</v>
+        <v>1.010215523318169</v>
       </c>
       <c r="K10">
-        <v>0.9999019276247367</v>
+        <v>0.9941410599717152</v>
       </c>
       <c r="L10">
-        <v>1.00012384239042</v>
+        <v>1.006597072613483</v>
       </c>
       <c r="M10">
-        <v>0.9996714002570198</v>
+        <v>0.9822671456973504</v>
       </c>
       <c r="N10">
-        <v>1.00032873028169</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="O10">
-        <v>1.000131804135122</v>
+        <v>1.007300445360399</v>
       </c>
       <c r="P10">
-        <v>0.9998125299515397</v>
+        <v>0.989953673998326</v>
       </c>
       <c r="Q10">
-        <v>1.000011612064446</v>
+        <v>1.000720752666057</v>
       </c>
       <c r="R10">
-        <v>0.9999845967282565</v>
+        <v>0.9991218551493395</v>
       </c>
       <c r="S10">
-        <v>0.9998388266322827</v>
+        <v>0.9913494693227891</v>
       </c>
       <c r="T10">
-        <v>0.9999845967282565</v>
+        <v>0.9991218551493395</v>
       </c>
       <c r="U10">
-        <v>0.9999613025446346</v>
+        <v>0.9978766563549334</v>
       </c>
       <c r="V10">
-        <v>1.000034788092046</v>
+        <v>1.00179296857422</v>
       </c>
       <c r="W10">
-        <v>0.999966376995876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.998174642964226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000551980574372</v>
+        <v>0.9965757517567705</v>
       </c>
       <c r="D11">
-        <v>0.9991522280468086</v>
+        <v>0.9831499449866594</v>
       </c>
       <c r="E11">
-        <v>1.000219370092936</v>
+        <v>0.9831499449866594</v>
       </c>
       <c r="F11">
-        <v>1.000551980574372</v>
+        <v>1.004127767387964</v>
       </c>
       <c r="G11">
-        <v>0.9998182771739655</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="H11">
-        <v>1.000315463417976</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="I11">
-        <v>1.000551980574372</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="J11">
-        <v>0.9991522280468086</v>
+        <v>1.006245690980378</v>
       </c>
       <c r="K11">
-        <v>0.9998351994812531</v>
+        <v>0.9963742316250205</v>
       </c>
       <c r="L11">
-        <v>1.000207817787132</v>
+        <v>1.004259595390406</v>
       </c>
       <c r="M11">
-        <v>0.9994500618396263</v>
+        <v>0.9890293241887403</v>
       </c>
       <c r="N11">
-        <v>1.000551980574372</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="O11">
-        <v>1.000219370092936</v>
+        <v>1.004127767387964</v>
       </c>
       <c r="P11">
-        <v>0.9996857990698721</v>
+        <v>0.9936388561873115</v>
       </c>
       <c r="Q11">
-        <v>1.000018823633451</v>
+        <v>1.000250999506492</v>
       </c>
       <c r="R11">
-        <v>0.9999745262380388</v>
+        <v>0.9995539149935816</v>
       </c>
       <c r="S11">
-        <v>0.9997299584379032</v>
+        <v>0.9945506479998811</v>
       </c>
       <c r="T11">
-        <v>0.9999745262380388</v>
+        <v>0.9995539149935816</v>
       </c>
       <c r="U11">
-        <v>0.9999354639720205</v>
+        <v>0.9987589941514413</v>
       </c>
       <c r="V11">
-        <v>1.000058767292491</v>
+        <v>1.001284001842377</v>
       </c>
       <c r="W11">
-        <v>0.9999437998017586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9988932923652576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9924577542342169</v>
+        <v>0.9983395578736858</v>
       </c>
       <c r="D12">
-        <v>1.012133338937324</v>
+        <v>0.9912465098105273</v>
       </c>
       <c r="E12">
-        <v>0.9966591779567735</v>
+        <v>0.9912465098105273</v>
       </c>
       <c r="F12">
-        <v>0.9924577542342169</v>
+        <v>1.002329394905262</v>
       </c>
       <c r="G12">
-        <v>1.002588683326534</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="H12">
-        <v>0.995463930002616</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="I12">
-        <v>0.9924577542342169</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="J12">
-        <v>1.012133338937324</v>
+        <v>1.003264016357894</v>
       </c>
       <c r="K12">
-        <v>1.002229878678296</v>
+        <v>0.998127562263153</v>
       </c>
       <c r="L12">
-        <v>0.9971374900909714</v>
+        <v>1.002110024989476</v>
       </c>
       <c r="M12">
-        <v>1.007835924722344</v>
+        <v>0.9943328499052629</v>
       </c>
       <c r="N12">
-        <v>0.9924577542342169</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="O12">
-        <v>0.9966591779567735</v>
+        <v>1.002329394905262</v>
       </c>
       <c r="P12">
-        <v>1.004396258447049</v>
+        <v>0.9967879523578946</v>
       </c>
       <c r="Q12">
-        <v>0.9996239306416538</v>
+        <v>1.000228478584207</v>
       </c>
       <c r="R12">
-        <v>1.000416757042771</v>
+        <v>0.9997202870666682</v>
       </c>
       <c r="S12">
-        <v>1.003793733406877</v>
+        <v>0.9972344889929808</v>
       </c>
       <c r="T12">
-        <v>1.000416757042771</v>
+        <v>0.9997202870666682</v>
       </c>
       <c r="U12">
-        <v>1.000959738613712</v>
+        <v>0.9993221058657894</v>
       </c>
       <c r="V12">
-        <v>0.9992593417378132</v>
+        <v>1.000574675989474</v>
       </c>
       <c r="W12">
-        <v>1.000813272243635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9994168590736845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9977728544845597</v>
+        <v>1.001055582733877</v>
       </c>
       <c r="D13">
-        <v>1.002993557612761</v>
+        <v>1.005336038739903</v>
       </c>
       <c r="E13">
-        <v>0.9993817903805157</v>
+        <v>1.005336038739903</v>
       </c>
       <c r="F13">
-        <v>0.9977728544845597</v>
+        <v>0.9986478232009189</v>
       </c>
       <c r="G13">
-        <v>1.000651073466942</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="H13">
-        <v>0.9989024821036977</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="I13">
-        <v>0.9977728544845597</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="J13">
-        <v>1.002993557612761</v>
+        <v>0.9980173988641796</v>
       </c>
       <c r="K13">
-        <v>1.000682027625203</v>
+        <v>1.00114549624763</v>
       </c>
       <c r="L13">
-        <v>0.9991792842476804</v>
+        <v>0.9986760805681622</v>
       </c>
       <c r="M13">
-        <v>1.001968972279209</v>
+        <v>1.003466380863516</v>
       </c>
       <c r="N13">
-        <v>0.9977728544845597</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="O13">
-        <v>0.9993817903805157</v>
+        <v>0.9986478232009189</v>
       </c>
       <c r="P13">
-        <v>1.001187673996638</v>
+        <v>1.001991930970411</v>
       </c>
       <c r="Q13">
-        <v>1.000016431923729</v>
+        <v>0.9998966597242744</v>
       </c>
       <c r="R13">
-        <v>1.000049400825945</v>
+        <v>1.000152933201508</v>
       </c>
       <c r="S13">
-        <v>1.001008807153406</v>
+        <v>1.001709786062817</v>
       </c>
       <c r="T13">
-        <v>1.000049400825945</v>
+        <v>1.000152933201508</v>
       </c>
       <c r="U13">
-        <v>1.000199818986194</v>
+        <v>1.000401073963039</v>
       </c>
       <c r="V13">
-        <v>0.9997144260858676</v>
+        <v>0.9996158467031717</v>
       </c>
       <c r="W13">
-        <v>1.000191505275071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000352467360236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9751867436385546</v>
+        <v>0.9910433000000007</v>
       </c>
       <c r="D14">
-        <v>1.037276530668762</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="E14">
-        <v>0.9906596228118023</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="F14">
-        <v>0.9751867436385546</v>
+        <v>1.012634</v>
       </c>
       <c r="G14">
-        <v>1.008008556739612</v>
+        <v>1.0301398</v>
       </c>
       <c r="H14">
-        <v>0.9861610531467334</v>
+        <v>1.0301398</v>
       </c>
       <c r="I14">
-        <v>0.9751867436385546</v>
+        <v>1.0301398</v>
       </c>
       <c r="J14">
-        <v>1.037276530668762</v>
+        <v>1.017656099999998</v>
       </c>
       <c r="K14">
-        <v>1.007441711772527</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="L14">
-        <v>0.9906926681573588</v>
+        <v>1.0113912</v>
       </c>
       <c r="M14">
-        <v>1.024233746948376</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="N14">
-        <v>0.9751867436385546</v>
+        <v>1.0301398</v>
       </c>
       <c r="O14">
-        <v>0.9906596228118023</v>
+        <v>1.012634</v>
       </c>
       <c r="P14">
-        <v>1.013968076740282</v>
+        <v>0.9826468999999998</v>
       </c>
       <c r="Q14">
-        <v>0.9993340897757073</v>
+        <v>1.001254875</v>
       </c>
       <c r="R14">
-        <v>1.001040965706373</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S14">
-        <v>1.011981570073392</v>
+        <v>0.9850565166666668</v>
       </c>
       <c r="T14">
-        <v>1.001040965706373</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U14">
-        <v>1.002782863464683</v>
+        <v>0.9963273375000002</v>
       </c>
       <c r="V14">
-        <v>0.997263639499457</v>
+        <v>1.00308983</v>
       </c>
       <c r="W14">
-        <v>1.002457579235466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9968446774999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9933544039901825</v>
+        <v>0.9905238300000001</v>
       </c>
       <c r="D15">
-        <v>1.009939348296659</v>
+        <v>0.95342761</v>
       </c>
       <c r="E15">
-        <v>0.9975260567333069</v>
+        <v>0.95342761</v>
       </c>
       <c r="F15">
-        <v>0.9933544039901825</v>
+        <v>1.0113904</v>
       </c>
       <c r="G15">
-        <v>1.002136381046184</v>
+        <v>1.0314974</v>
       </c>
       <c r="H15">
-        <v>0.996311742649718</v>
+        <v>1.0314974</v>
       </c>
       <c r="I15">
-        <v>0.9933544039901825</v>
+        <v>1.0314974</v>
       </c>
       <c r="J15">
-        <v>1.009939348296659</v>
+        <v>1.0172607</v>
       </c>
       <c r="K15">
-        <v>1.001994845059642</v>
+        <v>0.9899775200000001</v>
       </c>
       <c r="L15">
-        <v>0.9975091110789633</v>
+        <v>1.0117835</v>
       </c>
       <c r="M15">
-        <v>1.006464509285294</v>
+        <v>0.9696746199999999</v>
       </c>
       <c r="N15">
-        <v>0.9933544039901825</v>
+        <v>1.0314974</v>
       </c>
       <c r="O15">
-        <v>0.9975260567333069</v>
+        <v>1.0113904</v>
       </c>
       <c r="P15">
-        <v>1.003732702514983</v>
+        <v>0.9824090050000001</v>
       </c>
       <c r="Q15">
-        <v>0.9998312188897456</v>
+        <v>1.00068396</v>
       </c>
       <c r="R15">
-        <v>1.000273269673383</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="S15">
-        <v>1.003200595358717</v>
+        <v>0.9849318433333334</v>
       </c>
       <c r="T15">
-        <v>1.000273269673383</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="U15">
-        <v>1.000739047516583</v>
+        <v>0.9965732325000001</v>
       </c>
       <c r="V15">
-        <v>0.9992621188113031</v>
+        <v>1.003558066</v>
       </c>
       <c r="W15">
-        <v>1.000654549767494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9969419475000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000002863802615</v>
+        <v>0.97462952</v>
       </c>
       <c r="D16">
-        <v>0.9999972953862619</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E16">
-        <v>1.000000078908611</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F16">
-        <v>1.000002863802615</v>
+        <v>1.0301398</v>
       </c>
       <c r="G16">
-        <v>0.9999993822923479</v>
+        <v>1.0842575</v>
       </c>
       <c r="H16">
-        <v>1.000000939743156</v>
+        <v>1.0842575</v>
       </c>
       <c r="I16">
-        <v>1.000002863802615</v>
+        <v>1.0842575</v>
       </c>
       <c r="J16">
-        <v>0.9999972953862619</v>
+        <v>1.0459565</v>
       </c>
       <c r="K16">
-        <v>0.999999078170165</v>
+        <v>0.9732909399999999</v>
       </c>
       <c r="L16">
-        <v>1.000001007072564</v>
+        <v>1.0314994</v>
       </c>
       <c r="M16">
-        <v>0.9999981389911532</v>
+        <v>0.91918716</v>
       </c>
       <c r="N16">
-        <v>1.000002863802615</v>
+        <v>1.0842575</v>
       </c>
       <c r="O16">
-        <v>1.000000078908611</v>
+        <v>1.0301398</v>
       </c>
       <c r="P16">
-        <v>0.9999986871474366</v>
+        <v>0.9530422300000001</v>
       </c>
       <c r="Q16">
-        <v>0.9999997306004795</v>
+        <v>1.00171537</v>
       </c>
       <c r="R16">
-        <v>1.000000079365829</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="S16">
-        <v>0.9999989188624069</v>
+        <v>0.9597918000000001</v>
       </c>
       <c r="T16">
-        <v>1.000000079365829</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="U16">
-        <v>0.9999999050974591</v>
+        <v>0.9909082250000001</v>
       </c>
       <c r="V16">
-        <v>1.00000049683849</v>
+        <v>1.00957808</v>
       </c>
       <c r="W16">
-        <v>0.9999998480458593</v>
+        <v>0.9918631849999999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000041146109208</v>
+        <v>0.99958158</v>
       </c>
       <c r="D17">
-        <v>0.9999317861632683</v>
+        <v>0.99683551</v>
       </c>
       <c r="E17">
-        <v>1.000019487910565</v>
+        <v>0.99683551</v>
       </c>
       <c r="F17">
-        <v>1.000041146109208</v>
+        <v>1.0011262</v>
       </c>
       <c r="G17">
-        <v>0.9999854882895702</v>
+        <v>1.0015139</v>
       </c>
       <c r="H17">
-        <v>1.000025573822092</v>
+        <v>1.0015139</v>
       </c>
       <c r="I17">
-        <v>1.000041146109208</v>
+        <v>1.0015139</v>
       </c>
       <c r="J17">
-        <v>0.9999317861632683</v>
+        <v>1.0012098</v>
       </c>
       <c r="K17">
-        <v>0.9999879168459969</v>
+        <v>0.99934017</v>
       </c>
       <c r="L17">
-        <v>1.000015700295048</v>
+        <v>1.0006049</v>
       </c>
       <c r="M17">
-        <v>0.9999560698430136</v>
+        <v>0.99800046</v>
       </c>
       <c r="N17">
-        <v>1.000041146109208</v>
+        <v>1.0015139</v>
       </c>
       <c r="O17">
-        <v>1.000019487910565</v>
+        <v>1.0011262</v>
       </c>
       <c r="P17">
-        <v>0.9999756370369166</v>
+        <v>0.9989808550000001</v>
       </c>
       <c r="Q17">
-        <v>1.000002488100068</v>
+        <v>1.000233185</v>
       </c>
       <c r="R17">
-        <v>0.999997473394347</v>
+        <v>0.9998252033333334</v>
       </c>
       <c r="S17">
-        <v>0.9999789207878012</v>
+        <v>0.9991006266666668</v>
       </c>
       <c r="T17">
-        <v>0.999997473394347</v>
+        <v>0.9998252033333334</v>
       </c>
       <c r="U17">
-        <v>0.9999944771181528</v>
+        <v>0.999703945</v>
       </c>
       <c r="V17">
-        <v>1.000003810916364</v>
+        <v>1.000065936</v>
       </c>
       <c r="W17">
-        <v>0.9999953961598453</v>
+        <v>0.9997765649999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000164185282764</v>
+        <v>0.9962895141095889</v>
       </c>
       <c r="D18">
-        <v>0.9997707134883944</v>
+        <v>0.9822466420547942</v>
       </c>
       <c r="E18">
-        <v>1.000050946715009</v>
+        <v>0.9822466420547942</v>
       </c>
       <c r="F18">
-        <v>1.000164185282764</v>
+        <v>1.00418862739726</v>
       </c>
       <c r="G18">
-        <v>0.9999503467028459</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="H18">
-        <v>1.000084437444023</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="I18">
-        <v>1.000164185282764</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="J18">
-        <v>0.9997707134883944</v>
+        <v>1.006563667123288</v>
       </c>
       <c r="K18">
-        <v>0.9999500645530701</v>
+        <v>0.9961702136986296</v>
       </c>
       <c r="L18">
-        <v>1.000060862319519</v>
+        <v>1.004577079726027</v>
       </c>
       <c r="M18">
-        <v>0.9998498143293624</v>
+        <v>0.9884134238356164</v>
       </c>
       <c r="N18">
-        <v>1.000164185282764</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="O18">
-        <v>1.000050946715009</v>
+        <v>1.00418862739726</v>
       </c>
       <c r="P18">
-        <v>0.9999108301017017</v>
+        <v>0.9932176347260272</v>
       </c>
       <c r="Q18">
-        <v>1.000000646708927</v>
+        <v>1.000179420547945</v>
       </c>
       <c r="R18">
-        <v>0.9999952818287223</v>
+        <v>0.9995715921004565</v>
       </c>
       <c r="S18">
-        <v>0.999924002302083</v>
+        <v>0.9942018277168946</v>
       </c>
       <c r="T18">
-        <v>0.9999952818287223</v>
+        <v>0.9995715921004565</v>
       </c>
       <c r="U18">
-        <v>0.9999840480472533</v>
+        <v>0.9987212474999998</v>
       </c>
       <c r="V18">
-        <v>1.000020075494355</v>
+        <v>1.001432899369863</v>
       </c>
       <c r="W18">
-        <v>0.9999851713543735</v>
+        <v>0.998841084349315</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000397765150552</v>
+        <v>0.995811497368421</v>
       </c>
       <c r="D19">
-        <v>0.9994702360307895</v>
+        <v>0.9788244557894736</v>
       </c>
       <c r="E19">
-        <v>1.000107361393702</v>
+        <v>0.9788244557894736</v>
       </c>
       <c r="F19">
-        <v>1.000397765150552</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="G19">
-        <v>0.9998846556874219</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="H19">
-        <v>1.000194010014422</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="I19">
-        <v>1.000397765150552</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="J19">
-        <v>0.9994702360307895</v>
+        <v>1.00786781368421</v>
       </c>
       <c r="K19">
-        <v>0.999877994382116</v>
+        <v>0.9954542615789473</v>
       </c>
       <c r="L19">
-        <v>1.000146370987171</v>
+        <v>1.005253425789474</v>
       </c>
       <c r="M19">
-        <v>0.9996512099303981</v>
+        <v>0.9862441536842105</v>
       </c>
       <c r="N19">
-        <v>1.000397765150552</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="O19">
-        <v>1.000107361393702</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="P19">
-        <v>0.999788798712246</v>
+        <v>0.9920955757894736</v>
       </c>
       <c r="Q19">
-        <v>0.9999960085405621</v>
+        <v>1.000410478684211</v>
       </c>
       <c r="R19">
-        <v>0.9999917875250146</v>
+        <v>0.9993929080701754</v>
       </c>
       <c r="S19">
-        <v>0.9998207510373046</v>
+        <v>0.9932151377192983</v>
       </c>
       <c r="T19">
-        <v>0.9999917875250146</v>
+        <v>0.9993929080701754</v>
       </c>
       <c r="U19">
-        <v>0.9999650045656164</v>
+        <v>0.9984082464473685</v>
       </c>
       <c r="V19">
-        <v>1.000051556682604</v>
+        <v>1.001524111684211</v>
       </c>
       <c r="W19">
-        <v>0.9999662004470716</v>
+        <v>0.9986012345394737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9907832736842104</v>
+      </c>
+      <c r="D20">
+        <v>0.9530422889473685</v>
+      </c>
+      <c r="E20">
+        <v>0.9530422889473685</v>
+      </c>
+      <c r="F20">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="G20">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="H20">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="I20">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="J20">
+        <v>1.017458952631579</v>
+      </c>
+      <c r="K20">
+        <v>0.989926330526316</v>
+      </c>
+      <c r="L20">
+        <v>1.011587684210526</v>
+      </c>
+      <c r="M20">
+        <v>0.9695151210526316</v>
+      </c>
+      <c r="N20">
+        <v>1.030819547368421</v>
+      </c>
+      <c r="O20">
+        <v>1.01201257368421</v>
+      </c>
+      <c r="P20">
+        <v>0.9825274313157895</v>
+      </c>
+      <c r="Q20">
+        <v>1.000969452105263</v>
+      </c>
+      <c r="R20">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="S20">
+        <v>0.9849937310526317</v>
+      </c>
+      <c r="T20">
+        <v>0.9986248033333333</v>
+      </c>
+      <c r="U20">
+        <v>0.996450185131579</v>
+      </c>
+      <c r="V20">
+        <v>1.003324057578947</v>
+      </c>
+      <c r="W20">
+        <v>0.9968932215131578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.007441711772527</v>
+      </c>
+      <c r="D21">
+        <v>1.037276530668762</v>
+      </c>
+      <c r="E21">
+        <v>1.037276530668762</v>
+      </c>
+      <c r="F21">
+        <v>0.9906596228118023</v>
+      </c>
+      <c r="G21">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="H21">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="I21">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="J21">
+        <v>0.9861610531467334</v>
+      </c>
+      <c r="K21">
+        <v>1.008008556739612</v>
+      </c>
+      <c r="L21">
+        <v>0.9906926681573588</v>
+      </c>
+      <c r="M21">
+        <v>1.024233746948376</v>
+      </c>
+      <c r="N21">
+        <v>0.9751867436385546</v>
+      </c>
+      <c r="O21">
+        <v>0.9906596228118023</v>
+      </c>
+      <c r="P21">
+        <v>1.013968076740282</v>
+      </c>
+      <c r="Q21">
+        <v>0.9993340897757071</v>
+      </c>
+      <c r="R21">
+        <v>1.001040965706373</v>
+      </c>
+      <c r="S21">
+        <v>1.011981570073392</v>
+      </c>
+      <c r="T21">
+        <v>1.001040965706373</v>
+      </c>
+      <c r="U21">
+        <v>1.002782863464683</v>
+      </c>
+      <c r="V21">
+        <v>0.997263639499457</v>
+      </c>
+      <c r="W21">
+        <v>1.002457579235466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001994845059642</v>
+      </c>
+      <c r="D22">
+        <v>1.009939348296659</v>
+      </c>
+      <c r="E22">
+        <v>1.009939348296659</v>
+      </c>
+      <c r="F22">
+        <v>0.9975260567333069</v>
+      </c>
+      <c r="G22">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="H22">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="I22">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="J22">
+        <v>0.996311742649718</v>
+      </c>
+      <c r="K22">
+        <v>1.002136381046184</v>
+      </c>
+      <c r="L22">
+        <v>0.9975091110789633</v>
+      </c>
+      <c r="M22">
+        <v>1.006464509285294</v>
+      </c>
+      <c r="N22">
+        <v>0.9933544039901825</v>
+      </c>
+      <c r="O22">
+        <v>0.9975260567333069</v>
+      </c>
+      <c r="P22">
+        <v>1.003732702514983</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998312188897456</v>
+      </c>
+      <c r="R22">
+        <v>1.000273269673383</v>
+      </c>
+      <c r="S22">
+        <v>1.003200595358717</v>
+      </c>
+      <c r="T22">
+        <v>1.000273269673383</v>
+      </c>
+      <c r="U22">
+        <v>1.000739047516583</v>
+      </c>
+      <c r="V22">
+        <v>0.9992621188113031</v>
+      </c>
+      <c r="W22">
+        <v>1.000654549767494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.002229878678296</v>
+      </c>
+      <c r="D23">
+        <v>1.012133338937324</v>
+      </c>
+      <c r="E23">
+        <v>1.012133338937324</v>
+      </c>
+      <c r="F23">
+        <v>0.9966591779567736</v>
+      </c>
+      <c r="G23">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="H23">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="I23">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="J23">
+        <v>0.995463930002616</v>
+      </c>
+      <c r="K23">
+        <v>1.002588683326534</v>
+      </c>
+      <c r="L23">
+        <v>0.9971374900909714</v>
+      </c>
+      <c r="M23">
+        <v>1.007835924722344</v>
+      </c>
+      <c r="N23">
+        <v>0.9924577542342169</v>
+      </c>
+      <c r="O23">
+        <v>0.9966591779567736</v>
+      </c>
+      <c r="P23">
+        <v>1.004396258447049</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996239306416539</v>
+      </c>
+      <c r="R23">
+        <v>1.000416757042771</v>
+      </c>
+      <c r="S23">
+        <v>1.003793733406877</v>
+      </c>
+      <c r="T23">
+        <v>1.000416757042771</v>
+      </c>
+      <c r="U23">
+        <v>1.000959738613712</v>
+      </c>
+      <c r="V23">
+        <v>0.9992593417378132</v>
+      </c>
+      <c r="W23">
+        <v>1.000813272243635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000682027625203</v>
+      </c>
+      <c r="D24">
+        <v>1.002993557612761</v>
+      </c>
+      <c r="E24">
+        <v>1.002993557612761</v>
+      </c>
+      <c r="F24">
+        <v>0.9993817903805157</v>
+      </c>
+      <c r="G24">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="H24">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="I24">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="J24">
+        <v>0.9989024821036976</v>
+      </c>
+      <c r="K24">
+        <v>1.000651073466942</v>
+      </c>
+      <c r="L24">
+        <v>0.9991792842476804</v>
+      </c>
+      <c r="M24">
+        <v>1.001968972279209</v>
+      </c>
+      <c r="N24">
+        <v>0.9977728544845595</v>
+      </c>
+      <c r="O24">
+        <v>0.9993817903805157</v>
+      </c>
+      <c r="P24">
+        <v>1.001187673996638</v>
+      </c>
+      <c r="Q24">
+        <v>1.000016431923729</v>
+      </c>
+      <c r="R24">
+        <v>1.000049400825945</v>
+      </c>
+      <c r="S24">
+        <v>1.001008807153406</v>
+      </c>
+      <c r="T24">
+        <v>1.000049400825945</v>
+      </c>
+      <c r="U24">
+        <v>1.000199818986194</v>
+      </c>
+      <c r="V24">
+        <v>0.9997144260858676</v>
+      </c>
+      <c r="W24">
+        <v>1.000191505275071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9926361016602473</v>
+      </c>
+      <c r="D25">
+        <v>0.9635036155886264</v>
+      </c>
+      <c r="E25">
+        <v>0.9635036155886264</v>
+      </c>
+      <c r="F25">
+        <v>1.00902313909904</v>
+      </c>
+      <c r="G25">
+        <v>1.024510416731903</v>
+      </c>
+      <c r="H25">
+        <v>1.024510416731903</v>
+      </c>
+      <c r="I25">
+        <v>1.024510416731903</v>
+      </c>
+      <c r="J25">
+        <v>1.013536525179068</v>
+      </c>
+      <c r="K25">
+        <v>0.992151732830696</v>
+      </c>
+      <c r="L25">
+        <v>1.009180178180291</v>
+      </c>
+      <c r="M25">
+        <v>0.9762523581834399</v>
+      </c>
+      <c r="N25">
+        <v>1.024510416731903</v>
+      </c>
+      <c r="O25">
+        <v>1.00902313909904</v>
+      </c>
+      <c r="P25">
+        <v>0.986263377343833</v>
+      </c>
+      <c r="Q25">
+        <v>1.000587435964868</v>
+      </c>
+      <c r="R25">
+        <v>0.9990123904731897</v>
+      </c>
+      <c r="S25">
+        <v>0.9882261625061206</v>
+      </c>
+      <c r="T25">
+        <v>0.9990123904731897</v>
+      </c>
+      <c r="U25">
+        <v>0.9972972260625662</v>
+      </c>
+      <c r="V25">
+        <v>1.002739864196434</v>
+      </c>
+      <c r="W25">
+        <v>0.9975992584316637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9980624500952008</v>
+      </c>
+      <c r="D26">
+        <v>0.9901729472728952</v>
+      </c>
+      <c r="E26">
+        <v>0.9901729472728952</v>
+      </c>
+      <c r="F26">
+        <v>1.002500291493513</v>
+      </c>
+      <c r="G26">
+        <v>1.006474000271409</v>
+      </c>
+      <c r="H26">
+        <v>1.006474000271409</v>
+      </c>
+      <c r="I26">
+        <v>1.006474000271409</v>
+      </c>
+      <c r="J26">
+        <v>1.003652278182248</v>
+      </c>
+      <c r="K26">
+        <v>0.9978910168379811</v>
+      </c>
+      <c r="L26">
+        <v>1.002432579359379</v>
+      </c>
+      <c r="M26">
+        <v>0.9936179307861727</v>
+      </c>
+      <c r="N26">
+        <v>1.006474000271409</v>
+      </c>
+      <c r="O26">
+        <v>1.002500291493513</v>
+      </c>
+      <c r="P26">
+        <v>0.9963366193832042</v>
+      </c>
+      <c r="Q26">
+        <v>1.000195654165747</v>
+      </c>
+      <c r="R26">
+        <v>0.9997157463459391</v>
+      </c>
+      <c r="S26">
+        <v>0.9968547518681298</v>
+      </c>
+      <c r="T26">
+        <v>0.9997157463459391</v>
+      </c>
+      <c r="U26">
+        <v>0.9992595639689497</v>
+      </c>
+      <c r="V26">
+        <v>1.000702451229441</v>
+      </c>
+      <c r="W26">
+        <v>0.9993504367873498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9994336135399863</v>
+      </c>
+      <c r="D27">
+        <v>0.997226378998571</v>
+      </c>
+      <c r="E27">
+        <v>0.997226378998571</v>
+      </c>
+      <c r="F27">
+        <v>1.000675186563878</v>
+      </c>
+      <c r="G27">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="H27">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="I27">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="J27">
+        <v>1.00102762407678</v>
+      </c>
+      <c r="K27">
+        <v>0.9994029335628841</v>
+      </c>
+      <c r="L27">
+        <v>1.000703519664164</v>
+      </c>
+      <c r="M27">
+        <v>0.998193443060005</v>
+      </c>
+      <c r="N27">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="O27">
+        <v>1.000675186563878</v>
+      </c>
+      <c r="P27">
+        <v>0.9989507827812243</v>
+      </c>
+      <c r="Q27">
+        <v>1.000039060063381</v>
+      </c>
+      <c r="R27">
+        <v>0.99992766765124</v>
+      </c>
+      <c r="S27">
+        <v>0.9991014997084443</v>
+      </c>
+      <c r="T27">
+        <v>0.99992766765124</v>
+      </c>
+      <c r="U27">
+        <v>0.999796484129151</v>
+      </c>
+      <c r="V27">
+        <v>1.000213474781575</v>
+      </c>
+      <c r="W27">
+        <v>0.9998180171071924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9990094037723702</v>
+      </c>
+      <c r="D28">
+        <v>0.9951972665479711</v>
+      </c>
+      <c r="E28">
+        <v>0.9951972665479711</v>
+      </c>
+      <c r="F28">
+        <v>1.001153723216778</v>
+      </c>
+      <c r="G28">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="H28">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="I28">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="J28">
+        <v>1.001777799693803</v>
+      </c>
+      <c r="K28">
+        <v>0.9989651840942922</v>
+      </c>
+      <c r="L28">
+        <v>1.001226768545251</v>
+      </c>
+      <c r="M28">
+        <v>0.9968691160921984</v>
+      </c>
+      <c r="N28">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="O28">
+        <v>1.001153723216778</v>
+      </c>
+      <c r="P28">
+        <v>0.9981754948823748</v>
+      </c>
+      <c r="Q28">
+        <v>1.000059453655535</v>
+      </c>
+      <c r="R28">
+        <v>0.9998787603832425</v>
+      </c>
+      <c r="S28">
+        <v>0.9984387246196805</v>
+      </c>
+      <c r="T28">
+        <v>0.9998787603832425</v>
+      </c>
+      <c r="U28">
+        <v>0.999650366311005</v>
+      </c>
+      <c r="V28">
+        <v>1.0003773513258</v>
+      </c>
+      <c r="W28">
+        <v>0.9996855691684554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000774120265103</v>
+      </c>
+      <c r="D29">
+        <v>1.004119329270528</v>
+      </c>
+      <c r="E29">
+        <v>1.004119329270528</v>
+      </c>
+      <c r="F29">
+        <v>0.9988924147000446</v>
+      </c>
+      <c r="G29">
+        <v>0.9973919677866772</v>
+      </c>
+      <c r="H29">
+        <v>0.9973919677866772</v>
+      </c>
+      <c r="I29">
+        <v>0.9973919677866772</v>
+      </c>
+      <c r="J29">
+        <v>0.9984627789522521</v>
+      </c>
+      <c r="K29">
+        <v>1.000880459091323</v>
+      </c>
+      <c r="L29">
+        <v>0.9990133561203082</v>
+      </c>
+      <c r="M29">
+        <v>1.002664968135265</v>
+      </c>
+      <c r="N29">
+        <v>0.9973919677866772</v>
+      </c>
+      <c r="O29">
+        <v>0.9988924147000446</v>
+      </c>
+      <c r="P29">
+        <v>1.001505871985286</v>
+      </c>
+      <c r="Q29">
+        <v>0.999886436895684</v>
+      </c>
+      <c r="R29">
+        <v>1.00013457058575</v>
+      </c>
+      <c r="S29">
+        <v>1.001297401020632</v>
+      </c>
+      <c r="T29">
+        <v>1.00013457058575</v>
+      </c>
+      <c r="U29">
+        <v>1.000321042712143</v>
+      </c>
+      <c r="V29">
+        <v>0.9997352277270501</v>
+      </c>
+      <c r="W29">
+        <v>1.000274924290188</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9965812012546538</v>
+        <v>0.9987235648503653</v>
       </c>
       <c r="D4">
-        <v>0.9831429396149511</v>
+        <v>0.9933608368534126</v>
       </c>
       <c r="E4">
-        <v>0.9831429396149511</v>
+        <v>0.9933608368534126</v>
       </c>
       <c r="F4">
-        <v>1.00414022037945</v>
+        <v>1.001740097358832</v>
       </c>
       <c r="G4">
-        <v>1.011369674870655</v>
+        <v>1.004283342140853</v>
       </c>
       <c r="H4">
-        <v>1.011369674870655</v>
+        <v>1.004283342140853</v>
       </c>
       <c r="I4">
-        <v>1.011369674870655</v>
+        <v>1.004283342140853</v>
       </c>
       <c r="J4">
-        <v>1.006249414960465</v>
+        <v>1.002472825851706</v>
       </c>
       <c r="K4">
-        <v>0.9963733705518772</v>
+        <v>0.998578229875188</v>
       </c>
       <c r="L4">
-        <v>1.004255400911772</v>
+        <v>1.001615174615877</v>
       </c>
       <c r="M4">
-        <v>0.9890266226933163</v>
+        <v>0.9956970837984677</v>
       </c>
       <c r="N4">
-        <v>1.011369674870655</v>
+        <v>1.004283342140853</v>
       </c>
       <c r="O4">
-        <v>1.00414022037945</v>
+        <v>1.001740097358832</v>
       </c>
       <c r="P4">
-        <v>0.9936415799972005</v>
+        <v>0.9975504671061223</v>
       </c>
       <c r="Q4">
-        <v>1.000256795465664</v>
+        <v>1.00015916361701</v>
       </c>
       <c r="R4">
-        <v>0.9995509449550185</v>
+        <v>0.999794758784366</v>
       </c>
       <c r="S4">
-        <v>0.9945521768487594</v>
+        <v>0.9978930546958109</v>
       </c>
       <c r="T4">
-        <v>0.9995509449550185</v>
+        <v>0.999794758784366</v>
       </c>
       <c r="U4">
-        <v>0.9987565513542332</v>
+        <v>0.9994906265570714</v>
       </c>
       <c r="V4">
-        <v>1.001279176057518</v>
+        <v>1.000449169673828</v>
       </c>
       <c r="W4">
-        <v>0.9988923556546424</v>
+        <v>0.9995588944180878</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.998349011556195</v>
+        <v>0.9907699065134217</v>
       </c>
       <c r="D5">
-        <v>0.9914525285230538</v>
+        <v>0.9530618654558333</v>
       </c>
       <c r="E5">
-        <v>0.9914525285230538</v>
+        <v>0.9530618654558333</v>
       </c>
       <c r="F5">
-        <v>1.002228280821326</v>
+        <v>1.011980676808464</v>
       </c>
       <c r="G5">
-        <v>1.00553580334294</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="H5">
-        <v>1.00553580334294</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="I5">
-        <v>1.00553580334294</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="J5">
-        <v>1.003182337982707</v>
+        <v>1.017448854365247</v>
       </c>
       <c r="K5">
-        <v>0.9981688476440891</v>
+        <v>0.9899289138613399</v>
       </c>
       <c r="L5">
-        <v>1.002086082319885</v>
+        <v>1.011597791386054</v>
       </c>
       <c r="M5">
-        <v>0.994458213753602</v>
+        <v>0.9695231740740649</v>
       </c>
       <c r="N5">
-        <v>1.00553580334294</v>
+        <v>1.030854500742276</v>
       </c>
       <c r="O5">
-        <v>1.002228280821326</v>
+        <v>1.011980676808464</v>
       </c>
       <c r="P5">
-        <v>0.9968404046721897</v>
+        <v>0.9825212711321489</v>
       </c>
       <c r="Q5">
-        <v>1.000198564232707</v>
+        <v>1.000954795334902</v>
       </c>
       <c r="R5">
-        <v>0.9997388708957731</v>
+        <v>0.9986323476688579</v>
       </c>
       <c r="S5">
-        <v>0.9972832189961561</v>
+        <v>0.9849904853752126</v>
       </c>
       <c r="T5">
-        <v>0.9997388708957731</v>
+        <v>0.9986323476688579</v>
       </c>
       <c r="U5">
-        <v>0.999346365082852</v>
+        <v>0.9964564892169784</v>
       </c>
       <c r="V5">
-        <v>1.00058425273487</v>
+        <v>1.003336091522038</v>
       </c>
       <c r="W5">
-        <v>0.9994326382429748</v>
+        <v>0.9968957104008376</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9948832347111762</v>
+        <v>0.9965812012546538</v>
       </c>
       <c r="D6">
-        <v>0.9730129517960344</v>
+        <v>0.9831429396149511</v>
       </c>
       <c r="E6">
-        <v>0.9730129517960344</v>
+        <v>0.9831429396149511</v>
       </c>
       <c r="F6">
-        <v>1.007185258318714</v>
+        <v>1.00414022037945</v>
       </c>
       <c r="G6">
-        <v>1.017211827333638</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="H6">
-        <v>1.017211827333638</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="I6">
-        <v>1.017211827333638</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="J6">
-        <v>1.010063366653892</v>
+        <v>1.006249414960465</v>
       </c>
       <c r="K6">
-        <v>0.9942274877740762</v>
+        <v>0.9963733705518772</v>
       </c>
       <c r="L6">
-        <v>1.00650315789191</v>
+        <v>1.004255400911772</v>
       </c>
       <c r="M6">
-        <v>0.9825287932593713</v>
+        <v>0.9890266226933163</v>
       </c>
       <c r="N6">
-        <v>1.017211827333638</v>
+        <v>1.011369674870655</v>
       </c>
       <c r="O6">
-        <v>1.007185258318714</v>
+        <v>1.00414022037945</v>
       </c>
       <c r="P6">
-        <v>0.990099105057374</v>
+        <v>0.9936415799972005</v>
       </c>
       <c r="Q6">
-        <v>1.000706373046395</v>
+        <v>1.000256795465664</v>
       </c>
       <c r="R6">
-        <v>0.999136679149462</v>
+        <v>0.9995509449550185</v>
       </c>
       <c r="S6">
-        <v>0.991475232629608</v>
+        <v>0.9945521768487594</v>
       </c>
       <c r="T6">
-        <v>0.999136679149462</v>
+        <v>0.9995509449550185</v>
       </c>
       <c r="U6">
-        <v>0.9979093813056156</v>
+        <v>0.9987565513542332</v>
       </c>
       <c r="V6">
-        <v>1.00176987051122</v>
+        <v>1.001279176057518</v>
       </c>
       <c r="W6">
-        <v>0.9982020097173514</v>
+        <v>0.9988923556546424</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997957132591669</v>
+        <v>0.998349011556195</v>
       </c>
       <c r="D7">
-        <v>0.9990108311788811</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="E7">
-        <v>0.9990108311788811</v>
+        <v>0.9914525285230538</v>
       </c>
       <c r="F7">
-        <v>1.000237207864998</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="G7">
-        <v>1.000677372557657</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="H7">
-        <v>1.000677372557657</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="I7">
-        <v>1.000677372557657</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="J7">
-        <v>1.00036611032502</v>
+        <v>1.003182337982707</v>
       </c>
       <c r="K7">
-        <v>0.9997868439984702</v>
+        <v>0.9981688476440891</v>
       </c>
       <c r="L7">
-        <v>1.000252894217981</v>
+        <v>1.002086082319885</v>
       </c>
       <c r="M7">
-        <v>0.9993550911361692</v>
+        <v>0.994458213753602</v>
       </c>
       <c r="N7">
-        <v>1.000677372557657</v>
+        <v>1.00553580334294</v>
       </c>
       <c r="O7">
-        <v>1.000237207864998</v>
+        <v>1.002228280821326</v>
       </c>
       <c r="P7">
-        <v>0.9996240195219397</v>
+        <v>0.9968404046721897</v>
       </c>
       <c r="Q7">
-        <v>1.000012025931734</v>
+        <v>1.000198564232707</v>
       </c>
       <c r="R7">
-        <v>0.9999751372005123</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="S7">
-        <v>0.9996782943474498</v>
+        <v>0.9972832189961561</v>
       </c>
       <c r="T7">
-        <v>0.9999751372005123</v>
+        <v>0.9997388708957731</v>
       </c>
       <c r="U7">
-        <v>0.9999280639000018</v>
+        <v>0.999346365082852</v>
       </c>
       <c r="V7">
-        <v>1.000077925631533</v>
+        <v>1.00058425273487</v>
       </c>
       <c r="W7">
-        <v>0.9999352580672931</v>
+        <v>0.9994326382429748</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999879168459971</v>
+        <v>0.9948832347111762</v>
       </c>
       <c r="D8">
-        <v>0.9999317861632683</v>
+        <v>0.9730129517960344</v>
       </c>
       <c r="E8">
-        <v>0.9999317861632683</v>
+        <v>0.9730129517960344</v>
       </c>
       <c r="F8">
-        <v>1.000019487910565</v>
+        <v>1.007185258318714</v>
       </c>
       <c r="G8">
-        <v>1.000041146109208</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="H8">
-        <v>1.000041146109208</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="I8">
-        <v>1.000041146109208</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="J8">
-        <v>1.000025573822092</v>
+        <v>1.010063366653892</v>
       </c>
       <c r="K8">
-        <v>0.9999854882895702</v>
+        <v>0.9942274877740762</v>
       </c>
       <c r="L8">
-        <v>1.000015700295048</v>
+        <v>1.00650315789191</v>
       </c>
       <c r="M8">
-        <v>0.9999560698430136</v>
+        <v>0.9825287932593713</v>
       </c>
       <c r="N8">
-        <v>1.000041146109208</v>
+        <v>1.017211827333638</v>
       </c>
       <c r="O8">
-        <v>1.000019487910565</v>
+        <v>1.007185258318714</v>
       </c>
       <c r="P8">
-        <v>0.9999756370369168</v>
+        <v>0.990099105057374</v>
       </c>
       <c r="Q8">
-        <v>1.000002488100068</v>
+        <v>1.000706373046395</v>
       </c>
       <c r="R8">
-        <v>0.9999974733943472</v>
+        <v>0.999136679149462</v>
       </c>
       <c r="S8">
-        <v>0.9999789207878013</v>
+        <v>0.991475232629608</v>
       </c>
       <c r="T8">
-        <v>0.9999974733943472</v>
+        <v>0.999136679149462</v>
       </c>
       <c r="U8">
-        <v>0.9999944771181529</v>
+        <v>0.9979093813056156</v>
       </c>
       <c r="V8">
-        <v>1.000003810916364</v>
+        <v>1.00176987051122</v>
       </c>
       <c r="W8">
-        <v>0.9999953961598453</v>
+        <v>0.9982020097173514</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9996975528352813</v>
+        <v>0.9997957132591669</v>
       </c>
       <c r="D9">
-        <v>0.998546719016661</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="E9">
-        <v>0.998546719016661</v>
+        <v>0.9990108311788811</v>
       </c>
       <c r="F9">
-        <v>1.000344892188404</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="G9">
-        <v>1.001001613777368</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="H9">
-        <v>1.001001613777368</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="I9">
-        <v>1.001001613777368</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="J9">
-        <v>1.000537508387025</v>
+        <v>1.00036611032502</v>
       </c>
       <c r="K9">
-        <v>0.9996866164634162</v>
+        <v>0.9997868439984702</v>
       </c>
       <c r="L9">
-        <v>1.000373558623191</v>
+        <v>1.000252894217981</v>
       </c>
       <c r="M9">
-        <v>0.999051878810861</v>
+        <v>0.9993550911361692</v>
       </c>
       <c r="N9">
-        <v>1.001001613777368</v>
+        <v>1.000677372557657</v>
       </c>
       <c r="O9">
-        <v>1.000344892188404</v>
+        <v>1.000237207864998</v>
       </c>
       <c r="P9">
-        <v>0.9994458056025327</v>
+        <v>0.9996240195219397</v>
       </c>
       <c r="Q9">
-        <v>1.00001575432591</v>
+        <v>1.000012025931734</v>
       </c>
       <c r="R9">
-        <v>0.9999644083274779</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="S9">
-        <v>0.9995260758894938</v>
+        <v>0.9996782943474498</v>
       </c>
       <c r="T9">
-        <v>0.9999644083274779</v>
+        <v>0.9999751372005123</v>
       </c>
       <c r="U9">
-        <v>0.9998949603614624</v>
+        <v>0.9999280639000018</v>
       </c>
       <c r="V9">
-        <v>1.000116291044644</v>
+        <v>1.000077925631533</v>
       </c>
       <c r="W9">
-        <v>0.999905042512776</v>
+        <v>0.9999352580672931</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9948107766650727</v>
+        <v>0.9999879168459971</v>
       </c>
       <c r="D10">
-        <v>0.9726069026362534</v>
+        <v>0.9999317861632683</v>
       </c>
       <c r="E10">
-        <v>0.9726069026362534</v>
+        <v>0.9999317861632683</v>
       </c>
       <c r="F10">
-        <v>1.007300445360399</v>
+        <v>1.000019487910565</v>
       </c>
       <c r="G10">
-        <v>1.017458217451366</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="H10">
-        <v>1.017458217451366</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="I10">
-        <v>1.017458217451366</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="J10">
-        <v>1.010215523318169</v>
+        <v>1.000025573822092</v>
       </c>
       <c r="K10">
-        <v>0.9941410599717152</v>
+        <v>0.9999854882895702</v>
       </c>
       <c r="L10">
-        <v>1.006597072613483</v>
+        <v>1.000015700295048</v>
       </c>
       <c r="M10">
-        <v>0.9822671456973504</v>
+        <v>0.9999560698430136</v>
       </c>
       <c r="N10">
-        <v>1.017458217451366</v>
+        <v>1.000041146109208</v>
       </c>
       <c r="O10">
-        <v>1.007300445360399</v>
+        <v>1.000019487910565</v>
       </c>
       <c r="P10">
-        <v>0.989953673998326</v>
+        <v>0.9999756370369168</v>
       </c>
       <c r="Q10">
-        <v>1.000720752666057</v>
+        <v>1.000002488100068</v>
       </c>
       <c r="R10">
-        <v>0.9991218551493395</v>
+        <v>0.9999974733943472</v>
       </c>
       <c r="S10">
-        <v>0.9913494693227891</v>
+        <v>0.9999789207878013</v>
       </c>
       <c r="T10">
-        <v>0.9991218551493395</v>
+        <v>0.9999974733943472</v>
       </c>
       <c r="U10">
-        <v>0.9978766563549334</v>
+        <v>0.9999944771181529</v>
       </c>
       <c r="V10">
-        <v>1.00179296857422</v>
+        <v>1.000003810916364</v>
       </c>
       <c r="W10">
-        <v>0.998174642964226</v>
+        <v>0.9999953961598453</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9965757517567705</v>
+        <v>0.9996975528352813</v>
       </c>
       <c r="D11">
-        <v>0.9831499449866594</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="E11">
-        <v>0.9831499449866594</v>
+        <v>0.998546719016661</v>
       </c>
       <c r="F11">
-        <v>1.004127767387964</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="G11">
-        <v>1.011384032606122</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="H11">
-        <v>1.011384032606122</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="I11">
-        <v>1.011384032606122</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="J11">
-        <v>1.006245690980378</v>
+        <v>1.000537508387025</v>
       </c>
       <c r="K11">
-        <v>0.9963742316250205</v>
+        <v>0.9996866164634162</v>
       </c>
       <c r="L11">
-        <v>1.004259595390406</v>
+        <v>1.000373558623191</v>
       </c>
       <c r="M11">
-        <v>0.9890293241887403</v>
+        <v>0.999051878810861</v>
       </c>
       <c r="N11">
-        <v>1.011384032606122</v>
+        <v>1.001001613777368</v>
       </c>
       <c r="O11">
-        <v>1.004127767387964</v>
+        <v>1.000344892188404</v>
       </c>
       <c r="P11">
-        <v>0.9936388561873115</v>
+        <v>0.9994458056025327</v>
       </c>
       <c r="Q11">
-        <v>1.000250999506492</v>
+        <v>1.00001575432591</v>
       </c>
       <c r="R11">
-        <v>0.9995539149935816</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="S11">
-        <v>0.9945506479998811</v>
+        <v>0.9995260758894938</v>
       </c>
       <c r="T11">
-        <v>0.9995539149935816</v>
+        <v>0.9999644083274779</v>
       </c>
       <c r="U11">
-        <v>0.9987589941514413</v>
+        <v>0.9998949603614624</v>
       </c>
       <c r="V11">
-        <v>1.001284001842377</v>
+        <v>1.000116291044644</v>
       </c>
       <c r="W11">
-        <v>0.9988932923652576</v>
+        <v>0.999905042512776</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9983395578736858</v>
+        <v>0.9948107766650727</v>
       </c>
       <c r="D12">
-        <v>0.9912465098105273</v>
+        <v>0.9726069026362534</v>
       </c>
       <c r="E12">
-        <v>0.9912465098105273</v>
+        <v>0.9726069026362534</v>
       </c>
       <c r="F12">
-        <v>1.002329394905262</v>
+        <v>1.007300445360399</v>
       </c>
       <c r="G12">
-        <v>1.005584956484215</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="H12">
-        <v>1.005584956484215</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="I12">
-        <v>1.005584956484215</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="J12">
-        <v>1.003264016357894</v>
+        <v>1.010215523318169</v>
       </c>
       <c r="K12">
-        <v>0.998127562263153</v>
+        <v>0.9941410599717152</v>
       </c>
       <c r="L12">
-        <v>1.002110024989476</v>
+        <v>1.006597072613483</v>
       </c>
       <c r="M12">
-        <v>0.9943328499052629</v>
+        <v>0.9822671456973504</v>
       </c>
       <c r="N12">
-        <v>1.005584956484215</v>
+        <v>1.017458217451366</v>
       </c>
       <c r="O12">
-        <v>1.002329394905262</v>
+        <v>1.007300445360399</v>
       </c>
       <c r="P12">
-        <v>0.9967879523578946</v>
+        <v>0.989953673998326</v>
       </c>
       <c r="Q12">
-        <v>1.000228478584207</v>
+        <v>1.000720752666057</v>
       </c>
       <c r="R12">
-        <v>0.9997202870666682</v>
+        <v>0.9991218551493395</v>
       </c>
       <c r="S12">
-        <v>0.9972344889929808</v>
+        <v>0.9913494693227891</v>
       </c>
       <c r="T12">
-        <v>0.9997202870666682</v>
+        <v>0.9991218551493395</v>
       </c>
       <c r="U12">
-        <v>0.9993221058657894</v>
+        <v>0.9978766563549334</v>
       </c>
       <c r="V12">
-        <v>1.000574675989474</v>
+        <v>1.00179296857422</v>
       </c>
       <c r="W12">
-        <v>0.9994168590736845</v>
+        <v>0.998174642964226</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001055582733877</v>
+        <v>0.9965757517567705</v>
       </c>
       <c r="D13">
-        <v>1.005336038739903</v>
+        <v>0.9831499449866594</v>
       </c>
       <c r="E13">
-        <v>1.005336038739903</v>
+        <v>0.9831499449866594</v>
       </c>
       <c r="F13">
-        <v>0.9986478232009189</v>
+        <v>1.004127767387964</v>
       </c>
       <c r="G13">
-        <v>0.9964749376637032</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="H13">
-        <v>0.9964749376637032</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="I13">
-        <v>0.9964749376637032</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="J13">
-        <v>0.9980173988641796</v>
+        <v>1.006245690980378</v>
       </c>
       <c r="K13">
-        <v>1.00114549624763</v>
+        <v>0.9963742316250205</v>
       </c>
       <c r="L13">
-        <v>0.9986760805681622</v>
+        <v>1.004259595390406</v>
       </c>
       <c r="M13">
-        <v>1.003466380863516</v>
+        <v>0.9890293241887403</v>
       </c>
       <c r="N13">
-        <v>0.9964749376637032</v>
+        <v>1.011384032606122</v>
       </c>
       <c r="O13">
-        <v>0.9986478232009189</v>
+        <v>1.004127767387964</v>
       </c>
       <c r="P13">
-        <v>1.001991930970411</v>
+        <v>0.9936388561873115</v>
       </c>
       <c r="Q13">
-        <v>0.9998966597242744</v>
+        <v>1.000250999506492</v>
       </c>
       <c r="R13">
-        <v>1.000152933201508</v>
+        <v>0.9995539149935816</v>
       </c>
       <c r="S13">
-        <v>1.001709786062817</v>
+        <v>0.9945506479998811</v>
       </c>
       <c r="T13">
-        <v>1.000152933201508</v>
+        <v>0.9995539149935816</v>
       </c>
       <c r="U13">
-        <v>1.000401073963039</v>
+        <v>0.9987589941514413</v>
       </c>
       <c r="V13">
-        <v>0.9996158467031717</v>
+        <v>1.001284001842377</v>
       </c>
       <c r="W13">
-        <v>1.000352467360236</v>
+        <v>0.9988932923652576</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9910433000000007</v>
+        <v>0.9983395578736858</v>
       </c>
       <c r="D14">
-        <v>0.9526597999999998</v>
+        <v>0.9912465098105273</v>
       </c>
       <c r="E14">
-        <v>0.9526597999999998</v>
+        <v>0.9912465098105273</v>
       </c>
       <c r="F14">
-        <v>1.012634</v>
+        <v>1.002329394905262</v>
       </c>
       <c r="G14">
-        <v>1.0301398</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="H14">
-        <v>1.0301398</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="I14">
-        <v>1.0301398</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="J14">
-        <v>1.017656099999998</v>
+        <v>1.003264016357894</v>
       </c>
       <c r="K14">
-        <v>0.9898757500000008</v>
+        <v>0.998127562263153</v>
       </c>
       <c r="L14">
-        <v>1.0113912</v>
+        <v>1.002110024989476</v>
       </c>
       <c r="M14">
-        <v>0.9693574699999995</v>
+        <v>0.9943328499052629</v>
       </c>
       <c r="N14">
-        <v>1.0301398</v>
+        <v>1.005584956484215</v>
       </c>
       <c r="O14">
-        <v>1.012634</v>
+        <v>1.002329394905262</v>
       </c>
       <c r="P14">
-        <v>0.9826468999999998</v>
+        <v>0.9967879523578946</v>
       </c>
       <c r="Q14">
-        <v>1.001254875</v>
+        <v>1.000228478584207</v>
       </c>
       <c r="R14">
-        <v>0.9984778666666667</v>
+        <v>0.9997202870666682</v>
       </c>
       <c r="S14">
-        <v>0.9850565166666668</v>
+        <v>0.9972344889929808</v>
       </c>
       <c r="T14">
-        <v>0.9984778666666667</v>
+        <v>0.9997202870666682</v>
       </c>
       <c r="U14">
-        <v>0.9963273375000002</v>
+        <v>0.9993221058657894</v>
       </c>
       <c r="V14">
-        <v>1.00308983</v>
+        <v>1.000574675989474</v>
       </c>
       <c r="W14">
-        <v>0.9968446774999998</v>
+        <v>0.9994168590736845</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9905238300000001</v>
+        <v>1.001055582733877</v>
       </c>
       <c r="D15">
-        <v>0.95342761</v>
+        <v>1.005336038739903</v>
       </c>
       <c r="E15">
-        <v>0.95342761</v>
+        <v>1.005336038739903</v>
       </c>
       <c r="F15">
-        <v>1.0113904</v>
+        <v>0.9986478232009189</v>
       </c>
       <c r="G15">
-        <v>1.0314974</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="H15">
-        <v>1.0314974</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="I15">
-        <v>1.0314974</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="J15">
-        <v>1.0172607</v>
+        <v>0.9980173988641796</v>
       </c>
       <c r="K15">
-        <v>0.9899775200000001</v>
+        <v>1.00114549624763</v>
       </c>
       <c r="L15">
-        <v>1.0117835</v>
+        <v>0.9986760805681622</v>
       </c>
       <c r="M15">
-        <v>0.9696746199999999</v>
+        <v>1.003466380863516</v>
       </c>
       <c r="N15">
-        <v>1.0314974</v>
+        <v>0.9964749376637032</v>
       </c>
       <c r="O15">
-        <v>1.0113904</v>
+        <v>0.9986478232009189</v>
       </c>
       <c r="P15">
-        <v>0.9824090050000001</v>
+        <v>1.001991930970411</v>
       </c>
       <c r="Q15">
-        <v>1.00068396</v>
+        <v>0.9998966597242744</v>
       </c>
       <c r="R15">
-        <v>0.9987718033333334</v>
+        <v>1.000152933201508</v>
       </c>
       <c r="S15">
-        <v>0.9849318433333334</v>
+        <v>1.001709786062817</v>
       </c>
       <c r="T15">
-        <v>0.9987718033333334</v>
+        <v>1.000152933201508</v>
       </c>
       <c r="U15">
-        <v>0.9965732325000001</v>
+        <v>1.000401073963039</v>
       </c>
       <c r="V15">
-        <v>1.003558066</v>
+        <v>0.9996158467031717</v>
       </c>
       <c r="W15">
-        <v>0.9969419475000001</v>
+        <v>1.000352467360236</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.97462952</v>
+        <v>0.9910433000000007</v>
       </c>
       <c r="D16">
-        <v>0.8759446600000002</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="E16">
-        <v>0.8759446600000002</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="F16">
+        <v>1.012634</v>
+      </c>
+      <c r="G16">
         <v>1.0301398</v>
       </c>
-      <c r="G16">
-        <v>1.0842575</v>
-      </c>
       <c r="H16">
-        <v>1.0842575</v>
+        <v>1.0301398</v>
       </c>
       <c r="I16">
-        <v>1.0842575</v>
+        <v>1.0301398</v>
       </c>
       <c r="J16">
-        <v>1.0459565</v>
+        <v>1.017656099999998</v>
       </c>
       <c r="K16">
-        <v>0.9732909399999999</v>
+        <v>0.9898757500000008</v>
       </c>
       <c r="L16">
-        <v>1.0314994</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>0.91918716</v>
+        <v>0.9693574699999995</v>
       </c>
       <c r="N16">
-        <v>1.0842575</v>
+        <v>1.0301398</v>
       </c>
       <c r="O16">
-        <v>1.0301398</v>
+        <v>1.012634</v>
       </c>
       <c r="P16">
-        <v>0.9530422300000001</v>
+        <v>0.9826468999999998</v>
       </c>
       <c r="Q16">
-        <v>1.00171537</v>
+        <v>1.001254875</v>
       </c>
       <c r="R16">
-        <v>0.9967806533333334</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="S16">
-        <v>0.9597918000000001</v>
+        <v>0.9850565166666668</v>
       </c>
       <c r="T16">
-        <v>0.9967806533333334</v>
+        <v>0.9984778666666667</v>
       </c>
       <c r="U16">
-        <v>0.9909082250000001</v>
+        <v>0.9963273375000002</v>
       </c>
       <c r="V16">
-        <v>1.00957808</v>
+        <v>1.00308983</v>
       </c>
       <c r="W16">
-        <v>0.9918631849999999</v>
+        <v>0.9968446774999998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99958158</v>
+        <v>0.9905238300000001</v>
       </c>
       <c r="D17">
-        <v>0.99683551</v>
+        <v>0.95342761</v>
       </c>
       <c r="E17">
-        <v>0.99683551</v>
+        <v>0.95342761</v>
       </c>
       <c r="F17">
-        <v>1.0011262</v>
+        <v>1.0113904</v>
       </c>
       <c r="G17">
-        <v>1.0015139</v>
+        <v>1.0314974</v>
       </c>
       <c r="H17">
-        <v>1.0015139</v>
+        <v>1.0314974</v>
       </c>
       <c r="I17">
-        <v>1.0015139</v>
+        <v>1.0314974</v>
       </c>
       <c r="J17">
-        <v>1.0012098</v>
+        <v>1.0172607</v>
       </c>
       <c r="K17">
-        <v>0.99934017</v>
+        <v>0.9899775200000001</v>
       </c>
       <c r="L17">
-        <v>1.0006049</v>
+        <v>1.0117835</v>
       </c>
       <c r="M17">
-        <v>0.99800046</v>
+        <v>0.9696746199999999</v>
       </c>
       <c r="N17">
-        <v>1.0015139</v>
+        <v>1.0314974</v>
       </c>
       <c r="O17">
-        <v>1.0011262</v>
+        <v>1.0113904</v>
       </c>
       <c r="P17">
-        <v>0.9989808550000001</v>
+        <v>0.9824090050000001</v>
       </c>
       <c r="Q17">
-        <v>1.000233185</v>
+        <v>1.00068396</v>
       </c>
       <c r="R17">
-        <v>0.9998252033333334</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="S17">
-        <v>0.9991006266666668</v>
+        <v>0.9849318433333334</v>
       </c>
       <c r="T17">
-        <v>0.9998252033333334</v>
+        <v>0.9987718033333334</v>
       </c>
       <c r="U17">
-        <v>0.999703945</v>
+        <v>0.9965732325000001</v>
       </c>
       <c r="V17">
-        <v>1.000065936</v>
+        <v>1.003558066</v>
       </c>
       <c r="W17">
-        <v>0.9997765649999999</v>
+        <v>0.9969419475000001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9962895141095889</v>
+        <v>0.97462952</v>
       </c>
       <c r="D18">
-        <v>0.9822466420547942</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="E18">
-        <v>0.9822466420547942</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="F18">
-        <v>1.00418862739726</v>
+        <v>1.0301398</v>
       </c>
       <c r="G18">
-        <v>1.012279506849315</v>
+        <v>1.0842575</v>
       </c>
       <c r="H18">
-        <v>1.012279506849315</v>
+        <v>1.0842575</v>
       </c>
       <c r="I18">
-        <v>1.012279506849315</v>
+        <v>1.0842575</v>
       </c>
       <c r="J18">
-        <v>1.006563667123288</v>
+        <v>1.0459565</v>
       </c>
       <c r="K18">
-        <v>0.9961702136986296</v>
+        <v>0.9732909399999999</v>
       </c>
       <c r="L18">
-        <v>1.004577079726027</v>
+        <v>1.0314994</v>
       </c>
       <c r="M18">
-        <v>0.9884134238356164</v>
+        <v>0.91918716</v>
       </c>
       <c r="N18">
-        <v>1.012279506849315</v>
+        <v>1.0842575</v>
       </c>
       <c r="O18">
-        <v>1.00418862739726</v>
+        <v>1.0301398</v>
       </c>
       <c r="P18">
-        <v>0.9932176347260272</v>
+        <v>0.9530422300000001</v>
       </c>
       <c r="Q18">
-        <v>1.000179420547945</v>
+        <v>1.00171537</v>
       </c>
       <c r="R18">
-        <v>0.9995715921004565</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="S18">
-        <v>0.9942018277168946</v>
+        <v>0.9597918000000001</v>
       </c>
       <c r="T18">
-        <v>0.9995715921004565</v>
+        <v>0.9967806533333334</v>
       </c>
       <c r="U18">
-        <v>0.9987212474999998</v>
+        <v>0.9909082250000001</v>
       </c>
       <c r="V18">
-        <v>1.001432899369863</v>
+        <v>1.00957808</v>
       </c>
       <c r="W18">
-        <v>0.998841084349315</v>
+        <v>0.9918631849999999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.995811497368421</v>
+        <v>0.99958158</v>
       </c>
       <c r="D19">
-        <v>0.9788244557894736</v>
+        <v>0.99683551</v>
       </c>
       <c r="E19">
-        <v>0.9788244557894736</v>
+        <v>0.99683551</v>
       </c>
       <c r="F19">
-        <v>1.005366695789474</v>
+        <v>1.0011262</v>
       </c>
       <c r="G19">
-        <v>1.013987572631579</v>
+        <v>1.0015139</v>
       </c>
       <c r="H19">
-        <v>1.013987572631579</v>
+        <v>1.0015139</v>
       </c>
       <c r="I19">
-        <v>1.013987572631579</v>
+        <v>1.0015139</v>
       </c>
       <c r="J19">
-        <v>1.00786781368421</v>
+        <v>1.0012098</v>
       </c>
       <c r="K19">
-        <v>0.9954542615789473</v>
+        <v>0.99934017</v>
       </c>
       <c r="L19">
-        <v>1.005253425789474</v>
+        <v>1.0006049</v>
       </c>
       <c r="M19">
-        <v>0.9862441536842105</v>
+        <v>0.99800046</v>
       </c>
       <c r="N19">
-        <v>1.013987572631579</v>
+        <v>1.0015139</v>
       </c>
       <c r="O19">
-        <v>1.005366695789474</v>
+        <v>1.0011262</v>
       </c>
       <c r="P19">
-        <v>0.9920955757894736</v>
+        <v>0.9989808550000001</v>
       </c>
       <c r="Q19">
-        <v>1.000410478684211</v>
+        <v>1.000233185</v>
       </c>
       <c r="R19">
-        <v>0.9993929080701754</v>
+        <v>0.9998252033333334</v>
       </c>
       <c r="S19">
-        <v>0.9932151377192983</v>
+        <v>0.9991006266666668</v>
       </c>
       <c r="T19">
-        <v>0.9993929080701754</v>
+        <v>0.9998252033333334</v>
       </c>
       <c r="U19">
-        <v>0.9984082464473685</v>
+        <v>0.999703945</v>
       </c>
       <c r="V19">
-        <v>1.001524111684211</v>
+        <v>1.000065936</v>
       </c>
       <c r="W19">
-        <v>0.9986012345394737</v>
+        <v>0.9997765649999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9907832736842104</v>
+        <v>0.9962895141095889</v>
       </c>
       <c r="D20">
-        <v>0.9530422889473685</v>
+        <v>0.9822466420547942</v>
       </c>
       <c r="E20">
-        <v>0.9530422889473685</v>
+        <v>0.9822466420547942</v>
       </c>
       <c r="F20">
-        <v>1.01201257368421</v>
+        <v>1.00418862739726</v>
       </c>
       <c r="G20">
-        <v>1.030819547368421</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="H20">
-        <v>1.030819547368421</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="I20">
-        <v>1.030819547368421</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="J20">
-        <v>1.017458952631579</v>
+        <v>1.006563667123288</v>
       </c>
       <c r="K20">
-        <v>0.989926330526316</v>
+        <v>0.9961702136986296</v>
       </c>
       <c r="L20">
-        <v>1.011587684210526</v>
+        <v>1.004577079726027</v>
       </c>
       <c r="M20">
-        <v>0.9695151210526316</v>
+        <v>0.9884134238356164</v>
       </c>
       <c r="N20">
-        <v>1.030819547368421</v>
+        <v>1.012279506849315</v>
       </c>
       <c r="O20">
-        <v>1.01201257368421</v>
+        <v>1.00418862739726</v>
       </c>
       <c r="P20">
-        <v>0.9825274313157895</v>
+        <v>0.9932176347260272</v>
       </c>
       <c r="Q20">
-        <v>1.000969452105263</v>
+        <v>1.000179420547945</v>
       </c>
       <c r="R20">
-        <v>0.9986248033333333</v>
+        <v>0.9995715921004565</v>
       </c>
       <c r="S20">
-        <v>0.9849937310526317</v>
+        <v>0.9942018277168946</v>
       </c>
       <c r="T20">
-        <v>0.9986248033333333</v>
+        <v>0.9995715921004565</v>
       </c>
       <c r="U20">
-        <v>0.996450185131579</v>
+        <v>0.9987212474999998</v>
       </c>
       <c r="V20">
-        <v>1.003324057578947</v>
+        <v>1.001432899369863</v>
       </c>
       <c r="W20">
-        <v>0.9968932215131578</v>
+        <v>0.998841084349315</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.007441711772527</v>
+        <v>0.995811497368421</v>
       </c>
       <c r="D21">
-        <v>1.037276530668762</v>
+        <v>0.9788244557894736</v>
       </c>
       <c r="E21">
-        <v>1.037276530668762</v>
+        <v>0.9788244557894736</v>
       </c>
       <c r="F21">
-        <v>0.9906596228118023</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="G21">
-        <v>0.9751867436385546</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="H21">
-        <v>0.9751867436385546</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="I21">
-        <v>0.9751867436385546</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="J21">
-        <v>0.9861610531467334</v>
+        <v>1.00786781368421</v>
       </c>
       <c r="K21">
-        <v>1.008008556739612</v>
+        <v>0.9954542615789473</v>
       </c>
       <c r="L21">
-        <v>0.9906926681573588</v>
+        <v>1.005253425789474</v>
       </c>
       <c r="M21">
-        <v>1.024233746948376</v>
+        <v>0.9862441536842105</v>
       </c>
       <c r="N21">
-        <v>0.9751867436385546</v>
+        <v>1.013987572631579</v>
       </c>
       <c r="O21">
-        <v>0.9906596228118023</v>
+        <v>1.005366695789474</v>
       </c>
       <c r="P21">
-        <v>1.013968076740282</v>
+        <v>0.9920955757894736</v>
       </c>
       <c r="Q21">
-        <v>0.9993340897757071</v>
+        <v>1.000410478684211</v>
       </c>
       <c r="R21">
-        <v>1.001040965706373</v>
+        <v>0.9993929080701754</v>
       </c>
       <c r="S21">
-        <v>1.011981570073392</v>
+        <v>0.9932151377192983</v>
       </c>
       <c r="T21">
-        <v>1.001040965706373</v>
+        <v>0.9993929080701754</v>
       </c>
       <c r="U21">
-        <v>1.002782863464683</v>
+        <v>0.9984082464473685</v>
       </c>
       <c r="V21">
-        <v>0.997263639499457</v>
+        <v>1.001524111684211</v>
       </c>
       <c r="W21">
-        <v>1.002457579235466</v>
+        <v>0.9986012345394737</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001994845059642</v>
+        <v>0.9907832736842104</v>
       </c>
       <c r="D22">
-        <v>1.009939348296659</v>
+        <v>0.9530422889473685</v>
       </c>
       <c r="E22">
-        <v>1.009939348296659</v>
+        <v>0.9530422889473685</v>
       </c>
       <c r="F22">
-        <v>0.9975260567333069</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="G22">
-        <v>0.9933544039901825</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="H22">
-        <v>0.9933544039901825</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="I22">
-        <v>0.9933544039901825</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="J22">
-        <v>0.996311742649718</v>
+        <v>1.017458952631579</v>
       </c>
       <c r="K22">
-        <v>1.002136381046184</v>
+        <v>0.989926330526316</v>
       </c>
       <c r="L22">
-        <v>0.9975091110789633</v>
+        <v>1.011587684210526</v>
       </c>
       <c r="M22">
-        <v>1.006464509285294</v>
+        <v>0.9695151210526316</v>
       </c>
       <c r="N22">
-        <v>0.9933544039901825</v>
+        <v>1.030819547368421</v>
       </c>
       <c r="O22">
-        <v>0.9975260567333069</v>
+        <v>1.01201257368421</v>
       </c>
       <c r="P22">
-        <v>1.003732702514983</v>
+        <v>0.9825274313157895</v>
       </c>
       <c r="Q22">
-        <v>0.9998312188897456</v>
+        <v>1.000969452105263</v>
       </c>
       <c r="R22">
-        <v>1.000273269673383</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="S22">
-        <v>1.003200595358717</v>
+        <v>0.9849937310526317</v>
       </c>
       <c r="T22">
-        <v>1.000273269673383</v>
+        <v>0.9986248033333333</v>
       </c>
       <c r="U22">
-        <v>1.000739047516583</v>
+        <v>0.996450185131579</v>
       </c>
       <c r="V22">
-        <v>0.9992621188113031</v>
+        <v>1.003324057578947</v>
       </c>
       <c r="W22">
-        <v>1.000654549767494</v>
+        <v>0.9968932215131578</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.002229878678296</v>
+        <v>1.007441711772527</v>
       </c>
       <c r="D23">
-        <v>1.012133338937324</v>
+        <v>1.037276530668762</v>
       </c>
       <c r="E23">
-        <v>1.012133338937324</v>
+        <v>1.037276530668762</v>
       </c>
       <c r="F23">
-        <v>0.9966591779567736</v>
+        <v>0.9906596228118023</v>
       </c>
       <c r="G23">
-        <v>0.9924577542342169</v>
+        <v>0.9751867436385546</v>
       </c>
       <c r="H23">
-        <v>0.9924577542342169</v>
+        <v>0.9751867436385546</v>
       </c>
       <c r="I23">
-        <v>0.9924577542342169</v>
+        <v>0.9751867436385546</v>
       </c>
       <c r="J23">
-        <v>0.995463930002616</v>
+        <v>0.9861610531467334</v>
       </c>
       <c r="K23">
-        <v>1.002588683326534</v>
+        <v>1.008008556739612</v>
       </c>
       <c r="L23">
-        <v>0.9971374900909714</v>
+        <v>0.9906926681573588</v>
       </c>
       <c r="M23">
-        <v>1.007835924722344</v>
+        <v>1.024233746948376</v>
       </c>
       <c r="N23">
-        <v>0.9924577542342169</v>
+        <v>0.9751867436385546</v>
       </c>
       <c r="O23">
-        <v>0.9966591779567736</v>
+        <v>0.9906596228118023</v>
       </c>
       <c r="P23">
-        <v>1.004396258447049</v>
+        <v>1.013968076740282</v>
       </c>
       <c r="Q23">
-        <v>0.9996239306416539</v>
+        <v>0.9993340897757071</v>
       </c>
       <c r="R23">
-        <v>1.000416757042771</v>
+        <v>1.001040965706373</v>
       </c>
       <c r="S23">
-        <v>1.003793733406877</v>
+        <v>1.011981570073392</v>
       </c>
       <c r="T23">
-        <v>1.000416757042771</v>
+        <v>1.001040965706373</v>
       </c>
       <c r="U23">
-        <v>1.000959738613712</v>
+        <v>1.002782863464683</v>
       </c>
       <c r="V23">
-        <v>0.9992593417378132</v>
+        <v>0.997263639499457</v>
       </c>
       <c r="W23">
-        <v>1.000813272243635</v>
+        <v>1.002457579235466</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000682027625203</v>
+        <v>1.001994845059642</v>
       </c>
       <c r="D24">
-        <v>1.002993557612761</v>
+        <v>1.009939348296659</v>
       </c>
       <c r="E24">
-        <v>1.002993557612761</v>
+        <v>1.009939348296659</v>
       </c>
       <c r="F24">
-        <v>0.9993817903805157</v>
+        <v>0.9975260567333069</v>
       </c>
       <c r="G24">
-        <v>0.9977728544845595</v>
+        <v>0.9933544039901825</v>
       </c>
       <c r="H24">
-        <v>0.9977728544845595</v>
+        <v>0.9933544039901825</v>
       </c>
       <c r="I24">
-        <v>0.9977728544845595</v>
+        <v>0.9933544039901825</v>
       </c>
       <c r="J24">
-        <v>0.9989024821036976</v>
+        <v>0.996311742649718</v>
       </c>
       <c r="K24">
-        <v>1.000651073466942</v>
+        <v>1.002136381046184</v>
       </c>
       <c r="L24">
-        <v>0.9991792842476804</v>
+        <v>0.9975091110789633</v>
       </c>
       <c r="M24">
-        <v>1.001968972279209</v>
+        <v>1.006464509285294</v>
       </c>
       <c r="N24">
-        <v>0.9977728544845595</v>
+        <v>0.9933544039901825</v>
       </c>
       <c r="O24">
-        <v>0.9993817903805157</v>
+        <v>0.9975260567333069</v>
       </c>
       <c r="P24">
-        <v>1.001187673996638</v>
+        <v>1.003732702514983</v>
       </c>
       <c r="Q24">
-        <v>1.000016431923729</v>
+        <v>0.9998312188897456</v>
       </c>
       <c r="R24">
-        <v>1.000049400825945</v>
+        <v>1.000273269673383</v>
       </c>
       <c r="S24">
-        <v>1.001008807153406</v>
+        <v>1.003200595358717</v>
       </c>
       <c r="T24">
-        <v>1.000049400825945</v>
+        <v>1.000273269673383</v>
       </c>
       <c r="U24">
-        <v>1.000199818986194</v>
+        <v>1.000739047516583</v>
       </c>
       <c r="V24">
-        <v>0.9997144260858676</v>
+        <v>0.9992621188113031</v>
       </c>
       <c r="W24">
-        <v>1.000191505275071</v>
+        <v>1.000654549767494</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9926361016602473</v>
+        <v>1.002229878678296</v>
       </c>
       <c r="D25">
-        <v>0.9635036155886264</v>
+        <v>1.012133338937324</v>
       </c>
       <c r="E25">
-        <v>0.9635036155886264</v>
+        <v>1.012133338937324</v>
       </c>
       <c r="F25">
-        <v>1.00902313909904</v>
+        <v>0.9966591779567736</v>
       </c>
       <c r="G25">
-        <v>1.024510416731903</v>
+        <v>0.9924577542342169</v>
       </c>
       <c r="H25">
-        <v>1.024510416731903</v>
+        <v>0.9924577542342169</v>
       </c>
       <c r="I25">
-        <v>1.024510416731903</v>
+        <v>0.9924577542342169</v>
       </c>
       <c r="J25">
-        <v>1.013536525179068</v>
+        <v>0.995463930002616</v>
       </c>
       <c r="K25">
-        <v>0.992151732830696</v>
+        <v>1.002588683326534</v>
       </c>
       <c r="L25">
-        <v>1.009180178180291</v>
+        <v>0.9971374900909714</v>
       </c>
       <c r="M25">
-        <v>0.9762523581834399</v>
+        <v>1.007835924722344</v>
       </c>
       <c r="N25">
-        <v>1.024510416731903</v>
+        <v>0.9924577542342169</v>
       </c>
       <c r="O25">
-        <v>1.00902313909904</v>
+        <v>0.9966591779567736</v>
       </c>
       <c r="P25">
-        <v>0.986263377343833</v>
+        <v>1.004396258447049</v>
       </c>
       <c r="Q25">
-        <v>1.000587435964868</v>
+        <v>0.9996239306416539</v>
       </c>
       <c r="R25">
-        <v>0.9990123904731897</v>
+        <v>1.000416757042771</v>
       </c>
       <c r="S25">
-        <v>0.9882261625061206</v>
+        <v>1.003793733406877</v>
       </c>
       <c r="T25">
-        <v>0.9990123904731897</v>
+        <v>1.000416757042771</v>
       </c>
       <c r="U25">
-        <v>0.9972972260625662</v>
+        <v>1.000959738613712</v>
       </c>
       <c r="V25">
-        <v>1.002739864196434</v>
+        <v>0.9992593417378132</v>
       </c>
       <c r="W25">
-        <v>0.9975992584316637</v>
+        <v>1.000813272243635</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9980624500952008</v>
+        <v>1.000682027625203</v>
       </c>
       <c r="D26">
-        <v>0.9901729472728952</v>
+        <v>1.002993557612761</v>
       </c>
       <c r="E26">
-        <v>0.9901729472728952</v>
+        <v>1.002993557612761</v>
       </c>
       <c r="F26">
-        <v>1.002500291493513</v>
+        <v>0.9993817903805157</v>
       </c>
       <c r="G26">
-        <v>1.006474000271409</v>
+        <v>0.9977728544845595</v>
       </c>
       <c r="H26">
-        <v>1.006474000271409</v>
+        <v>0.9977728544845595</v>
       </c>
       <c r="I26">
-        <v>1.006474000271409</v>
+        <v>0.9977728544845595</v>
       </c>
       <c r="J26">
-        <v>1.003652278182248</v>
+        <v>0.9989024821036976</v>
       </c>
       <c r="K26">
-        <v>0.9978910168379811</v>
+        <v>1.000651073466942</v>
       </c>
       <c r="L26">
-        <v>1.002432579359379</v>
+        <v>0.9991792842476804</v>
       </c>
       <c r="M26">
-        <v>0.9936179307861727</v>
+        <v>1.001968972279209</v>
       </c>
       <c r="N26">
-        <v>1.006474000271409</v>
+        <v>0.9977728544845595</v>
       </c>
       <c r="O26">
-        <v>1.002500291493513</v>
+        <v>0.9993817903805157</v>
       </c>
       <c r="P26">
-        <v>0.9963366193832042</v>
+        <v>1.001187673996638</v>
       </c>
       <c r="Q26">
-        <v>1.000195654165747</v>
+        <v>1.000016431923729</v>
       </c>
       <c r="R26">
-        <v>0.9997157463459391</v>
+        <v>1.000049400825945</v>
       </c>
       <c r="S26">
-        <v>0.9968547518681298</v>
+        <v>1.001008807153406</v>
       </c>
       <c r="T26">
-        <v>0.9997157463459391</v>
+        <v>1.000049400825945</v>
       </c>
       <c r="U26">
-        <v>0.9992595639689497</v>
+        <v>1.000199818986194</v>
       </c>
       <c r="V26">
-        <v>1.000702451229441</v>
+        <v>0.9997144260858676</v>
       </c>
       <c r="W26">
-        <v>0.9993504367873498</v>
+        <v>1.000191505275071</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9994336135399863</v>
+        <v>0.9926361016602473</v>
       </c>
       <c r="D27">
-        <v>0.997226378998571</v>
+        <v>0.9635036155886264</v>
       </c>
       <c r="E27">
-        <v>0.997226378998571</v>
+        <v>0.9635036155886264</v>
       </c>
       <c r="F27">
-        <v>1.000675186563878</v>
+        <v>1.00902313909904</v>
       </c>
       <c r="G27">
-        <v>1.001881437391271</v>
+        <v>1.024510416731903</v>
       </c>
       <c r="H27">
-        <v>1.001881437391271</v>
+        <v>1.024510416731903</v>
       </c>
       <c r="I27">
-        <v>1.001881437391271</v>
+        <v>1.024510416731903</v>
       </c>
       <c r="J27">
-        <v>1.00102762407678</v>
+        <v>1.013536525179068</v>
       </c>
       <c r="K27">
-        <v>0.9994029335628841</v>
+        <v>0.992151732830696</v>
       </c>
       <c r="L27">
-        <v>1.000703519664164</v>
+        <v>1.009180178180291</v>
       </c>
       <c r="M27">
-        <v>0.998193443060005</v>
+        <v>0.9762523581834399</v>
       </c>
       <c r="N27">
-        <v>1.001881437391271</v>
+        <v>1.024510416731903</v>
       </c>
       <c r="O27">
-        <v>1.000675186563878</v>
+        <v>1.00902313909904</v>
       </c>
       <c r="P27">
-        <v>0.9989507827812243</v>
+        <v>0.986263377343833</v>
       </c>
       <c r="Q27">
-        <v>1.000039060063381</v>
+        <v>1.000587435964868</v>
       </c>
       <c r="R27">
-        <v>0.99992766765124</v>
+        <v>0.9990123904731897</v>
       </c>
       <c r="S27">
-        <v>0.9991014997084443</v>
+        <v>0.9882261625061206</v>
       </c>
       <c r="T27">
-        <v>0.99992766765124</v>
+        <v>0.9990123904731897</v>
       </c>
       <c r="U27">
-        <v>0.999796484129151</v>
+        <v>0.9972972260625662</v>
       </c>
       <c r="V27">
-        <v>1.000213474781575</v>
+        <v>1.002739864196434</v>
       </c>
       <c r="W27">
-        <v>0.9998180171071924</v>
+        <v>0.9975992584316637</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9990094037723702</v>
+        <v>0.9980624500952008</v>
       </c>
       <c r="D28">
-        <v>0.9951972665479711</v>
+        <v>0.9901729472728952</v>
       </c>
       <c r="E28">
-        <v>0.9951972665479711</v>
+        <v>0.9901729472728952</v>
       </c>
       <c r="F28">
-        <v>1.001153723216778</v>
+        <v>1.002500291493513</v>
       </c>
       <c r="G28">
-        <v>1.003285291384978</v>
+        <v>1.006474000271409</v>
       </c>
       <c r="H28">
-        <v>1.003285291384978</v>
+        <v>1.006474000271409</v>
       </c>
       <c r="I28">
-        <v>1.003285291384978</v>
+        <v>1.006474000271409</v>
       </c>
       <c r="J28">
-        <v>1.001777799693803</v>
+        <v>1.003652278182248</v>
       </c>
       <c r="K28">
-        <v>0.9989651840942922</v>
+        <v>0.9978910168379811</v>
       </c>
       <c r="L28">
-        <v>1.001226768545251</v>
+        <v>1.002432579359379</v>
       </c>
       <c r="M28">
-        <v>0.9968691160921984</v>
+        <v>0.9936179307861727</v>
       </c>
       <c r="N28">
-        <v>1.003285291384978</v>
+        <v>1.006474000271409</v>
       </c>
       <c r="O28">
-        <v>1.001153723216778</v>
+        <v>1.002500291493513</v>
       </c>
       <c r="P28">
-        <v>0.9981754948823748</v>
+        <v>0.9963366193832042</v>
       </c>
       <c r="Q28">
-        <v>1.000059453655535</v>
+        <v>1.000195654165747</v>
       </c>
       <c r="R28">
-        <v>0.9998787603832425</v>
+        <v>0.9997157463459391</v>
       </c>
       <c r="S28">
-        <v>0.9984387246196805</v>
+        <v>0.9968547518681298</v>
       </c>
       <c r="T28">
-        <v>0.9998787603832425</v>
+        <v>0.9997157463459391</v>
       </c>
       <c r="U28">
-        <v>0.999650366311005</v>
+        <v>0.9992595639689497</v>
       </c>
       <c r="V28">
-        <v>1.0003773513258</v>
+        <v>1.000702451229441</v>
       </c>
       <c r="W28">
-        <v>0.9996855691684554</v>
+        <v>0.9993504367873498</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9994336135399863</v>
+      </c>
+      <c r="D29">
+        <v>0.997226378998571</v>
+      </c>
+      <c r="E29">
+        <v>0.997226378998571</v>
+      </c>
+      <c r="F29">
+        <v>1.000675186563878</v>
+      </c>
+      <c r="G29">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="H29">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="I29">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="J29">
+        <v>1.00102762407678</v>
+      </c>
+      <c r="K29">
+        <v>0.9994029335628841</v>
+      </c>
+      <c r="L29">
+        <v>1.000703519664164</v>
+      </c>
+      <c r="M29">
+        <v>0.998193443060005</v>
+      </c>
+      <c r="N29">
+        <v>1.001881437391271</v>
+      </c>
+      <c r="O29">
+        <v>1.000675186563878</v>
+      </c>
+      <c r="P29">
+        <v>0.9989507827812243</v>
+      </c>
+      <c r="Q29">
+        <v>1.000039060063381</v>
+      </c>
+      <c r="R29">
+        <v>0.99992766765124</v>
+      </c>
+      <c r="S29">
+        <v>0.9991014997084443</v>
+      </c>
+      <c r="T29">
+        <v>0.99992766765124</v>
+      </c>
+      <c r="U29">
+        <v>0.999796484129151</v>
+      </c>
+      <c r="V29">
+        <v>1.000213474781575</v>
+      </c>
+      <c r="W29">
+        <v>0.9998180171071924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9990094037723702</v>
+      </c>
+      <c r="D30">
+        <v>0.9951972665479711</v>
+      </c>
+      <c r="E30">
+        <v>0.9951972665479711</v>
+      </c>
+      <c r="F30">
+        <v>1.001153723216778</v>
+      </c>
+      <c r="G30">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="H30">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="I30">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="J30">
+        <v>1.001777799693803</v>
+      </c>
+      <c r="K30">
+        <v>0.9989651840942922</v>
+      </c>
+      <c r="L30">
+        <v>1.001226768545251</v>
+      </c>
+      <c r="M30">
+        <v>0.9968691160921984</v>
+      </c>
+      <c r="N30">
+        <v>1.003285291384978</v>
+      </c>
+      <c r="O30">
+        <v>1.001153723216778</v>
+      </c>
+      <c r="P30">
+        <v>0.9981754948823748</v>
+      </c>
+      <c r="Q30">
+        <v>1.000059453655535</v>
+      </c>
+      <c r="R30">
+        <v>0.9998787603832425</v>
+      </c>
+      <c r="S30">
+        <v>0.9984387246196805</v>
+      </c>
+      <c r="T30">
+        <v>0.9998787603832425</v>
+      </c>
+      <c r="U30">
+        <v>0.999650366311005</v>
+      </c>
+      <c r="V30">
+        <v>1.0003773513258</v>
+      </c>
+      <c r="W30">
+        <v>0.9996855691684554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000774120265103</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.004119329270528</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.004119329270528</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9988924147000446</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9973919677866772</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9973919677866772</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9973919677866772</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9984627789522521</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000880459091323</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9990133561203082</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002664968135265</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9973919677866772</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9988924147000446</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001505871985286</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.999886436895684</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00013457058575</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.001297401020632</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.00013457058575</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000321042712143</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9997352277270501</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000274924290188</v>
       </c>
     </row>
